--- a/Out_Sim_MonteCarlo.xlsx
+++ b/Out_Sim_MonteCarlo.xlsx
@@ -544,22 +544,22 @@
         <v>5.1584</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.6421</v>
+        <v>1.3916</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0293</v>
+        <v>0.0635</v>
       </c>
       <c r="F3" s="1">
-        <v>-13.178</v>
+        <v>28.5616</v>
       </c>
       <c r="G3" s="1">
-        <v>-8.019600000000001</v>
+        <v>33.7201</v>
       </c>
       <c r="H3" s="1">
-        <v>441.9404</v>
+        <v>483.6801</v>
       </c>
       <c r="I3" s="1">
-        <v>-0.0178</v>
+        <v>0.07489999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -570,25 +570,25 @@
         <v>0.0115</v>
       </c>
       <c r="C4" s="1">
-        <v>5.0665</v>
+        <v>5.545</v>
       </c>
       <c r="D4" s="1">
-        <v>-1.1088</v>
+        <v>-1.2288</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0506</v>
+        <v>-0.056</v>
       </c>
       <c r="F4" s="1">
-        <v>-22.3515</v>
+        <v>-27.1091</v>
       </c>
       <c r="G4" s="1">
-        <v>-17.285</v>
+        <v>-21.5641</v>
       </c>
       <c r="H4" s="1">
-        <v>424.6554</v>
+        <v>462.1159</v>
       </c>
       <c r="I4" s="1">
-        <v>-0.0391</v>
+        <v>-0.0446</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -599,25 +599,25 @@
         <v>0.0115</v>
       </c>
       <c r="C5" s="1">
-        <v>4.8683</v>
+        <v>5.2978</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2453</v>
+        <v>-0.0551</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0112</v>
+        <v>-0.0025</v>
       </c>
       <c r="F5" s="1">
-        <v>4.7524</v>
+        <v>-1.1621</v>
       </c>
       <c r="G5" s="1">
-        <v>9.620699999999999</v>
+        <v>4.1357</v>
       </c>
       <c r="H5" s="1">
-        <v>434.2761</v>
+        <v>466.2516</v>
       </c>
       <c r="I5" s="1">
-        <v>0.0227</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -628,25 +628,25 @@
         <v>0.0115</v>
       </c>
       <c r="C6" s="1">
-        <v>4.9786</v>
+        <v>5.3452</v>
       </c>
       <c r="D6" s="1">
-        <v>0.3265</v>
+        <v>-1.3829</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0149</v>
+        <v>-0.0631</v>
       </c>
       <c r="F6" s="1">
-        <v>6.4679</v>
+        <v>-29.4109</v>
       </c>
       <c r="G6" s="1">
-        <v>11.4465</v>
+        <v>-24.0657</v>
       </c>
       <c r="H6" s="1">
-        <v>445.7226</v>
+        <v>442.1859</v>
       </c>
       <c r="I6" s="1">
-        <v>0.0264</v>
+        <v>-0.0516</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -657,25 +657,25 @@
         <v>0.0115</v>
       </c>
       <c r="C7" s="1">
-        <v>5.1098</v>
+        <v>5.0693</v>
       </c>
       <c r="D7" s="1">
-        <v>2.156</v>
+        <v>0.3906</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0983</v>
+        <v>0.0178</v>
       </c>
       <c r="F7" s="1">
-        <v>43.8332</v>
+        <v>7.879</v>
       </c>
       <c r="G7" s="1">
-        <v>48.943</v>
+        <v>12.9483</v>
       </c>
       <c r="H7" s="1">
-        <v>494.6656</v>
+        <v>455.1342</v>
       </c>
       <c r="I7" s="1">
-        <v>0.1098</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -686,25 +686,25 @@
         <v>0.0115</v>
       </c>
       <c r="C8" s="1">
-        <v>5.6709</v>
+        <v>5.2177</v>
       </c>
       <c r="D8" s="1">
-        <v>1.3549</v>
+        <v>-0.8958</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0618</v>
+        <v>-0.0409</v>
       </c>
       <c r="F8" s="1">
-        <v>30.5716</v>
+        <v>-18.5971</v>
       </c>
       <c r="G8" s="1">
-        <v>36.2425</v>
+        <v>-13.3794</v>
       </c>
       <c r="H8" s="1">
-        <v>530.9081</v>
+        <v>441.7548</v>
       </c>
       <c r="I8" s="1">
-        <v>0.0733</v>
+        <v>-0.0294</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -715,25 +715,25 @@
         <v>0.0115</v>
       </c>
       <c r="C9" s="1">
-        <v>6.0864</v>
+        <v>5.0644</v>
       </c>
       <c r="D9" s="1">
-        <v>0.6309</v>
+        <v>1.5449</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0288</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="F9" s="1">
-        <v>15.277</v>
+        <v>31.1284</v>
       </c>
       <c r="G9" s="1">
-        <v>21.3634</v>
+        <v>36.1928</v>
       </c>
       <c r="H9" s="1">
-        <v>552.2714999999999</v>
+        <v>477.9476</v>
       </c>
       <c r="I9" s="1">
-        <v>0.0402</v>
+        <v>0.0819</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -744,25 +744,25 @@
         <v>0.0115</v>
       </c>
       <c r="C10" s="1">
-        <v>6.3313</v>
+        <v>5.4793</v>
       </c>
       <c r="D10" s="1">
-        <v>-1.2944</v>
+        <v>-0.5602</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.059</v>
+        <v>-0.0256</v>
       </c>
       <c r="F10" s="1">
-        <v>-32.6073</v>
+        <v>-12.2127</v>
       </c>
       <c r="G10" s="1">
-        <v>-26.276</v>
+        <v>-6.7334</v>
       </c>
       <c r="H10" s="1">
-        <v>525.9955</v>
+        <v>471.2142</v>
       </c>
       <c r="I10" s="1">
-        <v>-0.0476</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -773,25 +773,25 @@
         <v>0.0115</v>
       </c>
       <c r="C11" s="1">
-        <v>6.0301</v>
+        <v>5.4021</v>
       </c>
       <c r="D11" s="1">
-        <v>0.8571</v>
+        <v>1.171</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0391</v>
+        <v>0.0534</v>
       </c>
       <c r="F11" s="1">
-        <v>20.564</v>
+        <v>25.1687</v>
       </c>
       <c r="G11" s="1">
-        <v>26.5941</v>
+        <v>30.5708</v>
       </c>
       <c r="H11" s="1">
-        <v>552.5896</v>
+        <v>501.785</v>
       </c>
       <c r="I11" s="1">
-        <v>0.0506</v>
+        <v>0.0649</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -802,25 +802,25 @@
         <v>0.0115</v>
       </c>
       <c r="C12" s="1">
-        <v>6.335</v>
+        <v>5.7525</v>
       </c>
       <c r="D12" s="1">
-        <v>-0.2679</v>
+        <v>0.595</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.0122</v>
+        <v>0.0271</v>
       </c>
       <c r="F12" s="1">
-        <v>-6.7515</v>
+        <v>13.6172</v>
       </c>
       <c r="G12" s="1">
-        <v>-0.4165</v>
+        <v>19.3698</v>
       </c>
       <c r="H12" s="1">
-        <v>552.173</v>
+        <v>521.1548</v>
       </c>
       <c r="I12" s="1">
-        <v>-0.0008</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -831,25 +831,25 @@
         <v>0.0115</v>
       </c>
       <c r="C13" s="1">
-        <v>6.3302</v>
+        <v>5.9746</v>
       </c>
       <c r="D13" s="1">
-        <v>0.776</v>
+        <v>-0.0659</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0354</v>
+        <v>-0.003</v>
       </c>
       <c r="F13" s="1">
-        <v>19.5452</v>
+        <v>-1.5659</v>
       </c>
       <c r="G13" s="1">
-        <v>25.8754</v>
+        <v>4.4087</v>
       </c>
       <c r="H13" s="1">
-        <v>578.0485</v>
+        <v>525.5635</v>
       </c>
       <c r="I13" s="1">
-        <v>0.0469</v>
+        <v>0.008500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -860,25 +860,25 @@
         <v>0.0115</v>
       </c>
       <c r="C14" s="1">
-        <v>6.6268</v>
+        <v>6.0251</v>
       </c>
       <c r="D14" s="1">
-        <v>1.3795</v>
+        <v>0.5743</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0629</v>
+        <v>0.0262</v>
       </c>
       <c r="F14" s="1">
-        <v>36.3722</v>
+        <v>13.7671</v>
       </c>
       <c r="G14" s="1">
-        <v>42.999</v>
+        <v>19.7923</v>
       </c>
       <c r="H14" s="1">
-        <v>621.0475</v>
+        <v>545.3557</v>
       </c>
       <c r="I14" s="1">
-        <v>0.07439999999999999</v>
+        <v>0.0377</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -889,25 +889,25 @@
         <v>0.0115</v>
       </c>
       <c r="C15" s="1">
-        <v>7.1198</v>
+        <v>6.2521</v>
       </c>
       <c r="D15" s="1">
-        <v>-0.08699999999999999</v>
+        <v>-0.0319</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.004</v>
+        <v>-0.0015</v>
       </c>
       <c r="F15" s="1">
-        <v>-2.4646</v>
+        <v>-0.7937</v>
       </c>
       <c r="G15" s="1">
-        <v>4.6552</v>
+        <v>5.4583</v>
       </c>
       <c r="H15" s="1">
-        <v>625.7026</v>
+        <v>550.8141000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>0.0075</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -918,25 +918,25 @@
         <v>0.0115</v>
       </c>
       <c r="C16" s="1">
-        <v>7.1732</v>
+        <v>6.3146</v>
       </c>
       <c r="D16" s="1">
-        <v>-0.07530000000000001</v>
+        <v>-0.45</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0034</v>
+        <v>-0.0205</v>
       </c>
       <c r="F16" s="1">
-        <v>-2.1486</v>
+        <v>-11.3069</v>
       </c>
       <c r="G16" s="1">
-        <v>5.0245</v>
+        <v>-4.9923</v>
       </c>
       <c r="H16" s="1">
-        <v>630.7272</v>
+        <v>545.8218000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>0.008</v>
+        <v>-0.0091</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -947,25 +947,25 @@
         <v>0.0115</v>
       </c>
       <c r="C17" s="1">
-        <v>7.2308</v>
+        <v>6.2574</v>
       </c>
       <c r="D17" s="1">
-        <v>0.4902</v>
+        <v>0.4663</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0224</v>
+        <v>0.0213</v>
       </c>
       <c r="F17" s="1">
-        <v>14.1019</v>
+        <v>11.61</v>
       </c>
       <c r="G17" s="1">
-        <v>21.3326</v>
+        <v>17.8674</v>
       </c>
       <c r="H17" s="1">
-        <v>652.0598</v>
+        <v>563.6891000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>0.0338</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -976,25 +976,25 @@
         <v>0.0115</v>
       </c>
       <c r="C18" s="1">
-        <v>7.4753</v>
+        <v>6.4622</v>
       </c>
       <c r="D18" s="1">
-        <v>0.3526</v>
+        <v>-0.6065</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0161</v>
+        <v>-0.0277</v>
       </c>
       <c r="F18" s="1">
-        <v>10.4865</v>
+        <v>-15.5945</v>
       </c>
       <c r="G18" s="1">
-        <v>17.9618</v>
+        <v>-9.132199999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>670.0216</v>
+        <v>554.5569</v>
       </c>
       <c r="I18" s="1">
-        <v>0.0275</v>
+        <v>-0.0162</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1005,25 +1005,25 @@
         <v>0.0115</v>
       </c>
       <c r="C19" s="1">
-        <v>7.6812</v>
+        <v>6.3575</v>
       </c>
       <c r="D19" s="1">
-        <v>-0.9761</v>
+        <v>3.8593</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.0445</v>
+        <v>0.176</v>
       </c>
       <c r="F19" s="1">
-        <v>-29.8305</v>
+        <v>97.62139999999999</v>
       </c>
       <c r="G19" s="1">
-        <v>-22.1492</v>
+        <v>103.9789</v>
       </c>
       <c r="H19" s="1">
-        <v>647.8724</v>
+        <v>658.5358</v>
       </c>
       <c r="I19" s="1">
-        <v>-0.0331</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1034,25 +1034,25 @@
         <v>0.0115</v>
       </c>
       <c r="C20" s="1">
-        <v>7.4273</v>
+        <v>7.5496</v>
       </c>
       <c r="D20" s="1">
-        <v>-1.0253</v>
+        <v>0.1196</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.0468</v>
+        <v>0.0055</v>
       </c>
       <c r="F20" s="1">
-        <v>-30.2985</v>
+        <v>3.5933</v>
       </c>
       <c r="G20" s="1">
-        <v>-22.8711</v>
+        <v>11.1429</v>
       </c>
       <c r="H20" s="1">
-        <v>625.0013</v>
+        <v>669.6787</v>
       </c>
       <c r="I20" s="1">
-        <v>-0.0353</v>
+        <v>0.0169</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1063,25 +1063,25 @@
         <v>0.0115</v>
       </c>
       <c r="C21" s="1">
-        <v>7.1651</v>
+        <v>7.6773</v>
       </c>
       <c r="D21" s="1">
-        <v>0.2721</v>
+        <v>0.5467</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0124</v>
+        <v>0.0249</v>
       </c>
       <c r="F21" s="1">
-        <v>7.7571</v>
+        <v>16.6981</v>
       </c>
       <c r="G21" s="1">
-        <v>14.9223</v>
+        <v>24.3754</v>
       </c>
       <c r="H21" s="1">
-        <v>639.9235</v>
+        <v>694.0540999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>0.0239</v>
+        <v>0.0364</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1092,25 +1092,25 @@
         <v>0.0115</v>
       </c>
       <c r="C22" s="1">
-        <v>7.3362</v>
+        <v>7.9568</v>
       </c>
       <c r="D22" s="1">
-        <v>0.6354</v>
+        <v>-0.517</v>
       </c>
       <c r="E22" s="1">
-        <v>0.029</v>
+        <v>-0.0236</v>
       </c>
       <c r="F22" s="1">
-        <v>18.5453</v>
+        <v>-16.3669</v>
       </c>
       <c r="G22" s="1">
-        <v>25.8815</v>
+        <v>-8.4102</v>
       </c>
       <c r="H22" s="1">
-        <v>665.8049999999999</v>
+        <v>685.6439</v>
       </c>
       <c r="I22" s="1">
-        <v>0.0404</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1121,25 +1121,25 @@
         <v>0.0115</v>
       </c>
       <c r="C23" s="1">
-        <v>7.6329</v>
+        <v>7.8603</v>
       </c>
       <c r="D23" s="1">
-        <v>-0.5345</v>
+        <v>-0.8975</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0244</v>
+        <v>-0.0409</v>
       </c>
       <c r="F23" s="1">
-        <v>-16.232</v>
+        <v>-28.0677</v>
       </c>
       <c r="G23" s="1">
-        <v>-8.5991</v>
+        <v>-20.2073</v>
       </c>
       <c r="H23" s="1">
-        <v>657.2059</v>
+        <v>665.4366</v>
       </c>
       <c r="I23" s="1">
-        <v>-0.0129</v>
+        <v>-0.0295</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1150,25 +1150,25 @@
         <v>0.0115</v>
       </c>
       <c r="C24" s="1">
-        <v>7.5343</v>
+        <v>7.6287</v>
       </c>
       <c r="D24" s="1">
-        <v>-0.4683</v>
+        <v>-0.4142</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.0214</v>
+        <v>-0.0189</v>
       </c>
       <c r="F24" s="1">
-        <v>-14.0373</v>
+        <v>-12.5715</v>
       </c>
       <c r="G24" s="1">
-        <v>-6.503</v>
+        <v>-4.9429</v>
       </c>
       <c r="H24" s="1">
-        <v>650.7029</v>
+        <v>660.4938</v>
       </c>
       <c r="I24" s="1">
-        <v>-0.009900000000000001</v>
+        <v>-0.0074</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1179,25 +1179,25 @@
         <v>0.0115</v>
       </c>
       <c r="C25" s="1">
-        <v>7.4598</v>
+        <v>7.572</v>
       </c>
       <c r="D25" s="1">
-        <v>0.3249</v>
+        <v>-1.2305</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0148</v>
+        <v>-0.0561</v>
       </c>
       <c r="F25" s="1">
-        <v>9.6434</v>
+        <v>-37.0716</v>
       </c>
       <c r="G25" s="1">
-        <v>17.1032</v>
+        <v>-29.4996</v>
       </c>
       <c r="H25" s="1">
-        <v>667.8061</v>
+        <v>630.9942</v>
       </c>
       <c r="I25" s="1">
-        <v>0.0263</v>
+        <v>-0.0447</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1208,25 +1208,25 @@
         <v>0.0115</v>
       </c>
       <c r="C26" s="1">
-        <v>7.6558</v>
+        <v>7.2338</v>
       </c>
       <c r="D26" s="1">
-        <v>1.5357</v>
+        <v>-0.2099</v>
       </c>
       <c r="E26" s="1">
-        <v>0.07000000000000001</v>
+        <v>-0.009599999999999999</v>
       </c>
       <c r="F26" s="1">
-        <v>46.7787</v>
+        <v>-6.0402</v>
       </c>
       <c r="G26" s="1">
-        <v>54.4345</v>
+        <v>1.1936</v>
       </c>
       <c r="H26" s="1">
-        <v>722.2406</v>
+        <v>632.1878</v>
       </c>
       <c r="I26" s="1">
-        <v>0.0815</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1237,25 +1237,25 @@
         <v>0.0115</v>
       </c>
       <c r="C27" s="1">
-        <v>8.2799</v>
+        <v>7.2475</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0886</v>
+        <v>-0.5213</v>
       </c>
       <c r="E27" s="1">
-        <v>0.004</v>
+        <v>-0.0238</v>
       </c>
       <c r="F27" s="1">
-        <v>2.9202</v>
+        <v>-15.0329</v>
       </c>
       <c r="G27" s="1">
-        <v>11.2001</v>
+        <v>-7.7854</v>
       </c>
       <c r="H27" s="1">
-        <v>733.4407</v>
+        <v>624.4023999999999</v>
       </c>
       <c r="I27" s="1">
-        <v>0.0155</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1266,25 +1266,25 @@
         <v>0.0115</v>
       </c>
       <c r="C28" s="1">
-        <v>8.408300000000001</v>
+        <v>7.1583</v>
       </c>
       <c r="D28" s="1">
-        <v>-0.7225</v>
+        <v>0.2293</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.033</v>
+        <v>0.0105</v>
       </c>
       <c r="F28" s="1">
-        <v>-24.1725</v>
+        <v>6.5302</v>
       </c>
       <c r="G28" s="1">
-        <v>-15.7642</v>
+        <v>13.6885</v>
       </c>
       <c r="H28" s="1">
-        <v>717.6766</v>
+        <v>638.0907999999999</v>
       </c>
       <c r="I28" s="1">
-        <v>-0.0215</v>
+        <v>0.0219</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>0.0115</v>
       </c>
       <c r="C29" s="1">
-        <v>8.227600000000001</v>
+        <v>7.3152</v>
       </c>
       <c r="D29" s="1">
-        <v>-0.604</v>
+        <v>-0.5729</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0276</v>
+        <v>-0.0261</v>
       </c>
       <c r="F29" s="1">
-        <v>-19.7734</v>
+        <v>-16.6744</v>
       </c>
       <c r="G29" s="1">
-        <v>-11.5459</v>
+        <v>-9.359299999999999</v>
       </c>
       <c r="H29" s="1">
-        <v>706.1307</v>
+        <v>628.7316</v>
       </c>
       <c r="I29" s="1">
-        <v>-0.0161</v>
+        <v>-0.0147</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1324,25 +1324,25 @@
         <v>0.0115</v>
       </c>
       <c r="C30" s="1">
-        <v>8.0952</v>
+        <v>7.2079</v>
       </c>
       <c r="D30" s="1">
-        <v>-0.7017</v>
+        <v>-1.7383</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.032</v>
+        <v>-0.0793</v>
       </c>
       <c r="F30" s="1">
-        <v>-22.6001</v>
+        <v>-49.852</v>
       </c>
       <c r="G30" s="1">
-        <v>-14.5049</v>
+        <v>-42.6441</v>
       </c>
       <c r="H30" s="1">
-        <v>691.6259</v>
+        <v>586.0875</v>
       </c>
       <c r="I30" s="1">
-        <v>-0.0205</v>
+        <v>-0.0678</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1353,25 +1353,25 @@
         <v>0.0115</v>
       </c>
       <c r="C31" s="1">
-        <v>7.9289</v>
+        <v>6.719</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0515</v>
+        <v>-0.7096</v>
       </c>
       <c r="E31" s="1">
-        <v>0.0024</v>
+        <v>-0.0324</v>
       </c>
       <c r="F31" s="1">
-        <v>1.6257</v>
+        <v>-18.9689</v>
       </c>
       <c r="G31" s="1">
-        <v>9.554600000000001</v>
+        <v>-12.2499</v>
       </c>
       <c r="H31" s="1">
-        <v>701.1805000000001</v>
+        <v>573.8376</v>
       </c>
       <c r="I31" s="1">
-        <v>0.0138</v>
+        <v>-0.0209</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1382,25 +1382,25 @@
         <v>0.0115</v>
       </c>
       <c r="C32" s="1">
-        <v>8.038500000000001</v>
+        <v>6.5786</v>
       </c>
       <c r="D32" s="1">
-        <v>1.5917</v>
+        <v>0.1816</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0726</v>
+        <v>0.0083</v>
       </c>
       <c r="F32" s="1">
-        <v>50.9082</v>
+        <v>4.752</v>
       </c>
       <c r="G32" s="1">
-        <v>58.9466</v>
+        <v>11.3306</v>
       </c>
       <c r="H32" s="1">
-        <v>760.1271</v>
+        <v>585.1681</v>
       </c>
       <c r="I32" s="1">
-        <v>0.08409999999999999</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>0.0115</v>
       </c>
       <c r="C33" s="1">
-        <v>8.7142</v>
+        <v>6.7085</v>
       </c>
       <c r="D33" s="1">
-        <v>-0.0291</v>
+        <v>0.3853</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.0013</v>
+        <v>0.0176</v>
       </c>
       <c r="F33" s="1">
-        <v>-1.0084</v>
+        <v>10.2845</v>
       </c>
       <c r="G33" s="1">
-        <v>7.7058</v>
+        <v>16.9929</v>
       </c>
       <c r="H33" s="1">
-        <v>767.8329</v>
+        <v>602.1611</v>
       </c>
       <c r="I33" s="1">
-        <v>0.0101</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1440,25 +1440,25 @@
         <v>0.0115</v>
       </c>
       <c r="C34" s="1">
-        <v>8.8026</v>
+        <v>6.9033</v>
       </c>
       <c r="D34" s="1">
-        <v>-0.8685</v>
+        <v>0.1793</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0396</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="F34" s="1">
-        <v>-30.4171</v>
+        <v>4.9234</v>
       </c>
       <c r="G34" s="1">
-        <v>-21.6145</v>
+        <v>11.8267</v>
       </c>
       <c r="H34" s="1">
-        <v>746.2184</v>
+        <v>613.9878</v>
       </c>
       <c r="I34" s="1">
-        <v>-0.0281</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1469,25 +1469,25 @@
         <v>0.0115</v>
       </c>
       <c r="C35" s="1">
-        <v>8.5548</v>
+        <v>7.0389</v>
       </c>
       <c r="D35" s="1">
-        <v>-0.4712</v>
+        <v>-0.6506999999999999</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0215</v>
+        <v>-0.0297</v>
       </c>
       <c r="F35" s="1">
-        <v>-16.0396</v>
+        <v>-18.2236</v>
       </c>
       <c r="G35" s="1">
-        <v>-7.4848</v>
+        <v>-11.1847</v>
       </c>
       <c r="H35" s="1">
-        <v>738.7337</v>
+        <v>602.803</v>
       </c>
       <c r="I35" s="1">
-        <v>-0.01</v>
+        <v>-0.0182</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1498,25 +1498,25 @@
         <v>0.0115</v>
       </c>
       <c r="C36" s="1">
-        <v>8.468999999999999</v>
+        <v>6.9106</v>
       </c>
       <c r="D36" s="1">
-        <v>-2.0167</v>
+        <v>2.6407</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.092</v>
+        <v>0.1205</v>
       </c>
       <c r="F36" s="1">
-        <v>-67.955</v>
+        <v>72.60890000000001</v>
       </c>
       <c r="G36" s="1">
-        <v>-59.486</v>
+        <v>79.51949999999999</v>
       </c>
       <c r="H36" s="1">
-        <v>679.2477</v>
+        <v>682.3226</v>
       </c>
       <c r="I36" s="1">
-        <v>-0.0805</v>
+        <v>0.1319</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1527,25 +1527,25 @@
         <v>0.0115</v>
       </c>
       <c r="C37" s="1">
-        <v>7.787</v>
+        <v>7.8223</v>
       </c>
       <c r="D37" s="1">
-        <v>0.4528</v>
+        <v>-0.0616</v>
       </c>
       <c r="E37" s="1">
-        <v>0.0207</v>
+        <v>-0.0028</v>
       </c>
       <c r="F37" s="1">
-        <v>14.0292</v>
+        <v>-1.9166</v>
       </c>
       <c r="G37" s="1">
-        <v>21.8162</v>
+        <v>5.9056</v>
       </c>
       <c r="H37" s="1">
-        <v>701.0639</v>
+        <v>688.2282</v>
       </c>
       <c r="I37" s="1">
-        <v>0.0321</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1556,25 +1556,25 @@
         <v>0.0115</v>
       </c>
       <c r="C38" s="1">
-        <v>8.037100000000001</v>
+        <v>7.89</v>
       </c>
       <c r="D38" s="1">
-        <v>-0.3065</v>
+        <v>0.8967000000000001</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.014</v>
+        <v>0.0409</v>
       </c>
       <c r="F38" s="1">
-        <v>-9.8018</v>
+        <v>28.1491</v>
       </c>
       <c r="G38" s="1">
-        <v>-1.7647</v>
+        <v>36.039</v>
       </c>
       <c r="H38" s="1">
-        <v>699.2992</v>
+        <v>724.2672</v>
       </c>
       <c r="I38" s="1">
-        <v>-0.0025</v>
+        <v>0.0524</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1585,25 +1585,25 @@
         <v>0.0115</v>
       </c>
       <c r="C39" s="1">
-        <v>8.0169</v>
+        <v>8.303100000000001</v>
       </c>
       <c r="D39" s="1">
-        <v>-0.1853</v>
+        <v>-0.4817</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.008500000000000001</v>
+        <v>-0.022</v>
       </c>
       <c r="F39" s="1">
-        <v>-5.9092</v>
+        <v>-15.9148</v>
       </c>
       <c r="G39" s="1">
-        <v>2.1076</v>
+        <v>-7.6116</v>
       </c>
       <c r="H39" s="1">
-        <v>701.4068</v>
+        <v>716.6556</v>
       </c>
       <c r="I39" s="1">
-        <v>0.003</v>
+        <v>-0.0105</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1614,25 +1614,25 @@
         <v>0.0115</v>
       </c>
       <c r="C40" s="1">
-        <v>8.041</v>
+        <v>8.2159</v>
       </c>
       <c r="D40" s="1">
-        <v>0.6024</v>
+        <v>-0.6871</v>
       </c>
       <c r="E40" s="1">
-        <v>0.0275</v>
+        <v>-0.0313</v>
       </c>
       <c r="F40" s="1">
-        <v>19.2734</v>
+        <v>-22.4609</v>
       </c>
       <c r="G40" s="1">
-        <v>27.3144</v>
+        <v>-14.245</v>
       </c>
       <c r="H40" s="1">
-        <v>728.7213</v>
+        <v>702.4105</v>
       </c>
       <c r="I40" s="1">
-        <v>0.0389</v>
+        <v>-0.0199</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1643,25 +1643,25 @@
         <v>0.0115</v>
       </c>
       <c r="C41" s="1">
-        <v>8.354200000000001</v>
+        <v>8.0526</v>
       </c>
       <c r="D41" s="1">
-        <v>1.0591</v>
+        <v>-0.7887999999999999</v>
       </c>
       <c r="E41" s="1">
-        <v>0.0483</v>
+        <v>-0.036</v>
       </c>
       <c r="F41" s="1">
-        <v>35.2053</v>
+        <v>-25.2732</v>
       </c>
       <c r="G41" s="1">
-        <v>43.5595</v>
+        <v>-17.2206</v>
       </c>
       <c r="H41" s="1">
-        <v>772.2808</v>
+        <v>685.1899</v>
       </c>
       <c r="I41" s="1">
-        <v>0.0598</v>
+        <v>-0.0245</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1672,25 +1672,25 @@
         <v>0.0115</v>
       </c>
       <c r="C42" s="1">
-        <v>8.8536</v>
+        <v>7.8551</v>
       </c>
       <c r="D42" s="1">
-        <v>-0.821</v>
+        <v>-1.3432</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.0374</v>
+        <v>-0.0613</v>
       </c>
       <c r="F42" s="1">
-        <v>-28.9204</v>
+        <v>-41.981</v>
       </c>
       <c r="G42" s="1">
-        <v>-20.0668</v>
+        <v>-34.1259</v>
       </c>
       <c r="H42" s="1">
-        <v>752.2139</v>
+        <v>651.064</v>
       </c>
       <c r="I42" s="1">
-        <v>-0.026</v>
+        <v>-0.0498</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1701,25 +1701,25 @@
         <v>0.0115</v>
       </c>
       <c r="C43" s="1">
-        <v>8.6235</v>
+        <v>7.4639</v>
       </c>
       <c r="D43" s="1">
-        <v>-0.6188</v>
+        <v>1.8139</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.0282</v>
+        <v>0.0827</v>
       </c>
       <c r="F43" s="1">
-        <v>-21.2328</v>
+        <v>53.867</v>
       </c>
       <c r="G43" s="1">
-        <v>-12.6093</v>
+        <v>61.3309</v>
       </c>
       <c r="H43" s="1">
-        <v>739.6046</v>
+        <v>712.395</v>
       </c>
       <c r="I43" s="1">
-        <v>-0.0168</v>
+        <v>0.09420000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1730,25 +1730,25 @@
         <v>0.0115</v>
       </c>
       <c r="C44" s="1">
-        <v>8.478999999999999</v>
+        <v>8.167</v>
       </c>
       <c r="D44" s="1">
-        <v>1.4445</v>
+        <v>1.1977</v>
       </c>
       <c r="E44" s="1">
-        <v>0.0659</v>
+        <v>0.0546</v>
       </c>
       <c r="F44" s="1">
-        <v>48.7295</v>
+        <v>38.9183</v>
       </c>
       <c r="G44" s="1">
-        <v>57.2085</v>
+        <v>47.0853</v>
       </c>
       <c r="H44" s="1">
-        <v>796.8131</v>
+        <v>759.4803000000001</v>
       </c>
       <c r="I44" s="1">
-        <v>0.0774</v>
+        <v>0.06610000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1759,25 +1759,25 @@
         <v>0.0115</v>
       </c>
       <c r="C45" s="1">
-        <v>9.1348</v>
+        <v>8.706799999999999</v>
       </c>
       <c r="D45" s="1">
-        <v>-0.1263</v>
+        <v>1.7184</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.0058</v>
+        <v>0.0784</v>
       </c>
       <c r="F45" s="1">
-        <v>-4.5911</v>
+        <v>59.531</v>
       </c>
       <c r="G45" s="1">
-        <v>4.5437</v>
+        <v>68.23779999999999</v>
       </c>
       <c r="H45" s="1">
-        <v>801.3568</v>
+        <v>827.718</v>
       </c>
       <c r="I45" s="1">
-        <v>0.0057</v>
+        <v>0.0898</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1788,25 +1788,25 @@
         <v>0.0115</v>
       </c>
       <c r="C46" s="1">
-        <v>9.1869</v>
+        <v>9.489100000000001</v>
       </c>
       <c r="D46" s="1">
-        <v>-0.8614000000000001</v>
+        <v>-0.0412</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.0393</v>
+        <v>-0.0019</v>
       </c>
       <c r="F46" s="1">
-        <v>-31.4875</v>
+        <v>-1.5566</v>
       </c>
       <c r="G46" s="1">
-        <v>-22.3007</v>
+        <v>7.9325</v>
       </c>
       <c r="H46" s="1">
-        <v>779.0561</v>
+        <v>835.6506000000001</v>
       </c>
       <c r="I46" s="1">
-        <v>-0.0278</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1817,25 +1817,25 @@
         <v>0.0115</v>
       </c>
       <c r="C47" s="1">
-        <v>8.9312</v>
+        <v>9.58</v>
       </c>
       <c r="D47" s="1">
-        <v>-3.0221</v>
+        <v>-0.4786</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.1378</v>
+        <v>-0.0218</v>
       </c>
       <c r="F47" s="1">
-        <v>-107.3904</v>
+        <v>-18.2433</v>
       </c>
       <c r="G47" s="1">
-        <v>-98.4592</v>
+        <v>-8.6633</v>
       </c>
       <c r="H47" s="1">
-        <v>680.597</v>
+        <v>826.9873</v>
       </c>
       <c r="I47" s="1">
-        <v>-0.1264</v>
+        <v>-0.0104</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1846,25 +1846,25 @@
         <v>0.0115</v>
       </c>
       <c r="C48" s="1">
-        <v>7.8025</v>
+        <v>9.480700000000001</v>
       </c>
       <c r="D48" s="1">
-        <v>0.2275</v>
+        <v>1.1162</v>
       </c>
       <c r="E48" s="1">
-        <v>0.0104</v>
+        <v>0.0509</v>
       </c>
       <c r="F48" s="1">
-        <v>7.063</v>
+        <v>42.1038</v>
       </c>
       <c r="G48" s="1">
-        <v>14.8654</v>
+        <v>51.5845</v>
       </c>
       <c r="H48" s="1">
-        <v>695.4624</v>
+        <v>878.5718000000001</v>
       </c>
       <c r="I48" s="1">
-        <v>0.0218</v>
+        <v>0.0624</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1875,25 +1875,25 @@
         <v>0.0115</v>
       </c>
       <c r="C49" s="1">
-        <v>7.9729</v>
+        <v>10.0721</v>
       </c>
       <c r="D49" s="1">
-        <v>-0.5059</v>
+        <v>-0.0575</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.0231</v>
+        <v>-0.0026</v>
       </c>
       <c r="F49" s="1">
-        <v>-16.0498</v>
+        <v>-2.3041</v>
       </c>
       <c r="G49" s="1">
-        <v>-8.0769</v>
+        <v>7.768</v>
       </c>
       <c r="H49" s="1">
-        <v>687.3855</v>
+        <v>886.3398999999999</v>
       </c>
       <c r="I49" s="1">
-        <v>-0.0116</v>
+        <v>0.008800000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1904,25 +1904,25 @@
         <v>0.0115</v>
       </c>
       <c r="C50" s="1">
-        <v>7.8803</v>
+        <v>10.1612</v>
       </c>
       <c r="D50" s="1">
-        <v>0.0009</v>
+        <v>0.6877</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>0.0314</v>
       </c>
       <c r="F50" s="1">
-        <v>0.0292</v>
+        <v>27.8044</v>
       </c>
       <c r="G50" s="1">
-        <v>7.9095</v>
+        <v>37.9655</v>
       </c>
       <c r="H50" s="1">
-        <v>695.295</v>
+        <v>924.3054</v>
       </c>
       <c r="I50" s="1">
-        <v>0.0115</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1933,25 +1933,25 @@
         <v>0.0115</v>
       </c>
       <c r="C51" s="1">
-        <v>7.971</v>
+        <v>10.5964</v>
       </c>
       <c r="D51" s="1">
-        <v>-0.8031</v>
+        <v>0.7783</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.0366</v>
+        <v>0.0355</v>
       </c>
       <c r="F51" s="1">
-        <v>-25.4688</v>
+        <v>32.8128</v>
       </c>
       <c r="G51" s="1">
-        <v>-17.4979</v>
+        <v>43.4092</v>
       </c>
       <c r="H51" s="1">
-        <v>677.7971</v>
+        <v>967.7146</v>
       </c>
       <c r="I51" s="1">
-        <v>-0.0252</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1962,25 +1962,25 @@
         <v>0.0115</v>
       </c>
       <c r="C52" s="1">
-        <v>7.7704</v>
+        <v>11.094</v>
       </c>
       <c r="D52" s="1">
-        <v>1.356</v>
+        <v>-0.7403</v>
       </c>
       <c r="E52" s="1">
-        <v>0.0619</v>
+        <v>-0.0338</v>
       </c>
       <c r="F52" s="1">
-        <v>41.9221</v>
+        <v>-32.676</v>
       </c>
       <c r="G52" s="1">
-        <v>49.6925</v>
+        <v>-21.5819</v>
       </c>
       <c r="H52" s="1">
-        <v>727.4896</v>
+        <v>946.1327</v>
       </c>
       <c r="I52" s="1">
-        <v>0.0733</v>
+        <v>-0.0223</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1991,25 +1991,25 @@
         <v>0.0115</v>
       </c>
       <c r="C53" s="1">
-        <v>8.3401</v>
+        <v>10.8466</v>
       </c>
       <c r="D53" s="1">
-        <v>0.9752</v>
+        <v>1.6406</v>
       </c>
       <c r="E53" s="1">
-        <v>0.0445</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="F53" s="1">
-        <v>32.3598</v>
+        <v>70.8009</v>
       </c>
       <c r="G53" s="1">
-        <v>40.6998</v>
+        <v>81.64749999999999</v>
       </c>
       <c r="H53" s="1">
-        <v>768.1895</v>
+        <v>1027.7801</v>
       </c>
       <c r="I53" s="1">
-        <v>0.0559</v>
+        <v>0.0863</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2020,25 +2020,25 @@
         <v>0.0115</v>
       </c>
       <c r="C54" s="1">
-        <v>8.806699999999999</v>
+        <v>11.7826</v>
       </c>
       <c r="D54" s="1">
-        <v>1.4504</v>
+        <v>0.4764</v>
       </c>
       <c r="E54" s="1">
-        <v>0.06619999999999999</v>
+        <v>0.0217</v>
       </c>
       <c r="F54" s="1">
-        <v>50.8206</v>
+        <v>22.3325</v>
       </c>
       <c r="G54" s="1">
-        <v>59.6273</v>
+        <v>34.1151</v>
       </c>
       <c r="H54" s="1">
-        <v>827.8167</v>
+        <v>1061.8952</v>
       </c>
       <c r="I54" s="1">
-        <v>0.0776</v>
+        <v>0.0332</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2049,25 +2049,25 @@
         <v>0.0115</v>
       </c>
       <c r="C55" s="1">
-        <v>9.4902</v>
+        <v>12.1737</v>
       </c>
       <c r="D55" s="1">
-        <v>1.2228</v>
+        <v>-1.3466</v>
       </c>
       <c r="E55" s="1">
-        <v>0.0558</v>
+        <v>-0.0614</v>
       </c>
       <c r="F55" s="1">
-        <v>46.1739</v>
+        <v>-65.226</v>
       </c>
       <c r="G55" s="1">
-        <v>55.6641</v>
+        <v>-53.0523</v>
       </c>
       <c r="H55" s="1">
-        <v>883.4808</v>
+        <v>1008.843</v>
       </c>
       <c r="I55" s="1">
-        <v>0.0672</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2078,25 +2078,25 @@
         <v>0.0115</v>
       </c>
       <c r="C56" s="1">
-        <v>10.1284</v>
+        <v>11.5655</v>
       </c>
       <c r="D56" s="1">
-        <v>-0.08690000000000001</v>
+        <v>1.9025</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.004</v>
+        <v>0.0868</v>
       </c>
       <c r="F56" s="1">
-        <v>-3.5009</v>
+        <v>87.5441</v>
       </c>
       <c r="G56" s="1">
-        <v>6.6275</v>
+        <v>99.1096</v>
       </c>
       <c r="H56" s="1">
-        <v>890.1083</v>
+        <v>1107.9526</v>
       </c>
       <c r="I56" s="1">
-        <v>0.0075</v>
+        <v>0.0982</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2107,25 +2107,25 @@
         <v>0.0115</v>
       </c>
       <c r="C57" s="1">
-        <v>10.2044</v>
+        <v>12.7018</v>
       </c>
       <c r="D57" s="1">
-        <v>0.2563</v>
+        <v>0.5593</v>
       </c>
       <c r="E57" s="1">
-        <v>0.0117</v>
+        <v>0.0255</v>
       </c>
       <c r="F57" s="1">
-        <v>10.4049</v>
+        <v>28.2642</v>
       </c>
       <c r="G57" s="1">
-        <v>20.6092</v>
+        <v>40.9659</v>
       </c>
       <c r="H57" s="1">
-        <v>910.7175</v>
+        <v>1148.9185</v>
       </c>
       <c r="I57" s="1">
-        <v>0.0232</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2136,25 +2136,25 @@
         <v>0.0115</v>
       </c>
       <c r="C58" s="1">
-        <v>10.4406</v>
+        <v>13.1714</v>
       </c>
       <c r="D58" s="1">
-        <v>1.5357</v>
+        <v>1.4733</v>
       </c>
       <c r="E58" s="1">
-        <v>0.07000000000000001</v>
+        <v>0.0672</v>
       </c>
       <c r="F58" s="1">
-        <v>63.7932</v>
+        <v>77.209</v>
       </c>
       <c r="G58" s="1">
-        <v>74.2338</v>
+        <v>90.38039999999999</v>
       </c>
       <c r="H58" s="1">
-        <v>984.9512999999999</v>
+        <v>1239.2989</v>
       </c>
       <c r="I58" s="1">
-        <v>0.0815</v>
+        <v>0.07870000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2165,25 +2165,25 @@
         <v>0.0115</v>
       </c>
       <c r="C59" s="1">
-        <v>11.2916</v>
+        <v>14.2075</v>
       </c>
       <c r="D59" s="1">
-        <v>-0.6342</v>
+        <v>-0.739</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.0289</v>
+        <v>-0.0337</v>
       </c>
       <c r="F59" s="1">
-        <v>-28.4926</v>
+        <v>-41.7728</v>
       </c>
       <c r="G59" s="1">
-        <v>-17.201</v>
+        <v>-27.5652</v>
       </c>
       <c r="H59" s="1">
-        <v>967.7503</v>
+        <v>1211.7337</v>
       </c>
       <c r="I59" s="1">
-        <v>-0.0175</v>
+        <v>-0.0222</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2194,25 +2194,25 @@
         <v>0.0115</v>
       </c>
       <c r="C60" s="1">
-        <v>11.0945</v>
+        <v>13.8915</v>
       </c>
       <c r="D60" s="1">
-        <v>-2.07</v>
+        <v>0.1546</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.0944</v>
+        <v>0.0071</v>
       </c>
       <c r="F60" s="1">
-        <v>-91.3745</v>
+        <v>8.546099999999999</v>
       </c>
       <c r="G60" s="1">
-        <v>-80.28</v>
+        <v>22.4377</v>
       </c>
       <c r="H60" s="1">
-        <v>887.4703</v>
+        <v>1234.1714</v>
       </c>
       <c r="I60" s="1">
-        <v>-0.083</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2223,25 +2223,25 @@
         <v>0.0115</v>
       </c>
       <c r="C61" s="1">
-        <v>10.1741</v>
+        <v>14.1487</v>
       </c>
       <c r="D61" s="1">
-        <v>-0.0007</v>
+        <v>-0.0353</v>
       </c>
       <c r="E61" s="1">
-        <v>-0</v>
+        <v>-0.0016</v>
       </c>
       <c r="F61" s="1">
-        <v>-0.0288</v>
+        <v>-1.9881</v>
       </c>
       <c r="G61" s="1">
-        <v>10.1453</v>
+        <v>12.1607</v>
       </c>
       <c r="H61" s="1">
-        <v>897.6156</v>
+        <v>1246.3321</v>
       </c>
       <c r="I61" s="1">
-        <v>0.0114</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2252,25 +2252,25 @@
         <v>0.0115</v>
       </c>
       <c r="C62" s="1">
-        <v>10.2904</v>
+        <v>14.2882</v>
       </c>
       <c r="D62" s="1">
-        <v>-0.8601</v>
+        <v>-0.3957</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.0392</v>
+        <v>-0.0181</v>
       </c>
       <c r="F62" s="1">
-        <v>-35.2134</v>
+        <v>-22.4976</v>
       </c>
       <c r="G62" s="1">
-        <v>-24.923</v>
+        <v>-8.2095</v>
       </c>
       <c r="H62" s="1">
-        <v>872.6926</v>
+        <v>1238.1226</v>
       </c>
       <c r="I62" s="1">
-        <v>-0.0278</v>
+        <v>-0.0066</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2281,25 +2281,25 @@
         <v>0.0115</v>
       </c>
       <c r="C63" s="1">
-        <v>10.0047</v>
+        <v>14.194</v>
       </c>
       <c r="D63" s="1">
-        <v>-0.1276</v>
+        <v>-1.242</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.0058</v>
+        <v>-0.0566</v>
       </c>
       <c r="F63" s="1">
-        <v>-5.0789</v>
+        <v>-70.1395</v>
       </c>
       <c r="G63" s="1">
-        <v>4.9258</v>
+        <v>-55.9455</v>
       </c>
       <c r="H63" s="1">
-        <v>877.6184</v>
+        <v>1182.1771</v>
       </c>
       <c r="I63" s="1">
-        <v>0.0056</v>
+        <v>-0.0452</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2310,25 +2310,25 @@
         <v>0.0115</v>
       </c>
       <c r="C64" s="1">
-        <v>10.0612</v>
+        <v>13.5527</v>
       </c>
       <c r="D64" s="1">
-        <v>-0.3707</v>
+        <v>0.9618</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.0169</v>
+        <v>0.0439</v>
       </c>
       <c r="F64" s="1">
-        <v>-14.8392</v>
+        <v>51.8624</v>
       </c>
       <c r="G64" s="1">
-        <v>-4.778</v>
+        <v>65.4151</v>
       </c>
       <c r="H64" s="1">
-        <v>872.8404</v>
+        <v>1247.5923</v>
       </c>
       <c r="I64" s="1">
-        <v>-0.0054</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2339,25 +2339,25 @@
         <v>0.0115</v>
       </c>
       <c r="C65" s="1">
-        <v>10.0064</v>
+        <v>14.3026</v>
       </c>
       <c r="D65" s="1">
-        <v>2.6822</v>
+        <v>0.2388</v>
       </c>
       <c r="E65" s="1">
-        <v>0.1223</v>
+        <v>0.0109</v>
       </c>
       <c r="F65" s="1">
-        <v>106.7869</v>
+        <v>13.5871</v>
       </c>
       <c r="G65" s="1">
-        <v>116.7933</v>
+        <v>27.8897</v>
       </c>
       <c r="H65" s="1">
-        <v>989.6336</v>
+        <v>1275.482</v>
       </c>
       <c r="I65" s="1">
-        <v>0.1338</v>
+        <v>0.0224</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2368,25 +2368,25 @@
         <v>0.0115</v>
       </c>
       <c r="C66" s="1">
-        <v>11.3453</v>
+        <v>14.6223</v>
       </c>
       <c r="D66" s="1">
-        <v>-0.1436</v>
+        <v>1.875</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.0066</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="F66" s="1">
-        <v>-6.4841</v>
+        <v>109.0863</v>
       </c>
       <c r="G66" s="1">
-        <v>4.8612</v>
+        <v>123.7087</v>
       </c>
       <c r="H66" s="1">
-        <v>994.4948000000001</v>
+        <v>1399.1906</v>
       </c>
       <c r="I66" s="1">
-        <v>0.0049</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2397,25 +2397,25 @@
         <v>0.0115</v>
       </c>
       <c r="C67" s="1">
-        <v>11.4011</v>
+        <v>16.0406</v>
       </c>
       <c r="D67" s="1">
-        <v>-0.3622</v>
+        <v>-0.093</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.0165</v>
+        <v>-0.0042</v>
       </c>
       <c r="F67" s="1">
-        <v>-16.4279</v>
+        <v>-5.9385</v>
       </c>
       <c r="G67" s="1">
-        <v>-5.0269</v>
+        <v>10.1021</v>
       </c>
       <c r="H67" s="1">
-        <v>989.468</v>
+        <v>1409.2927</v>
       </c>
       <c r="I67" s="1">
-        <v>-0.0051</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2426,25 +2426,25 @@
         <v>0.0115</v>
       </c>
       <c r="C68" s="1">
-        <v>11.3434</v>
+        <v>16.1564</v>
       </c>
       <c r="D68" s="1">
-        <v>0.5276</v>
+        <v>0.1357</v>
       </c>
       <c r="E68" s="1">
-        <v>0.0241</v>
+        <v>0.0062</v>
       </c>
       <c r="F68" s="1">
-        <v>23.8138</v>
+        <v>8.724399999999999</v>
       </c>
       <c r="G68" s="1">
-        <v>35.1573</v>
+        <v>24.8807</v>
       </c>
       <c r="H68" s="1">
-        <v>1024.6252</v>
+        <v>1434.1735</v>
       </c>
       <c r="I68" s="1">
-        <v>0.0355</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2455,25 +2455,25 @@
         <v>0.0115</v>
       </c>
       <c r="C69" s="1">
-        <v>11.7465</v>
+        <v>16.4416</v>
       </c>
       <c r="D69" s="1">
-        <v>0.0322</v>
+        <v>0.9067</v>
       </c>
       <c r="E69" s="1">
-        <v>0.0015</v>
+        <v>0.0414</v>
       </c>
       <c r="F69" s="1">
-        <v>1.5027</v>
+        <v>59.314</v>
       </c>
       <c r="G69" s="1">
-        <v>13.2492</v>
+        <v>75.7556</v>
       </c>
       <c r="H69" s="1">
-        <v>1037.8744</v>
+        <v>1509.9291</v>
       </c>
       <c r="I69" s="1">
-        <v>0.0129</v>
+        <v>0.0528</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2484,25 +2484,25 @@
         <v>0.0115</v>
       </c>
       <c r="C70" s="1">
-        <v>11.8984</v>
+        <v>17.3101</v>
       </c>
       <c r="D70" s="1">
-        <v>-0.6963</v>
+        <v>0.4318</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.0318</v>
+        <v>0.0197</v>
       </c>
       <c r="F70" s="1">
-        <v>-32.9647</v>
+        <v>29.7382</v>
       </c>
       <c r="G70" s="1">
-        <v>-21.0664</v>
+        <v>47.0483</v>
       </c>
       <c r="H70" s="1">
-        <v>1016.808</v>
+        <v>1556.9773</v>
       </c>
       <c r="I70" s="1">
-        <v>-0.0203</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2513,25 +2513,25 @@
         <v>0.0115</v>
       </c>
       <c r="C71" s="1">
-        <v>11.6569</v>
+        <v>17.8495</v>
       </c>
       <c r="D71" s="1">
-        <v>0.972</v>
+        <v>0.3203</v>
       </c>
       <c r="E71" s="1">
-        <v>0.0443</v>
+        <v>0.0146</v>
       </c>
       <c r="F71" s="1">
-        <v>45.0831</v>
+        <v>22.7444</v>
       </c>
       <c r="G71" s="1">
-        <v>56.7399</v>
+        <v>40.5939</v>
       </c>
       <c r="H71" s="1">
-        <v>1073.548</v>
+        <v>1597.5712</v>
       </c>
       <c r="I71" s="1">
-        <v>0.0558</v>
+        <v>0.0261</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2542,25 +2542,25 @@
         <v>0.0115</v>
       </c>
       <c r="C72" s="1">
-        <v>12.3073</v>
+        <v>18.3148</v>
       </c>
       <c r="D72" s="1">
-        <v>1.6636</v>
+        <v>0.1255</v>
       </c>
       <c r="E72" s="1">
-        <v>0.0759</v>
+        <v>0.0057</v>
       </c>
       <c r="F72" s="1">
-        <v>81.4618</v>
+        <v>9.1464</v>
       </c>
       <c r="G72" s="1">
-        <v>93.76909999999999</v>
+        <v>27.4613</v>
       </c>
       <c r="H72" s="1">
-        <v>1167.3171</v>
+        <v>1625.0324</v>
       </c>
       <c r="I72" s="1">
-        <v>0.0873</v>
+        <v>0.0172</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2571,25 +2571,25 @@
         <v>0.0115</v>
       </c>
       <c r="C73" s="1">
-        <v>13.3823</v>
+        <v>18.6296</v>
       </c>
       <c r="D73" s="1">
-        <v>0.7335</v>
+        <v>-1.3266</v>
       </c>
       <c r="E73" s="1">
-        <v>0.0335</v>
+        <v>-0.0605</v>
       </c>
       <c r="F73" s="1">
-        <v>39.0573</v>
+        <v>-98.3279</v>
       </c>
       <c r="G73" s="1">
-        <v>52.4397</v>
+        <v>-79.6983</v>
       </c>
       <c r="H73" s="1">
-        <v>1219.7567</v>
+        <v>1545.3341</v>
       </c>
       <c r="I73" s="1">
-        <v>0.0449</v>
+        <v>-0.049</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2600,25 +2600,25 @@
         <v>0.0115</v>
       </c>
       <c r="C74" s="1">
-        <v>13.9835</v>
+        <v>17.716</v>
       </c>
       <c r="D74" s="1">
-        <v>-0.8101</v>
+        <v>0.3623</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.037</v>
+        <v>0.0165</v>
       </c>
       <c r="F74" s="1">
-        <v>-45.071</v>
+        <v>25.5363</v>
       </c>
       <c r="G74" s="1">
-        <v>-31.0875</v>
+        <v>43.2522</v>
       </c>
       <c r="H74" s="1">
-        <v>1188.6692</v>
+        <v>1588.5864</v>
       </c>
       <c r="I74" s="1">
-        <v>-0.0255</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2629,25 +2629,25 @@
         <v>0.0115</v>
       </c>
       <c r="C75" s="1">
-        <v>13.6271</v>
+        <v>18.2118</v>
       </c>
       <c r="D75" s="1">
-        <v>1.1738</v>
+        <v>-1.0374</v>
       </c>
       <c r="E75" s="1">
-        <v>0.0535</v>
+        <v>-0.0473</v>
       </c>
       <c r="F75" s="1">
-        <v>63.6439</v>
+        <v>-75.16800000000001</v>
       </c>
       <c r="G75" s="1">
-        <v>77.271</v>
+        <v>-56.9562</v>
       </c>
       <c r="H75" s="1">
-        <v>1265.9402</v>
+        <v>1531.6302</v>
       </c>
       <c r="I75" s="1">
-        <v>0.065</v>
+        <v>-0.0359</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2658,25 +2658,25 @@
         <v>0.0115</v>
       </c>
       <c r="C76" s="1">
-        <v>14.513</v>
+        <v>17.5589</v>
       </c>
       <c r="D76" s="1">
-        <v>-1.8987</v>
+        <v>1.4493</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.0866</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="F76" s="1">
-        <v>-109.6377</v>
+        <v>101.25</v>
       </c>
       <c r="G76" s="1">
-        <v>-95.12479999999999</v>
+        <v>118.8089</v>
       </c>
       <c r="H76" s="1">
-        <v>1170.8154</v>
+        <v>1650.439</v>
       </c>
       <c r="I76" s="1">
-        <v>-0.0751</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2687,25 +2687,25 @@
         <v>0.0115</v>
       </c>
       <c r="C77" s="1">
-        <v>13.4224</v>
+        <v>18.9209</v>
       </c>
       <c r="D77" s="1">
-        <v>1.5319</v>
+        <v>-0.2196</v>
       </c>
       <c r="E77" s="1">
-        <v>0.0699</v>
+        <v>-0.01</v>
       </c>
       <c r="F77" s="1">
-        <v>81.8104</v>
+        <v>-16.5319</v>
       </c>
       <c r="G77" s="1">
-        <v>95.2328</v>
+        <v>2.389</v>
       </c>
       <c r="H77" s="1">
-        <v>1266.0482</v>
+        <v>1652.828</v>
       </c>
       <c r="I77" s="1">
-        <v>0.0813</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2716,25 +2716,25 @@
         <v>0.0115</v>
       </c>
       <c r="C78" s="1">
-        <v>14.5142</v>
+        <v>18.9483</v>
       </c>
       <c r="D78" s="1">
-        <v>-1.8117</v>
+        <v>0.5655</v>
       </c>
       <c r="E78" s="1">
-        <v>-0.08260000000000001</v>
+        <v>0.0258</v>
       </c>
       <c r="F78" s="1">
-        <v>-104.6231</v>
+        <v>42.6297</v>
       </c>
       <c r="G78" s="1">
-        <v>-90.10890000000001</v>
+        <v>61.578</v>
       </c>
       <c r="H78" s="1">
-        <v>1175.9393</v>
+        <v>1714.406</v>
       </c>
       <c r="I78" s="1">
-        <v>-0.0712</v>
+        <v>0.0373</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2745,25 +2745,25 @@
         <v>0.0115</v>
       </c>
       <c r="C79" s="1">
-        <v>13.4812</v>
+        <v>19.6542</v>
       </c>
       <c r="D79" s="1">
-        <v>0.8849</v>
+        <v>0.973</v>
       </c>
       <c r="E79" s="1">
-        <v>0.0404</v>
+        <v>0.0444</v>
       </c>
       <c r="F79" s="1">
-        <v>47.4646</v>
+        <v>76.0843</v>
       </c>
       <c r="G79" s="1">
-        <v>60.9457</v>
+        <v>95.7385</v>
       </c>
       <c r="H79" s="1">
-        <v>1236.885</v>
+        <v>1810.1446</v>
       </c>
       <c r="I79" s="1">
-        <v>0.0518</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2774,25 +2774,25 @@
         <v>0.0115</v>
       </c>
       <c r="C80" s="1">
-        <v>14.1799</v>
+        <v>20.7518</v>
       </c>
       <c r="D80" s="1">
-        <v>-1.1946</v>
+        <v>-0.5445</v>
       </c>
       <c r="E80" s="1">
-        <v>-0.0545</v>
+        <v>-0.0248</v>
       </c>
       <c r="F80" s="1">
-        <v>-67.3961</v>
+        <v>-44.9596</v>
       </c>
       <c r="G80" s="1">
-        <v>-53.2162</v>
+        <v>-24.2078</v>
       </c>
       <c r="H80" s="1">
-        <v>1183.6688</v>
+        <v>1785.9368</v>
       </c>
       <c r="I80" s="1">
-        <v>-0.043</v>
+        <v>-0.0134</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2803,25 +2803,25 @@
         <v>0.0115</v>
       </c>
       <c r="C81" s="1">
-        <v>13.5698</v>
+        <v>20.4743</v>
       </c>
       <c r="D81" s="1">
-        <v>0.185</v>
+        <v>-1.1378</v>
       </c>
       <c r="E81" s="1">
-        <v>0.008399999999999999</v>
+        <v>-0.0519</v>
       </c>
       <c r="F81" s="1">
-        <v>9.9876</v>
+        <v>-92.6862</v>
       </c>
       <c r="G81" s="1">
-        <v>23.5573</v>
+        <v>-72.212</v>
       </c>
       <c r="H81" s="1">
-        <v>1207.2262</v>
+        <v>1713.7248</v>
       </c>
       <c r="I81" s="1">
-        <v>0.0199</v>
+        <v>-0.0404</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2832,25 +2832,25 @@
         <v>0.0115</v>
       </c>
       <c r="C82" s="1">
-        <v>13.8398</v>
+        <v>19.6464</v>
       </c>
       <c r="D82" s="1">
-        <v>-0.5298</v>
+        <v>-0.8286</v>
       </c>
       <c r="E82" s="1">
-        <v>-0.0242</v>
+        <v>-0.0378</v>
       </c>
       <c r="F82" s="1">
-        <v>-29.1746</v>
+        <v>-64.76909999999999</v>
       </c>
       <c r="G82" s="1">
-        <v>-15.3347</v>
+        <v>-45.1227</v>
       </c>
       <c r="H82" s="1">
-        <v>1191.8914</v>
+        <v>1668.6021</v>
       </c>
       <c r="I82" s="1">
-        <v>-0.0127</v>
+        <v>-0.0263</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2861,25 +2861,25 @@
         <v>0.0115</v>
       </c>
       <c r="C83" s="1">
-        <v>13.664</v>
+        <v>19.1291</v>
       </c>
       <c r="D83" s="1">
-        <v>-0.0761</v>
+        <v>0.2616</v>
       </c>
       <c r="E83" s="1">
-        <v>-0.0035</v>
+        <v>0.0119</v>
       </c>
       <c r="F83" s="1">
-        <v>-4.1393</v>
+        <v>19.9112</v>
       </c>
       <c r="G83" s="1">
-        <v>9.524699999999999</v>
+        <v>39.0403</v>
       </c>
       <c r="H83" s="1">
-        <v>1201.4162</v>
+        <v>1707.6425</v>
       </c>
       <c r="I83" s="1">
-        <v>0.008</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2890,25 +2890,25 @@
         <v>0.0115</v>
       </c>
       <c r="C84" s="1">
-        <v>13.7732</v>
+        <v>19.5767</v>
       </c>
       <c r="D84" s="1">
-        <v>1.5162</v>
+        <v>-1.4987</v>
       </c>
       <c r="E84" s="1">
-        <v>0.0692</v>
+        <v>-0.0684</v>
       </c>
       <c r="F84" s="1">
-        <v>83.08799999999999</v>
+        <v>-116.7371</v>
       </c>
       <c r="G84" s="1">
-        <v>96.8613</v>
+        <v>-97.1604</v>
       </c>
       <c r="H84" s="1">
-        <v>1298.2774</v>
+        <v>1610.4821</v>
       </c>
       <c r="I84" s="1">
-        <v>0.0806</v>
+        <v>-0.0569</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2919,25 +2919,25 @@
         <v>0.0115</v>
       </c>
       <c r="C85" s="1">
-        <v>14.8837</v>
+        <v>18.4628</v>
       </c>
       <c r="D85" s="1">
-        <v>-1.9343</v>
+        <v>1.4127</v>
       </c>
       <c r="E85" s="1">
-        <v>-0.0882</v>
+        <v>0.0644</v>
       </c>
       <c r="F85" s="1">
-        <v>-114.5467</v>
+        <v>103.7768</v>
       </c>
       <c r="G85" s="1">
-        <v>-99.663</v>
+        <v>122.2396</v>
       </c>
       <c r="H85" s="1">
-        <v>1198.6144</v>
+        <v>1732.7217</v>
       </c>
       <c r="I85" s="1">
-        <v>-0.07679999999999999</v>
+        <v>0.0759</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2948,25 +2948,25 @@
         <v>0.0115</v>
       </c>
       <c r="C86" s="1">
-        <v>13.7411</v>
+        <v>19.8642</v>
       </c>
       <c r="D86" s="1">
-        <v>-1.4456</v>
+        <v>1.7968</v>
       </c>
       <c r="E86" s="1">
-        <v>-0.0659</v>
+        <v>0.082</v>
       </c>
       <c r="F86" s="1">
-        <v>-79.0337</v>
+        <v>142.0078</v>
       </c>
       <c r="G86" s="1">
-        <v>-65.2925</v>
+        <v>161.8721</v>
       </c>
       <c r="H86" s="1">
-        <v>1133.3219</v>
+        <v>1894.5938</v>
       </c>
       <c r="I86" s="1">
-        <v>-0.0545</v>
+        <v>0.0934</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2977,25 +2977,25 @@
         <v>0.0115</v>
       </c>
       <c r="C87" s="1">
-        <v>12.9926</v>
+        <v>21.7199</v>
       </c>
       <c r="D87" s="1">
-        <v>1.1608</v>
+        <v>1.6148</v>
       </c>
       <c r="E87" s="1">
-        <v>0.0529</v>
+        <v>0.0737</v>
       </c>
       <c r="F87" s="1">
-        <v>60.0042</v>
+        <v>139.5496</v>
       </c>
       <c r="G87" s="1">
-        <v>72.99679999999999</v>
+        <v>161.2696</v>
       </c>
       <c r="H87" s="1">
-        <v>1206.3187</v>
+        <v>2055.8634</v>
       </c>
       <c r="I87" s="1">
-        <v>0.0644</v>
+        <v>0.0851</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3006,25 +3006,25 @@
         <v>0.0115</v>
       </c>
       <c r="C88" s="1">
-        <v>13.8294</v>
+        <v>23.5688</v>
       </c>
       <c r="D88" s="1">
-        <v>0.2432</v>
+        <v>-0.9018</v>
       </c>
       <c r="E88" s="1">
-        <v>0.0111</v>
+        <v>-0.0411</v>
       </c>
       <c r="F88" s="1">
-        <v>13.3845</v>
+        <v>-84.5688</v>
       </c>
       <c r="G88" s="1">
-        <v>27.214</v>
+        <v>-61</v>
       </c>
       <c r="H88" s="1">
-        <v>1233.5326</v>
+        <v>1994.8633</v>
       </c>
       <c r="I88" s="1">
-        <v>0.0226</v>
+        <v>-0.0297</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3035,25 +3035,25 @@
         <v>0.0115</v>
       </c>
       <c r="C89" s="1">
-        <v>14.1414</v>
+        <v>22.8695</v>
       </c>
       <c r="D89" s="1">
-        <v>0.5627</v>
+        <v>0.4288</v>
       </c>
       <c r="E89" s="1">
-        <v>0.0257</v>
+        <v>0.0196</v>
       </c>
       <c r="F89" s="1">
-        <v>31.6628</v>
+        <v>39.0156</v>
       </c>
       <c r="G89" s="1">
-        <v>45.8042</v>
+        <v>61.885</v>
       </c>
       <c r="H89" s="1">
-        <v>1279.3369</v>
+        <v>2056.7484</v>
       </c>
       <c r="I89" s="1">
-        <v>0.0371</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3064,25 +3064,25 @@
         <v>0.0115</v>
       </c>
       <c r="C90" s="1">
-        <v>14.6665</v>
+        <v>23.5789</v>
       </c>
       <c r="D90" s="1">
-        <v>-1.1048</v>
+        <v>2.4655</v>
       </c>
       <c r="E90" s="1">
-        <v>-0.0504</v>
+        <v>0.1125</v>
       </c>
       <c r="F90" s="1">
-        <v>-64.4693</v>
+        <v>231.2955</v>
       </c>
       <c r="G90" s="1">
-        <v>-49.8028</v>
+        <v>254.8744</v>
       </c>
       <c r="H90" s="1">
-        <v>1229.5341</v>
+        <v>2311.6228</v>
       </c>
       <c r="I90" s="1">
-        <v>-0.0389</v>
+        <v>0.1239</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3093,25 +3093,25 @@
         <v>0.0115</v>
       </c>
       <c r="C91" s="1">
-        <v>14.0956</v>
+        <v>26.5008</v>
       </c>
       <c r="D91" s="1">
-        <v>0.2363</v>
+        <v>-1.4613</v>
       </c>
       <c r="E91" s="1">
-        <v>0.0108</v>
+        <v>-0.0667</v>
       </c>
       <c r="F91" s="1">
-        <v>13.251</v>
+        <v>-154.0754</v>
       </c>
       <c r="G91" s="1">
-        <v>27.3466</v>
+        <v>-127.5745</v>
       </c>
       <c r="H91" s="1">
-        <v>1256.8806</v>
+        <v>2184.0482</v>
       </c>
       <c r="I91" s="1">
-        <v>0.0222</v>
+        <v>-0.0552</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3122,25 +3122,25 @@
         <v>0.0115</v>
       </c>
       <c r="C92" s="1">
-        <v>14.4091</v>
+        <v>25.0383</v>
       </c>
       <c r="D92" s="1">
-        <v>0.8832</v>
+        <v>0.3065</v>
       </c>
       <c r="E92" s="1">
-        <v>0.0403</v>
+        <v>0.014</v>
       </c>
       <c r="F92" s="1">
-        <v>50.6324</v>
+        <v>30.5301</v>
       </c>
       <c r="G92" s="1">
-        <v>65.0415</v>
+        <v>55.5684</v>
       </c>
       <c r="H92" s="1">
-        <v>1321.9221</v>
+        <v>2239.6166</v>
       </c>
       <c r="I92" s="1">
-        <v>0.0517</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3151,25 +3151,25 @@
         <v>0.0115</v>
       </c>
       <c r="C93" s="1">
-        <v>15.1547</v>
+        <v>25.6753</v>
       </c>
       <c r="D93" s="1">
-        <v>-1.511</v>
+        <v>-2.5409</v>
       </c>
       <c r="E93" s="1">
-        <v>-0.0689</v>
+        <v>-0.1159</v>
       </c>
       <c r="F93" s="1">
-        <v>-91.10890000000001</v>
+        <v>-259.5662</v>
       </c>
       <c r="G93" s="1">
-        <v>-75.9541</v>
+        <v>-233.8909</v>
       </c>
       <c r="H93" s="1">
-        <v>1245.968</v>
+        <v>2005.7257</v>
       </c>
       <c r="I93" s="1">
-        <v>-0.0575</v>
+        <v>-0.1044</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3180,25 +3180,25 @@
         <v>0.0115</v>
       </c>
       <c r="C94" s="1">
-        <v>14.284</v>
+        <v>22.994</v>
       </c>
       <c r="D94" s="1">
-        <v>-2.853</v>
+        <v>-0.1805</v>
       </c>
       <c r="E94" s="1">
-        <v>-0.1301</v>
+        <v>-0.008200000000000001</v>
       </c>
       <c r="F94" s="1">
-        <v>-162.1437</v>
+        <v>-16.5157</v>
       </c>
       <c r="G94" s="1">
-        <v>-147.8598</v>
+        <v>6.4783</v>
       </c>
       <c r="H94" s="1">
-        <v>1098.1082</v>
+        <v>2012.204</v>
       </c>
       <c r="I94" s="1">
-        <v>-0.1187</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3209,25 +3209,25 @@
         <v>0.0115</v>
       </c>
       <c r="C95" s="1">
-        <v>12.5889</v>
+        <v>23.0682</v>
       </c>
       <c r="D95" s="1">
-        <v>1.0028</v>
+        <v>0.7435</v>
       </c>
       <c r="E95" s="1">
-        <v>0.0457</v>
+        <v>0.0339</v>
       </c>
       <c r="F95" s="1">
-        <v>50.2279</v>
+        <v>68.2445</v>
       </c>
       <c r="G95" s="1">
-        <v>62.8168</v>
+        <v>91.3128</v>
       </c>
       <c r="H95" s="1">
-        <v>1160.925</v>
+        <v>2103.5168</v>
       </c>
       <c r="I95" s="1">
-        <v>0.0572</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3238,25 +3238,25 @@
         <v>0.0115</v>
       </c>
       <c r="C96" s="1">
-        <v>13.309</v>
+        <v>24.1151</v>
       </c>
       <c r="D96" s="1">
-        <v>0.0408</v>
+        <v>-0.4757</v>
       </c>
       <c r="E96" s="1">
-        <v>0.0019</v>
+        <v>-0.0217</v>
       </c>
       <c r="F96" s="1">
-        <v>2.1618</v>
+        <v>-45.6397</v>
       </c>
       <c r="G96" s="1">
-        <v>15.4708</v>
+        <v>-21.5246</v>
       </c>
       <c r="H96" s="1">
-        <v>1176.3959</v>
+        <v>2081.9922</v>
       </c>
       <c r="I96" s="1">
-        <v>0.0133</v>
+        <v>-0.0102</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3267,25 +3267,25 @@
         <v>0.0115</v>
       </c>
       <c r="C97" s="1">
-        <v>13.4864</v>
+        <v>23.8683</v>
       </c>
       <c r="D97" s="1">
-        <v>0.1258</v>
+        <v>0.0985</v>
       </c>
       <c r="E97" s="1">
-        <v>0.0057</v>
+        <v>0.0045</v>
       </c>
       <c r="F97" s="1">
-        <v>6.7522</v>
+        <v>9.3521</v>
       </c>
       <c r="G97" s="1">
-        <v>20.2386</v>
+        <v>33.2204</v>
       </c>
       <c r="H97" s="1">
-        <v>1196.6344</v>
+        <v>2115.2126</v>
       </c>
       <c r="I97" s="1">
-        <v>0.0172</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3296,25 +3296,25 @@
         <v>0.0115</v>
       </c>
       <c r="C98" s="1">
-        <v>13.7184</v>
+        <v>24.2492</v>
       </c>
       <c r="D98" s="1">
-        <v>-1.0271</v>
+        <v>0.323</v>
       </c>
       <c r="E98" s="1">
-        <v>-0.0469</v>
+        <v>0.0147</v>
       </c>
       <c r="F98" s="1">
-        <v>-56.063</v>
+        <v>31.1634</v>
       </c>
       <c r="G98" s="1">
-        <v>-42.3446</v>
+        <v>55.4126</v>
       </c>
       <c r="H98" s="1">
-        <v>1154.2899</v>
+        <v>2170.6252</v>
       </c>
       <c r="I98" s="1">
-        <v>-0.0354</v>
+        <v>0.0262</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3325,25 +3325,25 @@
         <v>0.0115</v>
       </c>
       <c r="C99" s="1">
-        <v>13.233</v>
+        <v>24.8844</v>
       </c>
       <c r="D99" s="1">
-        <v>-0.2678</v>
+        <v>0.6667</v>
       </c>
       <c r="E99" s="1">
-        <v>-0.0122</v>
+        <v>0.0304</v>
       </c>
       <c r="F99" s="1">
-        <v>-14.0986</v>
+        <v>66.00920000000001</v>
       </c>
       <c r="G99" s="1">
-        <v>-0.8656</v>
+        <v>90.89360000000001</v>
       </c>
       <c r="H99" s="1">
-        <v>1153.4242</v>
+        <v>2261.5188</v>
       </c>
       <c r="I99" s="1">
-        <v>-0.0007</v>
+        <v>0.0419</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3354,25 +3354,25 @@
         <v>0.0115</v>
       </c>
       <c r="C100" s="1">
-        <v>13.2231</v>
+        <v>25.9264</v>
       </c>
       <c r="D100" s="1">
-        <v>0.8359</v>
+        <v>-1.0953</v>
       </c>
       <c r="E100" s="1">
-        <v>0.0381</v>
+        <v>-0.05</v>
       </c>
       <c r="F100" s="1">
-        <v>43.9764</v>
+        <v>-112.9837</v>
       </c>
       <c r="G100" s="1">
-        <v>57.1995</v>
+        <v>-87.0573</v>
       </c>
       <c r="H100" s="1">
-        <v>1210.6237</v>
+        <v>2174.4616</v>
       </c>
       <c r="I100" s="1">
-        <v>0.0496</v>
+        <v>-0.0385</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3383,25 +3383,25 @@
         <v>0.0115</v>
       </c>
       <c r="C101" s="1">
-        <v>13.8788</v>
+        <v>24.9284</v>
       </c>
       <c r="D101" s="1">
-        <v>-0.2882</v>
+        <v>1.4631</v>
       </c>
       <c r="E101" s="1">
-        <v>-0.0131</v>
+        <v>0.0667</v>
       </c>
       <c r="F101" s="1">
-        <v>-15.9124</v>
+        <v>145.1157</v>
       </c>
       <c r="G101" s="1">
-        <v>-2.0336</v>
+        <v>170.0441</v>
       </c>
       <c r="H101" s="1">
-        <v>1208.5901</v>
+        <v>2344.5057</v>
       </c>
       <c r="I101" s="1">
-        <v>-0.0017</v>
+        <v>0.07820000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3412,25 +3412,25 @@
         <v>0.0115</v>
       </c>
       <c r="C102" s="1">
-        <v>13.8555</v>
+        <v>26.8778</v>
       </c>
       <c r="D102" s="1">
-        <v>0.6088</v>
+        <v>-1.0616</v>
       </c>
       <c r="E102" s="1">
-        <v>0.0278</v>
+        <v>-0.0484</v>
       </c>
       <c r="F102" s="1">
-        <v>33.5632</v>
+        <v>-113.5314</v>
       </c>
       <c r="G102" s="1">
-        <v>47.4187</v>
+        <v>-86.6536</v>
       </c>
       <c r="H102" s="1">
-        <v>1256.0088</v>
+        <v>2257.8521</v>
       </c>
       <c r="I102" s="1">
-        <v>0.0392</v>
+        <v>-0.037</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3441,25 +3441,25 @@
         <v>0.0115</v>
       </c>
       <c r="C103" s="1">
-        <v>14.3991</v>
+        <v>25.8844</v>
       </c>
       <c r="D103" s="1">
-        <v>0.4324</v>
+        <v>0.3415</v>
       </c>
       <c r="E103" s="1">
-        <v>0.0197</v>
+        <v>0.0156</v>
       </c>
       <c r="F103" s="1">
-        <v>24.7747</v>
+        <v>35.1746</v>
       </c>
       <c r="G103" s="1">
-        <v>39.1738</v>
+        <v>61.059</v>
       </c>
       <c r="H103" s="1">
-        <v>1295.1825</v>
+        <v>2318.9111</v>
       </c>
       <c r="I103" s="1">
-        <v>0.0312</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3470,25 +3470,25 @@
         <v>0.0115</v>
       </c>
       <c r="C104" s="1">
-        <v>14.8482</v>
+        <v>26.5844</v>
       </c>
       <c r="D104" s="1">
-        <v>-0.2146</v>
+        <v>-0.7907999999999999</v>
       </c>
       <c r="E104" s="1">
-        <v>-0.0098</v>
+        <v>-0.0361</v>
       </c>
       <c r="F104" s="1">
-        <v>-12.6758</v>
+        <v>-83.6421</v>
       </c>
       <c r="G104" s="1">
-        <v>2.1724</v>
+        <v>-57.0577</v>
       </c>
       <c r="H104" s="1">
-        <v>1297.3549</v>
+        <v>2261.8534</v>
       </c>
       <c r="I104" s="1">
-        <v>0.0017</v>
+        <v>-0.0246</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3499,25 +3499,25 @@
         <v>0.0115</v>
       </c>
       <c r="C105" s="1">
-        <v>14.8731</v>
+        <v>25.9303</v>
       </c>
       <c r="D105" s="1">
-        <v>0.6733</v>
+        <v>-0.2598</v>
       </c>
       <c r="E105" s="1">
-        <v>0.0307</v>
+        <v>-0.0119</v>
       </c>
       <c r="F105" s="1">
-        <v>39.8444</v>
+        <v>-26.8045</v>
       </c>
       <c r="G105" s="1">
-        <v>54.7174</v>
+        <v>-0.8742</v>
       </c>
       <c r="H105" s="1">
-        <v>1352.0724</v>
+        <v>2260.9792</v>
       </c>
       <c r="I105" s="1">
-        <v>0.0422</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3528,25 +3528,25 @@
         <v>0.0115</v>
       </c>
       <c r="C106" s="1">
-        <v>15.5004</v>
+        <v>25.9202</v>
       </c>
       <c r="D106" s="1">
-        <v>-0.697</v>
+        <v>-0.888</v>
       </c>
       <c r="E106" s="1">
-        <v>-0.0318</v>
+        <v>-0.0405</v>
       </c>
       <c r="F106" s="1">
-        <v>-42.9856</v>
+        <v>-91.57899999999999</v>
       </c>
       <c r="G106" s="1">
-        <v>-27.4852</v>
+        <v>-65.6588</v>
       </c>
       <c r="H106" s="1">
-        <v>1324.5871</v>
+        <v>2195.3204</v>
       </c>
       <c r="I106" s="1">
-        <v>-0.0203</v>
+        <v>-0.029</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3557,25 +3557,25 @@
         <v>0.0115</v>
       </c>
       <c r="C107" s="1">
-        <v>15.1853</v>
+        <v>25.1675</v>
       </c>
       <c r="D107" s="1">
-        <v>1.9742</v>
+        <v>-0.1776</v>
       </c>
       <c r="E107" s="1">
-        <v>0.0901</v>
+        <v>-0.0081</v>
       </c>
       <c r="F107" s="1">
-        <v>119.2792</v>
+        <v>-17.78</v>
       </c>
       <c r="G107" s="1">
-        <v>134.4644</v>
+        <v>7.3875</v>
       </c>
       <c r="H107" s="1">
-        <v>1459.0516</v>
+        <v>2202.7079</v>
       </c>
       <c r="I107" s="1">
-        <v>0.1015</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3586,25 +3586,25 @@
         <v>0.0115</v>
       </c>
       <c r="C108" s="1">
-        <v>16.7268</v>
+        <v>25.2522</v>
       </c>
       <c r="D108" s="1">
-        <v>0.1547</v>
+        <v>2.2736</v>
       </c>
       <c r="E108" s="1">
-        <v>0.0071</v>
+        <v>0.1037</v>
       </c>
       <c r="F108" s="1">
-        <v>10.2955</v>
+        <v>228.4302</v>
       </c>
       <c r="G108" s="1">
-        <v>27.0223</v>
+        <v>253.6824</v>
       </c>
       <c r="H108" s="1">
-        <v>1486.0739</v>
+        <v>2456.3903</v>
       </c>
       <c r="I108" s="1">
-        <v>0.0185</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3615,25 +3615,25 @@
         <v>0.0115</v>
       </c>
       <c r="C109" s="1">
-        <v>17.0366</v>
+        <v>28.1605</v>
       </c>
       <c r="D109" s="1">
-        <v>-0.5123</v>
+        <v>-1.269</v>
       </c>
       <c r="E109" s="1">
-        <v>-0.0234</v>
+        <v>-0.0579</v>
       </c>
       <c r="F109" s="1">
-        <v>-34.7278</v>
+        <v>-142.182</v>
       </c>
       <c r="G109" s="1">
-        <v>-17.6912</v>
+        <v>-114.0215</v>
       </c>
       <c r="H109" s="1">
-        <v>1468.3827</v>
+        <v>2342.3688</v>
       </c>
       <c r="I109" s="1">
-        <v>-0.0119</v>
+        <v>-0.0464</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3644,25 +3644,25 @@
         <v>0.0115</v>
       </c>
       <c r="C110" s="1">
-        <v>16.8338</v>
+        <v>26.8533</v>
       </c>
       <c r="D110" s="1">
-        <v>0.6326000000000001</v>
+        <v>-1.1935</v>
       </c>
       <c r="E110" s="1">
-        <v>0.0289</v>
+        <v>-0.0544</v>
       </c>
       <c r="F110" s="1">
-        <v>42.3677</v>
+        <v>-127.5124</v>
       </c>
       <c r="G110" s="1">
-        <v>59.2015</v>
+        <v>-100.6591</v>
       </c>
       <c r="H110" s="1">
-        <v>1527.5841</v>
+        <v>2241.7097</v>
       </c>
       <c r="I110" s="1">
-        <v>0.0403</v>
+        <v>-0.043</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3673,25 +3673,25 @@
         <v>0.0115</v>
       </c>
       <c r="C111" s="1">
-        <v>17.5125</v>
+        <v>25.6993</v>
       </c>
       <c r="D111" s="1">
-        <v>0.549</v>
+        <v>1.1875</v>
       </c>
       <c r="E111" s="1">
-        <v>0.025</v>
+        <v>0.0542</v>
       </c>
       <c r="F111" s="1">
-        <v>38.2522</v>
+        <v>121.4232</v>
       </c>
       <c r="G111" s="1">
-        <v>55.7647</v>
+        <v>147.1225</v>
       </c>
       <c r="H111" s="1">
-        <v>1583.3489</v>
+        <v>2388.8323</v>
       </c>
       <c r="I111" s="1">
-        <v>0.0365</v>
+        <v>0.06560000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3702,25 +3702,25 @@
         <v>0.0115</v>
       </c>
       <c r="C112" s="1">
-        <v>18.1518</v>
+        <v>27.386</v>
       </c>
       <c r="D112" s="1">
-        <v>-0.2088</v>
+        <v>0.4868</v>
       </c>
       <c r="E112" s="1">
-        <v>-0.0095</v>
+        <v>0.0222</v>
       </c>
       <c r="F112" s="1">
-        <v>-15.0805</v>
+        <v>53.0465</v>
       </c>
       <c r="G112" s="1">
-        <v>3.0713</v>
+        <v>80.4324</v>
       </c>
       <c r="H112" s="1">
-        <v>1586.4201</v>
+        <v>2469.2647</v>
       </c>
       <c r="I112" s="1">
-        <v>0.0019</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3731,25 +3731,25 @@
         <v>0.0115</v>
       </c>
       <c r="C113" s="1">
-        <v>18.187</v>
+        <v>28.3081</v>
       </c>
       <c r="D113" s="1">
-        <v>-0.9038</v>
+        <v>-1.3051</v>
       </c>
       <c r="E113" s="1">
-        <v>-0.0412</v>
+        <v>-0.0595</v>
       </c>
       <c r="F113" s="1">
-        <v>-65.3981</v>
+        <v>-146.999</v>
       </c>
       <c r="G113" s="1">
-        <v>-47.2111</v>
+        <v>-118.691</v>
       </c>
       <c r="H113" s="1">
-        <v>1539.209</v>
+        <v>2350.5737</v>
       </c>
       <c r="I113" s="1">
-        <v>-0.0298</v>
+        <v>-0.0481</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3760,25 +3760,25 @@
         <v>0.0115</v>
       </c>
       <c r="C114" s="1">
-        <v>17.6458</v>
+        <v>26.9474</v>
       </c>
       <c r="D114" s="1">
-        <v>-2.4079</v>
+        <v>0.4169</v>
       </c>
       <c r="E114" s="1">
-        <v>-0.1098</v>
+        <v>0.019</v>
       </c>
       <c r="F114" s="1">
-        <v>-169.053</v>
+        <v>44.6958</v>
       </c>
       <c r="G114" s="1">
-        <v>-151.4073</v>
+        <v>71.64319999999999</v>
       </c>
       <c r="H114" s="1">
-        <v>1387.8018</v>
+        <v>2422.2169</v>
       </c>
       <c r="I114" s="1">
-        <v>-0.0984</v>
+        <v>0.0305</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3789,25 +3789,25 @@
         <v>0.0115</v>
       </c>
       <c r="C115" s="1">
-        <v>15.91</v>
+        <v>27.7687</v>
       </c>
       <c r="D115" s="1">
-        <v>0.2413</v>
+        <v>1.2589</v>
       </c>
       <c r="E115" s="1">
-        <v>0.011</v>
+        <v>0.0574</v>
       </c>
       <c r="F115" s="1">
-        <v>15.2762</v>
+        <v>139.0931</v>
       </c>
       <c r="G115" s="1">
-        <v>31.1862</v>
+        <v>166.8618</v>
       </c>
       <c r="H115" s="1">
-        <v>1418.988</v>
+        <v>2589.0788</v>
       </c>
       <c r="I115" s="1">
-        <v>0.0225</v>
+        <v>0.0689</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3818,25 +3818,25 @@
         <v>0.0115</v>
       </c>
       <c r="C116" s="1">
-        <v>16.2675</v>
+        <v>29.6816</v>
       </c>
       <c r="D116" s="1">
-        <v>0.275</v>
+        <v>0.7685999999999999</v>
       </c>
       <c r="E116" s="1">
-        <v>0.0125</v>
+        <v>0.0351</v>
       </c>
       <c r="F116" s="1">
-        <v>17.8011</v>
+        <v>90.7711</v>
       </c>
       <c r="G116" s="1">
-        <v>34.0686</v>
+        <v>120.4528</v>
       </c>
       <c r="H116" s="1">
-        <v>1453.0566</v>
+        <v>2709.5315</v>
       </c>
       <c r="I116" s="1">
-        <v>0.024</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3847,25 +3847,25 @@
         <v>0.0115</v>
       </c>
       <c r="C117" s="1">
-        <v>16.6581</v>
+        <v>31.0625</v>
       </c>
       <c r="D117" s="1">
-        <v>-1.5789</v>
+        <v>-0.7239</v>
       </c>
       <c r="E117" s="1">
-        <v>-0.07199999999999999</v>
+        <v>-0.033</v>
       </c>
       <c r="F117" s="1">
-        <v>-104.6478</v>
+        <v>-89.4627</v>
       </c>
       <c r="G117" s="1">
-        <v>-87.9897</v>
+        <v>-58.4002</v>
       </c>
       <c r="H117" s="1">
-        <v>1365.0669</v>
+        <v>2651.1313</v>
       </c>
       <c r="I117" s="1">
-        <v>-0.0606</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3876,25 +3876,25 @@
         <v>0.0115</v>
       </c>
       <c r="C118" s="1">
-        <v>15.6494</v>
+        <v>30.393</v>
       </c>
       <c r="D118" s="1">
-        <v>-1.0284</v>
+        <v>1.8696</v>
       </c>
       <c r="E118" s="1">
-        <v>-0.0469</v>
+        <v>0.0853</v>
       </c>
       <c r="F118" s="1">
-        <v>-64.03400000000001</v>
+        <v>226.0798</v>
       </c>
       <c r="G118" s="1">
-        <v>-48.3846</v>
+        <v>256.4728</v>
       </c>
       <c r="H118" s="1">
-        <v>1316.6823</v>
+        <v>2907.6041</v>
       </c>
       <c r="I118" s="1">
-        <v>-0.0354</v>
+        <v>0.09669999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3905,25 +3905,25 @@
         <v>0.0115</v>
       </c>
       <c r="C119" s="1">
-        <v>15.0947</v>
+        <v>33.3333</v>
       </c>
       <c r="D119" s="1">
-        <v>-1.6452</v>
+        <v>-0.7933</v>
       </c>
       <c r="E119" s="1">
-        <v>-0.075</v>
+        <v>-0.0362</v>
       </c>
       <c r="F119" s="1">
-        <v>-98.80500000000001</v>
+        <v>-105.2136</v>
       </c>
       <c r="G119" s="1">
-        <v>-83.7103</v>
+        <v>-71.88030000000001</v>
       </c>
       <c r="H119" s="1">
-        <v>1232.972</v>
+        <v>2835.7238</v>
       </c>
       <c r="I119" s="1">
-        <v>-0.0636</v>
+        <v>-0.0247</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3934,25 +3934,25 @@
         <v>0.0115</v>
       </c>
       <c r="C120" s="1">
-        <v>14.135</v>
+        <v>32.5092</v>
       </c>
       <c r="D120" s="1">
-        <v>1.159</v>
+        <v>-0.6394</v>
       </c>
       <c r="E120" s="1">
-        <v>0.0529</v>
+        <v>-0.0292</v>
       </c>
       <c r="F120" s="1">
-        <v>65.1811</v>
+        <v>-82.7016</v>
       </c>
       <c r="G120" s="1">
-        <v>79.31610000000001</v>
+        <v>-50.1924</v>
       </c>
       <c r="H120" s="1">
-        <v>1312.2881</v>
+        <v>2785.5314</v>
       </c>
       <c r="I120" s="1">
-        <v>0.0643</v>
+        <v>-0.0177</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3963,25 +3963,25 @@
         <v>0.0115</v>
       </c>
       <c r="C121" s="1">
-        <v>15.0443</v>
+        <v>31.9338</v>
       </c>
       <c r="D121" s="1">
-        <v>1.0275</v>
+        <v>0.0232</v>
       </c>
       <c r="E121" s="1">
-        <v>0.0469</v>
+        <v>0.0011</v>
       </c>
       <c r="F121" s="1">
-        <v>61.5061</v>
+        <v>2.9467</v>
       </c>
       <c r="G121" s="1">
-        <v>76.5504</v>
+        <v>34.8805</v>
       </c>
       <c r="H121" s="1">
-        <v>1388.8385</v>
+        <v>2820.4119</v>
       </c>
       <c r="I121" s="1">
-        <v>0.0583</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3992,25 +3992,25 @@
         <v>0.0115</v>
       </c>
       <c r="C122" s="1">
-        <v>15.9219</v>
+        <v>32.3337</v>
       </c>
       <c r="D122" s="1">
-        <v>-2.3304</v>
+        <v>-0.8072</v>
       </c>
       <c r="E122" s="1">
-        <v>-0.1063</v>
+        <v>-0.0368</v>
       </c>
       <c r="F122" s="1">
-        <v>-147.6289</v>
+        <v>-103.8442</v>
       </c>
       <c r="G122" s="1">
-        <v>-131.707</v>
+        <v>-71.51049999999999</v>
       </c>
       <c r="H122" s="1">
-        <v>1257.1314</v>
+        <v>2748.9013</v>
       </c>
       <c r="I122" s="1">
-        <v>-0.0948</v>
+        <v>-0.0254</v>
       </c>
     </row>
   </sheetData>
@@ -4039,7 +4039,7 @@
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4147,19 +4147,19 @@
         <v>266.6904</v>
       </c>
       <c r="E3" s="1">
-        <v>441.9404</v>
+        <v>483.6801</v>
       </c>
       <c r="F3" s="1">
-        <v>-2138.7557</v>
+        <v>8992.813200000001</v>
       </c>
       <c r="G3" s="1">
-        <v>117861.2443</v>
+        <v>128992.8132</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>117861.2443</v>
+        <v>128992.8132</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -4171,10 +4171,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>117861.2443</v>
+        <v>128992.8132</v>
       </c>
       <c r="N3" s="1">
-        <v>-2138.7557</v>
+        <v>8992.813200000001</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4191,19 +4191,19 @@
         <v>266.6904</v>
       </c>
       <c r="E4" s="1">
-        <v>424.6554</v>
+        <v>462.1159</v>
       </c>
       <c r="F4" s="1">
-        <v>-4609.747</v>
+        <v>-5750.9459</v>
       </c>
       <c r="G4" s="1">
-        <v>113251.4973</v>
+        <v>123241.8672</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>113251.4973</v>
+        <v>123241.8672</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -4215,10 +4215,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>113251.4973</v>
+        <v>123241.8672</v>
       </c>
       <c r="N4" s="1">
-        <v>-6748.5027</v>
+        <v>3241.8672</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4235,19 +4235,19 @@
         <v>266.6904</v>
       </c>
       <c r="E5" s="1">
-        <v>434.2761</v>
+        <v>466.2516</v>
       </c>
       <c r="F5" s="1">
-        <v>2565.7473</v>
+        <v>1102.9406</v>
       </c>
       <c r="G5" s="1">
-        <v>115817.2446</v>
+        <v>124344.8078</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>115817.2446</v>
+        <v>124344.8078</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -4259,10 +4259,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>115817.2446</v>
+        <v>124344.8078</v>
       </c>
       <c r="N5" s="1">
-        <v>-4182.7554</v>
+        <v>4344.8078</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4279,19 +4279,19 @@
         <v>266.6904</v>
       </c>
       <c r="E6" s="1">
-        <v>445.7226</v>
+        <v>442.1859</v>
       </c>
       <c r="F6" s="1">
-        <v>3052.6785</v>
+        <v>-6418.087</v>
       </c>
       <c r="G6" s="1">
-        <v>118869.9231</v>
+        <v>117926.7208</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>118869.9231</v>
+        <v>117926.7208</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -4303,10 +4303,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>118869.9231</v>
+        <v>117926.7208</v>
       </c>
       <c r="N6" s="1">
-        <v>-1130.0769</v>
+        <v>-2073.2792</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4323,19 +4323,19 @@
         <v>266.6904</v>
       </c>
       <c r="E7" s="1">
-        <v>494.6656</v>
+        <v>455.1342</v>
       </c>
       <c r="F7" s="1">
-        <v>13052.6254</v>
+        <v>3453.183</v>
       </c>
       <c r="G7" s="1">
-        <v>131922.5486</v>
+        <v>121379.9038</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>131922.5486</v>
+        <v>121379.9038</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -4347,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>131922.5486</v>
+        <v>121379.9038</v>
       </c>
       <c r="N7" s="1">
-        <v>11922.5486</v>
+        <v>1379.9038</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -4367,19 +4367,19 @@
         <v>266.6904</v>
       </c>
       <c r="E8" s="1">
-        <v>530.9081</v>
+        <v>441.7548</v>
       </c>
       <c r="F8" s="1">
-        <v>9665.5293</v>
+        <v>-3568.1559</v>
       </c>
       <c r="G8" s="1">
-        <v>141588.0779</v>
+        <v>117811.7479</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>141588.0779</v>
+        <v>117811.7479</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -4391,10 +4391,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>141588.0779</v>
+        <v>117811.7479</v>
       </c>
       <c r="N8" s="1">
-        <v>21588.0779</v>
+        <v>-2188.2521</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4411,19 +4411,19 @@
         <v>266.6904</v>
       </c>
       <c r="E9" s="1">
-        <v>552.2714999999999</v>
+        <v>477.9476</v>
       </c>
       <c r="F9" s="1">
-        <v>5697.4188</v>
+        <v>9652.2688</v>
       </c>
       <c r="G9" s="1">
-        <v>147285.4967</v>
+        <v>127464.0166</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>147285.4967</v>
+        <v>127464.0166</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>147285.4967</v>
+        <v>127464.0166</v>
       </c>
       <c r="N9" s="1">
-        <v>27285.4967</v>
+        <v>7464.0166</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -4455,19 +4455,19 @@
         <v>266.6904</v>
       </c>
       <c r="E10" s="1">
-        <v>525.9955</v>
+        <v>471.2142</v>
       </c>
       <c r="F10" s="1">
-        <v>-7007.5604</v>
+        <v>-1795.7312</v>
       </c>
       <c r="G10" s="1">
-        <v>140277.9363</v>
+        <v>125668.2854</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>140277.9363</v>
+        <v>125668.2854</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -4479,10 +4479,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>140277.9363</v>
+        <v>125668.2854</v>
       </c>
       <c r="N10" s="1">
-        <v>20277.9363</v>
+        <v>5668.2854</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -4499,19 +4499,19 @@
         <v>266.6904</v>
       </c>
       <c r="E11" s="1">
-        <v>552.5896</v>
+        <v>501.785</v>
       </c>
       <c r="F11" s="1">
-        <v>7092.3843</v>
+        <v>8152.9371</v>
       </c>
       <c r="G11" s="1">
-        <v>147370.3206</v>
+        <v>133821.2225</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>147370.3206</v>
+        <v>133821.2225</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -4523,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>147370.3206</v>
+        <v>133821.2225</v>
       </c>
       <c r="N11" s="1">
-        <v>27370.3206</v>
+        <v>13821.2225</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4543,19 +4543,19 @@
         <v>266.6904</v>
       </c>
       <c r="E12" s="1">
-        <v>552.173</v>
+        <v>521.1548</v>
       </c>
       <c r="F12" s="1">
-        <v>-111.0866</v>
+        <v>5165.7379</v>
       </c>
       <c r="G12" s="1">
-        <v>147259.234</v>
+        <v>138986.9605</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>147259.234</v>
+        <v>138986.9605</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -4567,10 +4567,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>147259.234</v>
+        <v>138986.9605</v>
       </c>
       <c r="N12" s="1">
-        <v>27259.234</v>
+        <v>18986.9605</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -4587,19 +4587,19 @@
         <v>266.6904</v>
       </c>
       <c r="E13" s="1">
-        <v>578.0485</v>
+        <v>525.5635</v>
       </c>
       <c r="F13" s="1">
-        <v>6900.7264</v>
+        <v>1175.7598</v>
       </c>
       <c r="G13" s="1">
-        <v>154159.9604</v>
+        <v>140162.7202</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>154159.9604</v>
+        <v>140162.7202</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -4611,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>154159.9604</v>
+        <v>140162.7202</v>
       </c>
       <c r="N13" s="1">
-        <v>34159.9604</v>
+        <v>20162.7202</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -4631,16 +4631,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>621.0475</v>
+        <v>545.3557</v>
       </c>
       <c r="F14" s="1">
-        <v>11467.419</v>
+        <v>5278.4062</v>
       </c>
       <c r="G14" s="1">
-        <v>165627.3794</v>
+        <v>145441.1265</v>
       </c>
       <c r="H14" s="1">
-        <v>-165627.3794</v>
+        <v>-145441.1265</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -4649,19 +4649,19 @@
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>165627.3794</v>
+        <v>145441.1265</v>
       </c>
       <c r="L14" s="1">
-        <v>165627.3794</v>
+        <v>145441.1265</v>
       </c>
       <c r="M14" s="1">
-        <v>165627.3794</v>
+        <v>145441.1265</v>
       </c>
       <c r="N14" s="1">
-        <v>45627.3794</v>
+        <v>25441.1265</v>
       </c>
       <c r="O14" s="3">
-        <v>0.3802</v>
+        <v>0.212</v>
       </c>
     </row>
   </sheetData>
@@ -4792,25 +4792,25 @@
         <v>22.2242</v>
       </c>
       <c r="C3" s="1">
-        <v>22.6275</v>
+        <v>20.6748</v>
       </c>
       <c r="D3" s="1">
-        <v>44.8517</v>
+        <v>42.899</v>
       </c>
       <c r="E3" s="1">
-        <v>441.9404</v>
+        <v>483.6801</v>
       </c>
       <c r="F3" s="1">
-        <v>-178.2296</v>
+        <v>749.4011</v>
       </c>
       <c r="G3" s="1">
-        <v>9821.770399999999</v>
+        <v>10749.4011</v>
       </c>
       <c r="H3" s="1">
         <v>10000</v>
       </c>
       <c r="I3" s="1">
-        <v>19821.7704</v>
+        <v>20749.4011</v>
       </c>
       <c r="J3" s="1">
         <v>110000</v>
@@ -4822,10 +4822,10 @@
         <v>100000</v>
       </c>
       <c r="M3" s="1">
-        <v>119821.7704</v>
+        <v>120749.4011</v>
       </c>
       <c r="N3" s="1">
-        <v>-178.2296</v>
+        <v>749.4011</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4833,28 +4833,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>44.8517</v>
+        <v>42.899</v>
       </c>
       <c r="C4" s="1">
-        <v>23.5485</v>
+        <v>21.6396</v>
       </c>
       <c r="D4" s="1">
-        <v>68.4002</v>
+        <v>64.5386</v>
       </c>
       <c r="E4" s="1">
-        <v>424.6554</v>
+        <v>462.1159</v>
       </c>
       <c r="F4" s="1">
-        <v>-775.2619999999999</v>
+        <v>-925.0801</v>
       </c>
       <c r="G4" s="1">
-        <v>19046.5083</v>
+        <v>19824.321</v>
       </c>
       <c r="H4" s="1">
         <v>10000</v>
       </c>
       <c r="I4" s="1">
-        <v>29046.5083</v>
+        <v>29824.321</v>
       </c>
       <c r="J4" s="1">
         <v>100000</v>
@@ -4866,10 +4866,10 @@
         <v>90000</v>
       </c>
       <c r="M4" s="1">
-        <v>119046.5083</v>
+        <v>119824.321</v>
       </c>
       <c r="N4" s="1">
-        <v>-953.4917</v>
+        <v>-175.679</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4877,28 +4877,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>68.4002</v>
+        <v>64.5386</v>
       </c>
       <c r="C5" s="1">
-        <v>23.0268</v>
+        <v>21.4476</v>
       </c>
       <c r="D5" s="1">
-        <v>91.42700000000001</v>
+        <v>85.9863</v>
       </c>
       <c r="E5" s="1">
-        <v>434.2761</v>
+        <v>466.2516</v>
       </c>
       <c r="F5" s="1">
-        <v>658.0575</v>
+        <v>266.9097</v>
       </c>
       <c r="G5" s="1">
-        <v>29704.5659</v>
+        <v>30091.2307</v>
       </c>
       <c r="H5" s="1">
         <v>10000</v>
       </c>
       <c r="I5" s="1">
-        <v>39704.5659</v>
+        <v>40091.2307</v>
       </c>
       <c r="J5" s="1">
         <v>90000</v>
@@ -4910,10 +4910,10 @@
         <v>80000</v>
       </c>
       <c r="M5" s="1">
-        <v>119704.5659</v>
+        <v>120091.2307</v>
       </c>
       <c r="N5" s="1">
-        <v>-295.4341</v>
+        <v>91.2307</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4921,28 +4921,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>91.42700000000001</v>
+        <v>85.9863</v>
       </c>
       <c r="C6" s="1">
-        <v>22.4355</v>
+        <v>22.6149</v>
       </c>
       <c r="D6" s="1">
-        <v>113.8625</v>
+        <v>108.6012</v>
       </c>
       <c r="E6" s="1">
-        <v>445.7226</v>
+        <v>442.1859</v>
       </c>
       <c r="F6" s="1">
-        <v>1046.5218</v>
+        <v>-2069.3185</v>
       </c>
       <c r="G6" s="1">
-        <v>40751.0877</v>
+        <v>38021.9123</v>
       </c>
       <c r="H6" s="1">
         <v>10000</v>
       </c>
       <c r="I6" s="1">
-        <v>50751.0877</v>
+        <v>48021.9123</v>
       </c>
       <c r="J6" s="1">
         <v>80000</v>
@@ -4954,10 +4954,10 @@
         <v>70000</v>
       </c>
       <c r="M6" s="1">
-        <v>120751.0877</v>
+        <v>118021.9123</v>
       </c>
       <c r="N6" s="1">
-        <v>751.0877</v>
+        <v>-1978.0877</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4965,28 +4965,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>113.8625</v>
+        <v>108.6012</v>
       </c>
       <c r="C7" s="1">
-        <v>20.2157</v>
+        <v>21.9715</v>
       </c>
       <c r="D7" s="1">
-        <v>134.0782</v>
+        <v>130.5727</v>
       </c>
       <c r="E7" s="1">
-        <v>494.6656</v>
+        <v>455.1342</v>
       </c>
       <c r="F7" s="1">
-        <v>5572.7717</v>
+        <v>1406.1991</v>
       </c>
       <c r="G7" s="1">
-        <v>56323.8594</v>
+        <v>49428.1114</v>
       </c>
       <c r="H7" s="1">
         <v>10000</v>
       </c>
       <c r="I7" s="1">
-        <v>66323.8594</v>
+        <v>59428.1114</v>
       </c>
       <c r="J7" s="1">
         <v>70000</v>
@@ -4998,10 +4998,10 @@
         <v>60000</v>
       </c>
       <c r="M7" s="1">
-        <v>126323.8594</v>
+        <v>119428.1114</v>
       </c>
       <c r="N7" s="1">
-        <v>6323.8594</v>
+        <v>-571.8886</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -5009,28 +5009,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>134.0782</v>
+        <v>130.5727</v>
       </c>
       <c r="C8" s="1">
-        <v>18.8357</v>
+        <v>22.637</v>
       </c>
       <c r="D8" s="1">
-        <v>152.9138</v>
+        <v>153.2097</v>
       </c>
       <c r="E8" s="1">
-        <v>530.9081</v>
+        <v>441.7548</v>
       </c>
       <c r="F8" s="1">
-        <v>4859.3301</v>
+        <v>-1746.9841</v>
       </c>
       <c r="G8" s="1">
-        <v>71183.1894</v>
+        <v>57681.1272</v>
       </c>
       <c r="H8" s="1">
         <v>10000</v>
       </c>
       <c r="I8" s="1">
-        <v>81183.1894</v>
+        <v>67681.1272</v>
       </c>
       <c r="J8" s="1">
         <v>60000</v>
@@ -5042,10 +5042,10 @@
         <v>50000</v>
       </c>
       <c r="M8" s="1">
-        <v>131183.1894</v>
+        <v>117681.1272</v>
       </c>
       <c r="N8" s="1">
-        <v>11183.1894</v>
+        <v>-2318.8728</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -5053,28 +5053,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>152.9138</v>
+        <v>153.2097</v>
       </c>
       <c r="C9" s="1">
-        <v>18.107</v>
+        <v>20.9228</v>
       </c>
       <c r="D9" s="1">
-        <v>171.0209</v>
+        <v>174.1325</v>
       </c>
       <c r="E9" s="1">
-        <v>552.2714999999999</v>
+        <v>477.9476</v>
       </c>
       <c r="F9" s="1">
-        <v>3266.7625</v>
+        <v>5545.0873</v>
       </c>
       <c r="G9" s="1">
-        <v>84449.952</v>
+        <v>73226.21460000001</v>
       </c>
       <c r="H9" s="1">
         <v>10000</v>
       </c>
       <c r="I9" s="1">
-        <v>94449.952</v>
+        <v>83226.21460000001</v>
       </c>
       <c r="J9" s="1">
         <v>50000</v>
@@ -5086,10 +5086,10 @@
         <v>40000</v>
       </c>
       <c r="M9" s="1">
-        <v>134449.952</v>
+        <v>123226.2146</v>
       </c>
       <c r="N9" s="1">
-        <v>14449.952</v>
+        <v>3226.2146</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5097,28 +5097,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>171.0209</v>
+        <v>174.1325</v>
       </c>
       <c r="C10" s="1">
-        <v>19.0116</v>
+        <v>21.2218</v>
       </c>
       <c r="D10" s="1">
-        <v>190.0324</v>
+        <v>195.3543</v>
       </c>
       <c r="E10" s="1">
-        <v>525.9955</v>
+        <v>471.2142</v>
       </c>
       <c r="F10" s="1">
-        <v>-4493.7469</v>
+        <v>-1172.5027</v>
       </c>
       <c r="G10" s="1">
-        <v>89956.20510000001</v>
+        <v>82053.7118</v>
       </c>
       <c r="H10" s="1">
         <v>10000</v>
       </c>
       <c r="I10" s="1">
-        <v>99956.20510000001</v>
+        <v>92053.7118</v>
       </c>
       <c r="J10" s="1">
         <v>40000</v>
@@ -5130,10 +5130,10 @@
         <v>30000</v>
       </c>
       <c r="M10" s="1">
-        <v>129956.2051</v>
+        <v>122053.7118</v>
       </c>
       <c r="N10" s="1">
-        <v>9956.205099999999</v>
+        <v>2053.7118</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -5141,28 +5141,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>190.0324</v>
+        <v>195.3543</v>
       </c>
       <c r="C11" s="1">
-        <v>18.0966</v>
+        <v>19.9289</v>
       </c>
       <c r="D11" s="1">
-        <v>208.129</v>
+        <v>215.2831</v>
       </c>
       <c r="E11" s="1">
-        <v>552.5896</v>
+        <v>501.785</v>
       </c>
       <c r="F11" s="1">
-        <v>5053.7372</v>
+        <v>5972.1363</v>
       </c>
       <c r="G11" s="1">
-        <v>105009.9423</v>
+        <v>98025.8481</v>
       </c>
       <c r="H11" s="1">
         <v>10000</v>
       </c>
       <c r="I11" s="1">
-        <v>115009.9423</v>
+        <v>108025.8481</v>
       </c>
       <c r="J11" s="1">
         <v>30000</v>
@@ -5174,10 +5174,10 @@
         <v>20000</v>
       </c>
       <c r="M11" s="1">
-        <v>135009.9423</v>
+        <v>128025.8481</v>
       </c>
       <c r="N11" s="1">
-        <v>15009.9423</v>
+        <v>8025.8481</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -5185,28 +5185,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>208.129</v>
+        <v>215.2831</v>
       </c>
       <c r="C12" s="1">
-        <v>18.1103</v>
+        <v>19.1882</v>
       </c>
       <c r="D12" s="1">
-        <v>226.2393</v>
+        <v>234.4713</v>
       </c>
       <c r="E12" s="1">
-        <v>552.173</v>
+        <v>521.1548</v>
       </c>
       <c r="F12" s="1">
-        <v>-86.6936</v>
+        <v>4169.9904</v>
       </c>
       <c r="G12" s="1">
-        <v>114923.2487</v>
+        <v>112195.8385</v>
       </c>
       <c r="H12" s="1">
         <v>10000</v>
       </c>
       <c r="I12" s="1">
-        <v>124923.2487</v>
+        <v>122195.8385</v>
       </c>
       <c r="J12" s="1">
         <v>20000</v>
@@ -5218,10 +5218,10 @@
         <v>10000</v>
       </c>
       <c r="M12" s="1">
-        <v>134923.2487</v>
+        <v>132195.8385</v>
       </c>
       <c r="N12" s="1">
-        <v>14923.2487</v>
+        <v>12195.8385</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -5229,28 +5229,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>226.2393</v>
+        <v>234.4713</v>
       </c>
       <c r="C13" s="1">
-        <v>17.2996</v>
+        <v>19.0272</v>
       </c>
       <c r="D13" s="1">
-        <v>243.5389</v>
+        <v>253.4985</v>
       </c>
       <c r="E13" s="1">
-        <v>578.0485</v>
+        <v>525.5635</v>
       </c>
       <c r="F13" s="1">
-        <v>5854.0381</v>
+        <v>1033.7153</v>
       </c>
       <c r="G13" s="1">
-        <v>130777.2867</v>
+        <v>123229.5538</v>
       </c>
       <c r="H13" s="1">
         <v>10000</v>
       </c>
       <c r="I13" s="1">
-        <v>140777.2867</v>
+        <v>133229.5538</v>
       </c>
       <c r="J13" s="1">
         <v>10000</v>
@@ -5262,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>140777.2867</v>
+        <v>133229.5538</v>
       </c>
       <c r="N13" s="1">
-        <v>20777.2867</v>
+        <v>13229.5538</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -5273,25 +5273,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>243.5389</v>
+        <v>253.4985</v>
       </c>
       <c r="C14" s="1">
-        <v>-243.5389</v>
+        <v>-253.4985</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>621.0475</v>
+        <v>545.3557</v>
       </c>
       <c r="F14" s="1">
-        <v>10471.9288</v>
+        <v>5017.3092</v>
       </c>
       <c r="G14" s="1">
-        <v>151249.2155</v>
+        <v>138246.8631</v>
       </c>
       <c r="H14" s="1">
-        <v>-151249.2155</v>
+        <v>-138246.8631</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -5300,19 +5300,19 @@
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>151249.2155</v>
+        <v>138246.8631</v>
       </c>
       <c r="L14" s="1">
-        <v>151249.2155</v>
+        <v>138246.8631</v>
       </c>
       <c r="M14" s="1">
-        <v>151249.2155</v>
+        <v>138246.8631</v>
       </c>
       <c r="N14" s="1">
-        <v>31249.2155</v>
+        <v>18246.8631</v>
       </c>
       <c r="O14" s="3">
-        <v>0.5131</v>
+        <v>0.2921</v>
       </c>
     </row>
   </sheetData>
@@ -5336,7 +5336,7 @@
     <col min="7" max="7" width="23.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" style="1" customWidth="1"/>
@@ -5443,22 +5443,22 @@
         <v>22.2242</v>
       </c>
       <c r="C3" s="1">
-        <v>23.0308</v>
+        <v>19.1255</v>
       </c>
       <c r="D3" s="1">
-        <v>45.255</v>
+        <v>41.3496</v>
       </c>
       <c r="E3" s="1">
-        <v>441.9404</v>
+        <v>483.6801</v>
       </c>
       <c r="F3" s="1">
-        <v>-178.2296</v>
+        <v>749.4011</v>
       </c>
       <c r="G3" s="1">
-        <v>9821.770399999999</v>
+        <v>10749.4011</v>
       </c>
       <c r="H3" s="1">
-        <v>10178.2296</v>
+        <v>9250.598900000001</v>
       </c>
       <c r="I3" s="1">
         <v>20000</v>
@@ -5467,16 +5467,16 @@
         <v>110000</v>
       </c>
       <c r="K3" s="1">
-        <v>-10178.2296</v>
+        <v>-9250.598900000001</v>
       </c>
       <c r="L3" s="1">
-        <v>99821.77039999999</v>
+        <v>100749.4011</v>
       </c>
       <c r="M3" s="1">
-        <v>119821.7704</v>
+        <v>120749.4011</v>
       </c>
       <c r="N3" s="1">
-        <v>-178.2296</v>
+        <v>749.4011</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5484,43 +5484,43 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>45.255</v>
+        <v>41.3496</v>
       </c>
       <c r="C4" s="1">
-        <v>25.3905</v>
+        <v>23.5691</v>
       </c>
       <c r="D4" s="1">
-        <v>70.6455</v>
+        <v>64.9188</v>
       </c>
       <c r="E4" s="1">
-        <v>424.6554</v>
+        <v>462.1159</v>
       </c>
       <c r="F4" s="1">
-        <v>-782.2329</v>
+        <v>-891.6692</v>
       </c>
       <c r="G4" s="1">
-        <v>19217.7671</v>
+        <v>19108.3308</v>
       </c>
       <c r="H4" s="1">
-        <v>10782.2329</v>
+        <v>10891.6692</v>
       </c>
       <c r="I4" s="1">
         <v>30000</v>
       </c>
       <c r="J4" s="1">
-        <v>99821.77039999999</v>
+        <v>100749.4011</v>
       </c>
       <c r="K4" s="1">
-        <v>-10782.2329</v>
+        <v>-10891.6692</v>
       </c>
       <c r="L4" s="1">
-        <v>89039.53750000001</v>
+        <v>89857.7319</v>
       </c>
       <c r="M4" s="1">
-        <v>119039.5375</v>
+        <v>119857.7319</v>
       </c>
       <c r="N4" s="1">
-        <v>-960.4625</v>
+        <v>-142.2681</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5528,43 +5528,43 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>70.6455</v>
+        <v>64.9188</v>
       </c>
       <c r="C5" s="1">
-        <v>21.4618</v>
+        <v>20.8718</v>
       </c>
       <c r="D5" s="1">
-        <v>92.1073</v>
+        <v>85.7906</v>
       </c>
       <c r="E5" s="1">
-        <v>434.2761</v>
+        <v>466.2516</v>
       </c>
       <c r="F5" s="1">
-        <v>679.6592000000001</v>
+        <v>268.482</v>
       </c>
       <c r="G5" s="1">
-        <v>30679.6592</v>
+        <v>30268.482</v>
       </c>
       <c r="H5" s="1">
-        <v>9320.3408</v>
+        <v>9731.518</v>
       </c>
       <c r="I5" s="1">
         <v>40000</v>
       </c>
       <c r="J5" s="1">
-        <v>89039.53750000001</v>
+        <v>89857.7319</v>
       </c>
       <c r="K5" s="1">
-        <v>-9320.3408</v>
+        <v>-9731.518</v>
       </c>
       <c r="L5" s="1">
-        <v>79719.1967</v>
+        <v>80126.2138</v>
       </c>
       <c r="M5" s="1">
-        <v>119719.1967</v>
+        <v>120126.2138</v>
       </c>
       <c r="N5" s="1">
-        <v>-280.8033</v>
+        <v>126.2138</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -5572,43 +5572,43 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>92.1073</v>
+        <v>85.7906</v>
       </c>
       <c r="C6" s="1">
-        <v>20.0701</v>
+        <v>27.284</v>
       </c>
       <c r="D6" s="1">
-        <v>112.1774</v>
+        <v>113.0746</v>
       </c>
       <c r="E6" s="1">
-        <v>445.7226</v>
+        <v>442.1859</v>
       </c>
       <c r="F6" s="1">
-        <v>1054.3088</v>
+        <v>-2064.6096</v>
       </c>
       <c r="G6" s="1">
-        <v>41054.3088</v>
+        <v>37935.3904</v>
       </c>
       <c r="H6" s="1">
-        <v>8945.691199999999</v>
+        <v>12064.6096</v>
       </c>
       <c r="I6" s="1">
         <v>50000</v>
       </c>
       <c r="J6" s="1">
-        <v>79719.1967</v>
+        <v>80126.2138</v>
       </c>
       <c r="K6" s="1">
-        <v>-8945.691199999999</v>
+        <v>-12064.6096</v>
       </c>
       <c r="L6" s="1">
-        <v>70773.5055</v>
+        <v>68061.60430000001</v>
       </c>
       <c r="M6" s="1">
-        <v>120773.5055</v>
+        <v>118061.6043</v>
       </c>
       <c r="N6" s="1">
-        <v>773.5055</v>
+        <v>-1938.3957</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -5616,43 +5616,43 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>112.1774</v>
+        <v>113.0746</v>
       </c>
       <c r="C7" s="1">
-        <v>9.1167</v>
+        <v>18.7546</v>
       </c>
       <c r="D7" s="1">
-        <v>121.2941</v>
+        <v>131.8293</v>
       </c>
       <c r="E7" s="1">
-        <v>494.6656</v>
+        <v>455.1342</v>
       </c>
       <c r="F7" s="1">
-        <v>5490.2978</v>
+        <v>1464.1224</v>
       </c>
       <c r="G7" s="1">
-        <v>55490.2978</v>
+        <v>51464.1224</v>
       </c>
       <c r="H7" s="1">
-        <v>4509.7022</v>
+        <v>8535.8776</v>
       </c>
       <c r="I7" s="1">
         <v>60000</v>
       </c>
       <c r="J7" s="1">
-        <v>70773.5055</v>
+        <v>68061.60430000001</v>
       </c>
       <c r="K7" s="1">
-        <v>-4509.7022</v>
+        <v>-8535.8776</v>
       </c>
       <c r="L7" s="1">
-        <v>66263.80319999999</v>
+        <v>59525.7266</v>
       </c>
       <c r="M7" s="1">
-        <v>126263.8032</v>
+        <v>119525.7266</v>
       </c>
       <c r="N7" s="1">
-        <v>6263.8032</v>
+        <v>-474.2734</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -5660,43 +5660,43 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>121.2941</v>
+        <v>131.8293</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5555</v>
+        <v>26.6297</v>
       </c>
       <c r="D8" s="1">
-        <v>131.8496</v>
+        <v>158.459</v>
       </c>
       <c r="E8" s="1">
-        <v>530.9081</v>
+        <v>441.7548</v>
       </c>
       <c r="F8" s="1">
-        <v>4396.0018</v>
+        <v>-1763.7957</v>
       </c>
       <c r="G8" s="1">
-        <v>64396.0018</v>
+        <v>58236.2043</v>
       </c>
       <c r="H8" s="1">
-        <v>5603.9982</v>
+        <v>11763.7957</v>
       </c>
       <c r="I8" s="1">
         <v>70000</v>
       </c>
       <c r="J8" s="1">
-        <v>66263.80319999999</v>
+        <v>59525.7266</v>
       </c>
       <c r="K8" s="1">
-        <v>-5603.9982</v>
+        <v>-11763.7957</v>
       </c>
       <c r="L8" s="1">
-        <v>60659.805</v>
+        <v>47761.9309</v>
       </c>
       <c r="M8" s="1">
-        <v>130659.805</v>
+        <v>117761.9309</v>
       </c>
       <c r="N8" s="1">
-        <v>10659.805</v>
+        <v>-2238.0691</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -5704,43 +5704,43 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>131.8496</v>
+        <v>158.459</v>
       </c>
       <c r="C9" s="1">
-        <v>13.0067</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>144.8563</v>
+        <v>167.3824</v>
       </c>
       <c r="E9" s="1">
-        <v>552.2714999999999</v>
+        <v>477.9476</v>
       </c>
       <c r="F9" s="1">
-        <v>2816.7577</v>
+        <v>5735.0716</v>
       </c>
       <c r="G9" s="1">
-        <v>72816.7577</v>
+        <v>75735.0716</v>
       </c>
       <c r="H9" s="1">
-        <v>7183.2423</v>
+        <v>4264.9284</v>
       </c>
       <c r="I9" s="1">
         <v>80000</v>
       </c>
       <c r="J9" s="1">
-        <v>60659.805</v>
+        <v>47761.9309</v>
       </c>
       <c r="K9" s="1">
-        <v>-7183.2423</v>
+        <v>-4264.9284</v>
       </c>
       <c r="L9" s="1">
-        <v>53476.5628</v>
+        <v>43497.0025</v>
       </c>
       <c r="M9" s="1">
-        <v>133476.5628</v>
+        <v>123497.0025</v>
       </c>
       <c r="N9" s="1">
-        <v>13476.5628</v>
+        <v>3497.0025</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5748,43 +5748,43 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>144.8563</v>
+        <v>167.3824</v>
       </c>
       <c r="C10" s="1">
-        <v>26.2478</v>
+        <v>23.6136</v>
       </c>
       <c r="D10" s="1">
-        <v>171.1041</v>
+        <v>190.9959</v>
       </c>
       <c r="E10" s="1">
-        <v>525.9955</v>
+        <v>471.2142</v>
       </c>
       <c r="F10" s="1">
-        <v>-3806.246</v>
+        <v>-1127.0514</v>
       </c>
       <c r="G10" s="1">
-        <v>76193.754</v>
+        <v>78872.9486</v>
       </c>
       <c r="H10" s="1">
-        <v>13806.246</v>
+        <v>11127.0514</v>
       </c>
       <c r="I10" s="1">
         <v>90000</v>
       </c>
       <c r="J10" s="1">
-        <v>53476.5628</v>
+        <v>43497.0025</v>
       </c>
       <c r="K10" s="1">
-        <v>-13806.246</v>
+        <v>-11127.0514</v>
       </c>
       <c r="L10" s="1">
-        <v>39670.3168</v>
+        <v>32369.9512</v>
       </c>
       <c r="M10" s="1">
-        <v>129670.3168</v>
+        <v>122369.9512</v>
       </c>
       <c r="N10" s="1">
-        <v>9670.316800000001</v>
+        <v>2369.9512</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -5792,43 +5792,43 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>171.1041</v>
+        <v>190.9959</v>
       </c>
       <c r="C11" s="1">
-        <v>9.862</v>
+        <v>8.2926</v>
       </c>
       <c r="D11" s="1">
-        <v>180.9661</v>
+        <v>199.2885</v>
       </c>
       <c r="E11" s="1">
-        <v>552.5896</v>
+        <v>501.785</v>
       </c>
       <c r="F11" s="1">
-        <v>4550.3563</v>
+        <v>5838.8983</v>
       </c>
       <c r="G11" s="1">
-        <v>94550.3563</v>
+        <v>95838.8983</v>
       </c>
       <c r="H11" s="1">
-        <v>5449.6437</v>
+        <v>4161.1017</v>
       </c>
       <c r="I11" s="1">
         <v>100000</v>
       </c>
       <c r="J11" s="1">
-        <v>39670.3168</v>
+        <v>32369.9512</v>
       </c>
       <c r="K11" s="1">
-        <v>-5449.6437</v>
+        <v>-4161.1017</v>
       </c>
       <c r="L11" s="1">
-        <v>34220.6731</v>
+        <v>28208.8495</v>
       </c>
       <c r="M11" s="1">
-        <v>134220.6731</v>
+        <v>128208.8495</v>
       </c>
       <c r="N11" s="1">
-        <v>14220.6731</v>
+        <v>8208.8495</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -5836,43 +5836,43 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>180.9661</v>
+        <v>199.2885</v>
       </c>
       <c r="C12" s="1">
-        <v>18.2468</v>
+        <v>11.7812</v>
       </c>
       <c r="D12" s="1">
-        <v>199.2129</v>
+        <v>211.0697</v>
       </c>
       <c r="E12" s="1">
-        <v>552.173</v>
+        <v>521.1548</v>
       </c>
       <c r="F12" s="1">
-        <v>-75.3792</v>
+        <v>3860.1784</v>
       </c>
       <c r="G12" s="1">
-        <v>99924.6208</v>
+        <v>103860.1784</v>
       </c>
       <c r="H12" s="1">
-        <v>10075.3792</v>
+        <v>6139.8216</v>
       </c>
       <c r="I12" s="1">
         <v>110000</v>
       </c>
       <c r="J12" s="1">
-        <v>34220.6731</v>
+        <v>28208.8495</v>
       </c>
       <c r="K12" s="1">
-        <v>-10075.3792</v>
+        <v>-6139.8216</v>
       </c>
       <c r="L12" s="1">
-        <v>24145.2938</v>
+        <v>22069.0279</v>
       </c>
       <c r="M12" s="1">
-        <v>134145.2938</v>
+        <v>132069.0279</v>
       </c>
       <c r="N12" s="1">
-        <v>14145.2938</v>
+        <v>12069.0279</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -5880,43 +5880,43 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>199.2129</v>
+        <v>211.0697</v>
       </c>
       <c r="C13" s="1">
-        <v>8.382099999999999</v>
+        <v>17.2566</v>
       </c>
       <c r="D13" s="1">
-        <v>207.5951</v>
+        <v>228.3264</v>
       </c>
       <c r="E13" s="1">
-        <v>578.0485</v>
+        <v>525.5635</v>
       </c>
       <c r="F13" s="1">
-        <v>5154.7186</v>
+        <v>930.5447</v>
       </c>
       <c r="G13" s="1">
-        <v>115154.7186</v>
+        <v>110930.5447</v>
       </c>
       <c r="H13" s="1">
-        <v>4845.2814</v>
+        <v>9069.4553</v>
       </c>
       <c r="I13" s="1">
         <v>120000</v>
       </c>
       <c r="J13" s="1">
-        <v>24145.2938</v>
+        <v>22069.0279</v>
       </c>
       <c r="K13" s="1">
-        <v>-4845.2814</v>
+        <v>-9069.4553</v>
       </c>
       <c r="L13" s="1">
-        <v>19300.0124</v>
+        <v>12999.5726</v>
       </c>
       <c r="M13" s="1">
-        <v>139300.0124</v>
+        <v>132999.5726</v>
       </c>
       <c r="N13" s="1">
-        <v>19300.0124</v>
+        <v>12999.5726</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -5924,46 +5924,46 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>207.5951</v>
+        <v>228.3264</v>
       </c>
       <c r="C14" s="1">
-        <v>-207.5951</v>
+        <v>-228.3264</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>621.0475</v>
+        <v>545.3557</v>
       </c>
       <c r="F14" s="1">
-        <v>8926.379300000001</v>
+        <v>4519.0957</v>
       </c>
       <c r="G14" s="1">
-        <v>128926.3793</v>
+        <v>124519.0957</v>
       </c>
       <c r="H14" s="1">
-        <v>-128926.3793</v>
+        <v>-124519.0957</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>19300.0124</v>
+        <v>12999.5726</v>
       </c>
       <c r="K14" s="1">
-        <v>128926.3793</v>
+        <v>124519.0957</v>
       </c>
       <c r="L14" s="1">
-        <v>148226.3917</v>
+        <v>137518.6683</v>
       </c>
       <c r="M14" s="1">
-        <v>148226.3917</v>
+        <v>137518.6683</v>
       </c>
       <c r="N14" s="1">
-        <v>28226.3917</v>
+        <v>17518.6683</v>
       </c>
       <c r="O14" s="3">
-        <v>0.5191</v>
+        <v>0.2929</v>
       </c>
     </row>
   </sheetData>
@@ -5984,7 +5984,7 @@
     <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
   </cols>
@@ -6023,13 +6023,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>0.3802</v>
+        <v>0.212</v>
       </c>
       <c r="H2" s="3">
-        <v>0.5131</v>
+        <v>0.2921</v>
       </c>
       <c r="I2" s="3">
-        <v>0.5191</v>
+        <v>0.2929</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6037,13 +6037,13 @@
         <v>2</v>
       </c>
       <c r="G3" s="3">
-        <v>0.1629</v>
+        <v>0.1592</v>
       </c>
       <c r="H3" s="3">
-        <v>0.2258</v>
+        <v>0.0578</v>
       </c>
       <c r="I3" s="3">
-        <v>0.2267</v>
+        <v>0.0706</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6051,13 +6051,13 @@
         <v>3</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0318</v>
+        <v>0.1457</v>
       </c>
       <c r="H4" s="3">
-        <v>-0.0555</v>
+        <v>0.3257</v>
       </c>
       <c r="I4" s="3">
-        <v>-0.0476</v>
+        <v>0.3221</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6065,13 +6065,13 @@
         <v>4</v>
       </c>
       <c r="G5" s="3">
-        <v>-0.0057</v>
+        <v>0.2762</v>
       </c>
       <c r="H5" s="3">
-        <v>-0.0955</v>
+        <v>0.4228</v>
       </c>
       <c r="I5" s="3">
-        <v>-0.0861</v>
+        <v>0.4273</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6079,13 +6079,13 @@
         <v>5</v>
       </c>
       <c r="G6" s="3">
-        <v>0.2551</v>
+        <v>0.3395</v>
       </c>
       <c r="H6" s="3">
-        <v>0.094</v>
+        <v>0.2778</v>
       </c>
       <c r="I6" s="3">
-        <v>0.1065</v>
+        <v>0.2951</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6093,13 +6093,13 @@
         <v>6</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3621</v>
+        <v>0.2831</v>
       </c>
       <c r="H7" s="3">
-        <v>0.3634</v>
+        <v>0.2531</v>
       </c>
       <c r="I7" s="3">
-        <v>0.3782</v>
+        <v>0.2655</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6107,13 +6107,13 @@
         <v>7</v>
       </c>
       <c r="G8" s="3">
-        <v>-0.0466</v>
+        <v>0.1926</v>
       </c>
       <c r="H8" s="3">
-        <v>-0.1206</v>
+        <v>0.2479</v>
       </c>
       <c r="I8" s="3">
-        <v>-0.1075</v>
+        <v>0.2577</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6121,13 +6121,13 @@
         <v>8</v>
       </c>
       <c r="G9" s="3">
-        <v>0.0185</v>
+        <v>0.1457</v>
       </c>
       <c r="H9" s="3">
-        <v>-0.0818</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="I9" s="3">
-        <v>-0.0684</v>
+        <v>0.0929</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6135,13 +6135,13 @@
         <v>9</v>
       </c>
       <c r="G10" s="3">
-        <v>0.3234</v>
+        <v>0.0327</v>
       </c>
       <c r="H10" s="3">
-        <v>0.3456</v>
+        <v>-0.0212</v>
       </c>
       <c r="I10" s="3">
-        <v>0.3541</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6149,13 +6149,13 @@
         <v>10</v>
       </c>
       <c r="G11" s="3">
-        <v>-0.177</v>
+        <v>0.2263</v>
       </c>
       <c r="H11" s="3">
-        <v>-0.202</v>
+        <v>0.1228</v>
       </c>
       <c r="I11" s="3">
-        <v>-0.1831</v>
+        <v>0.1355</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6163,28 +6163,28 @@
         <v>32</v>
       </c>
       <c r="B12" s="1">
-        <v>1257.1314</v>
+        <v>2748.9013</v>
       </c>
       <c r="C12" s="3">
-        <v>0.1174</v>
+        <v>0.196</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1697</v>
+        <v>0.1686</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.2856</v>
+        <v>0.5239</v>
       </c>
       <c r="F12" s="1">
-        <v>0.1134</v>
+        <v>0.4589</v>
       </c>
       <c r="G12" s="3">
-        <v>0.1454</v>
+        <v>0.1953</v>
       </c>
       <c r="H12" s="3">
-        <v>0.1105</v>
+        <v>0.2071</v>
       </c>
       <c r="I12" s="3">
-        <v>0.1205</v>
+        <v>0.2168</v>
       </c>
     </row>
   </sheetData>

--- a/Out_Sim_MonteCarlo.xlsx
+++ b/Out_Sim_MonteCarlo.xlsx
@@ -491,7 +491,7 @@
     <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
   </cols>
@@ -544,22 +544,22 @@
         <v>5.1584</v>
       </c>
       <c r="D3" s="1">
-        <v>1.3916</v>
+        <v>-0.7817</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0635</v>
+        <v>-0.0357</v>
       </c>
       <c r="F3" s="1">
-        <v>28.5616</v>
+        <v>-16.0443</v>
       </c>
       <c r="G3" s="1">
-        <v>33.7201</v>
+        <v>-10.8859</v>
       </c>
       <c r="H3" s="1">
-        <v>483.6801</v>
+        <v>439.0741</v>
       </c>
       <c r="I3" s="1">
-        <v>0.07489999999999999</v>
+        <v>-0.0242</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -570,25 +570,25 @@
         <v>0.0115</v>
       </c>
       <c r="C4" s="1">
-        <v>5.545</v>
+        <v>5.0336</v>
       </c>
       <c r="D4" s="1">
-        <v>-1.2288</v>
+        <v>-1.0658</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.056</v>
+        <v>-0.0486</v>
       </c>
       <c r="F4" s="1">
-        <v>-27.1091</v>
+        <v>-21.3446</v>
       </c>
       <c r="G4" s="1">
-        <v>-21.5641</v>
+        <v>-16.311</v>
       </c>
       <c r="H4" s="1">
-        <v>462.1159</v>
+        <v>422.7631</v>
       </c>
       <c r="I4" s="1">
-        <v>-0.0446</v>
+        <v>-0.0371</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -599,25 +599,25 @@
         <v>0.0115</v>
       </c>
       <c r="C5" s="1">
-        <v>5.2978</v>
+        <v>4.8466</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.0551</v>
+        <v>-2.1595</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0025</v>
+        <v>-0.0985</v>
       </c>
       <c r="F5" s="1">
-        <v>-1.1621</v>
+        <v>-41.642</v>
       </c>
       <c r="G5" s="1">
-        <v>4.1357</v>
+        <v>-36.7954</v>
       </c>
       <c r="H5" s="1">
-        <v>466.2516</v>
+        <v>385.9677</v>
       </c>
       <c r="I5" s="1">
-        <v>0.0089</v>
+        <v>-0.08699999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -628,25 +628,25 @@
         <v>0.0115</v>
       </c>
       <c r="C6" s="1">
-        <v>5.3452</v>
+        <v>4.4248</v>
       </c>
       <c r="D6" s="1">
-        <v>-1.3829</v>
+        <v>0.2896</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0631</v>
+        <v>0.0132</v>
       </c>
       <c r="F6" s="1">
-        <v>-29.4109</v>
+        <v>5.0989</v>
       </c>
       <c r="G6" s="1">
-        <v>-24.0657</v>
+        <v>9.5237</v>
       </c>
       <c r="H6" s="1">
-        <v>442.1859</v>
+        <v>395.4914</v>
       </c>
       <c r="I6" s="1">
-        <v>-0.0516</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -657,25 +657,25 @@
         <v>0.0115</v>
       </c>
       <c r="C7" s="1">
-        <v>5.0693</v>
+        <v>4.534</v>
       </c>
       <c r="D7" s="1">
-        <v>0.3906</v>
+        <v>-0.511</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0178</v>
+        <v>-0.0233</v>
       </c>
       <c r="F7" s="1">
-        <v>7.879</v>
+        <v>-9.217599999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>12.9483</v>
+        <v>-4.6836</v>
       </c>
       <c r="H7" s="1">
-        <v>455.1342</v>
+        <v>390.8078</v>
       </c>
       <c r="I7" s="1">
-        <v>0.0293</v>
+        <v>-0.0118</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -686,25 +686,25 @@
         <v>0.0115</v>
       </c>
       <c r="C8" s="1">
-        <v>5.2177</v>
+        <v>4.4803</v>
       </c>
       <c r="D8" s="1">
-        <v>-0.8958</v>
+        <v>-0.7825</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0409</v>
+        <v>-0.0357</v>
       </c>
       <c r="F8" s="1">
-        <v>-18.5971</v>
+        <v>-13.9483</v>
       </c>
       <c r="G8" s="1">
-        <v>-13.3794</v>
+        <v>-9.468</v>
       </c>
       <c r="H8" s="1">
-        <v>441.7548</v>
+        <v>381.3398</v>
       </c>
       <c r="I8" s="1">
-        <v>-0.0294</v>
+        <v>-0.0242</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -715,25 +715,25 @@
         <v>0.0115</v>
       </c>
       <c r="C9" s="1">
-        <v>5.0644</v>
+        <v>4.3717</v>
       </c>
       <c r="D9" s="1">
-        <v>1.5449</v>
+        <v>-0.2834</v>
       </c>
       <c r="E9" s="1">
-        <v>0.07049999999999999</v>
+        <v>-0.0129</v>
       </c>
       <c r="F9" s="1">
-        <v>31.1284</v>
+        <v>-4.9287</v>
       </c>
       <c r="G9" s="1">
-        <v>36.1928</v>
+        <v>-0.5570000000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>477.9476</v>
+        <v>380.7829</v>
       </c>
       <c r="I9" s="1">
-        <v>0.0819</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -744,25 +744,25 @@
         <v>0.0115</v>
       </c>
       <c r="C10" s="1">
-        <v>5.4793</v>
+        <v>4.3654</v>
       </c>
       <c r="D10" s="1">
-        <v>-0.5602</v>
+        <v>0.1704</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0256</v>
+        <v>0.0078</v>
       </c>
       <c r="F10" s="1">
-        <v>-12.2127</v>
+        <v>2.9591</v>
       </c>
       <c r="G10" s="1">
-        <v>-6.7334</v>
+        <v>7.3245</v>
       </c>
       <c r="H10" s="1">
-        <v>471.2142</v>
+        <v>388.1073</v>
       </c>
       <c r="I10" s="1">
-        <v>-0.0141</v>
+        <v>0.0192</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -773,25 +773,25 @@
         <v>0.0115</v>
       </c>
       <c r="C11" s="1">
-        <v>5.4021</v>
+        <v>4.4493</v>
       </c>
       <c r="D11" s="1">
-        <v>1.171</v>
+        <v>0.3868</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0534</v>
+        <v>0.0176</v>
       </c>
       <c r="F11" s="1">
-        <v>25.1687</v>
+        <v>6.8473</v>
       </c>
       <c r="G11" s="1">
-        <v>30.5708</v>
+        <v>11.2966</v>
       </c>
       <c r="H11" s="1">
-        <v>501.785</v>
+        <v>399.404</v>
       </c>
       <c r="I11" s="1">
-        <v>0.0649</v>
+        <v>0.0291</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -802,25 +802,25 @@
         <v>0.0115</v>
       </c>
       <c r="C12" s="1">
-        <v>5.7525</v>
+        <v>4.5788</v>
       </c>
       <c r="D12" s="1">
-        <v>0.595</v>
+        <v>0.4593</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0271</v>
+        <v>0.021</v>
       </c>
       <c r="F12" s="1">
-        <v>13.6172</v>
+        <v>8.367800000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>19.3698</v>
+        <v>12.9466</v>
       </c>
       <c r="H12" s="1">
-        <v>521.1548</v>
+        <v>412.3506</v>
       </c>
       <c r="I12" s="1">
-        <v>0.0386</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -831,25 +831,25 @@
         <v>0.0115</v>
       </c>
       <c r="C13" s="1">
-        <v>5.9746</v>
+        <v>4.7273</v>
       </c>
       <c r="D13" s="1">
-        <v>-0.0659</v>
+        <v>-0.6503</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.003</v>
+        <v>-0.0297</v>
       </c>
       <c r="F13" s="1">
-        <v>-1.5659</v>
+        <v>-12.2321</v>
       </c>
       <c r="G13" s="1">
-        <v>4.4087</v>
+        <v>-7.5048</v>
       </c>
       <c r="H13" s="1">
-        <v>525.5635</v>
+        <v>404.8458</v>
       </c>
       <c r="I13" s="1">
-        <v>0.008500000000000001</v>
+        <v>-0.0182</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -860,25 +860,25 @@
         <v>0.0115</v>
       </c>
       <c r="C14" s="1">
-        <v>6.0251</v>
+        <v>4.6412</v>
       </c>
       <c r="D14" s="1">
-        <v>0.5743</v>
+        <v>-0.3947</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0262</v>
+        <v>-0.018</v>
       </c>
       <c r="F14" s="1">
-        <v>13.7671</v>
+        <v>-7.2886</v>
       </c>
       <c r="G14" s="1">
-        <v>19.7923</v>
+        <v>-2.6474</v>
       </c>
       <c r="H14" s="1">
-        <v>545.3557</v>
+        <v>402.1984</v>
       </c>
       <c r="I14" s="1">
-        <v>0.0377</v>
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -889,25 +889,25 @@
         <v>0.0115</v>
       </c>
       <c r="C15" s="1">
-        <v>6.2521</v>
+        <v>4.6109</v>
       </c>
       <c r="D15" s="1">
-        <v>-0.0319</v>
+        <v>-0.0417</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0015</v>
+        <v>-0.0019</v>
       </c>
       <c r="F15" s="1">
-        <v>-0.7937</v>
+        <v>-0.7647</v>
       </c>
       <c r="G15" s="1">
-        <v>5.4583</v>
+        <v>3.8461</v>
       </c>
       <c r="H15" s="1">
-        <v>550.8141000000001</v>
+        <v>406.0445</v>
       </c>
       <c r="I15" s="1">
-        <v>0.01</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -918,25 +918,25 @@
         <v>0.0115</v>
       </c>
       <c r="C16" s="1">
-        <v>6.3146</v>
+        <v>4.655</v>
       </c>
       <c r="D16" s="1">
-        <v>-0.45</v>
+        <v>-0.3045</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0205</v>
+        <v>-0.0139</v>
       </c>
       <c r="F16" s="1">
-        <v>-11.3069</v>
+        <v>-5.6399</v>
       </c>
       <c r="G16" s="1">
-        <v>-4.9923</v>
+        <v>-0.985</v>
       </c>
       <c r="H16" s="1">
-        <v>545.8218000000001</v>
+        <v>405.0595</v>
       </c>
       <c r="I16" s="1">
-        <v>-0.0091</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -947,25 +947,25 @@
         <v>0.0115</v>
       </c>
       <c r="C17" s="1">
-        <v>6.2574</v>
+        <v>4.6437</v>
       </c>
       <c r="D17" s="1">
-        <v>0.4663</v>
+        <v>0.0825</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0213</v>
+        <v>0.0038</v>
       </c>
       <c r="F17" s="1">
-        <v>11.61</v>
+        <v>1.5242</v>
       </c>
       <c r="G17" s="1">
-        <v>17.8674</v>
+        <v>6.1679</v>
       </c>
       <c r="H17" s="1">
-        <v>563.6891000000001</v>
+        <v>411.2274</v>
       </c>
       <c r="I17" s="1">
-        <v>0.0327</v>
+        <v>0.0152</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -976,25 +976,25 @@
         <v>0.0115</v>
       </c>
       <c r="C18" s="1">
-        <v>6.4622</v>
+        <v>4.7144</v>
       </c>
       <c r="D18" s="1">
-        <v>-0.6065</v>
+        <v>-0.4205</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0277</v>
+        <v>-0.0192</v>
       </c>
       <c r="F18" s="1">
-        <v>-15.5945</v>
+        <v>-7.8882</v>
       </c>
       <c r="G18" s="1">
-        <v>-9.132199999999999</v>
+        <v>-3.1739</v>
       </c>
       <c r="H18" s="1">
-        <v>554.5569</v>
+        <v>408.0535</v>
       </c>
       <c r="I18" s="1">
-        <v>-0.0162</v>
+        <v>-0.0077</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1005,25 +1005,25 @@
         <v>0.0115</v>
       </c>
       <c r="C19" s="1">
-        <v>6.3575</v>
+        <v>4.678</v>
       </c>
       <c r="D19" s="1">
-        <v>3.8593</v>
+        <v>0.4297</v>
       </c>
       <c r="E19" s="1">
-        <v>0.176</v>
+        <v>0.0196</v>
       </c>
       <c r="F19" s="1">
-        <v>97.62139999999999</v>
+        <v>7.9975</v>
       </c>
       <c r="G19" s="1">
-        <v>103.9789</v>
+        <v>12.6755</v>
       </c>
       <c r="H19" s="1">
-        <v>658.5358</v>
+        <v>420.729</v>
       </c>
       <c r="I19" s="1">
-        <v>0.1875</v>
+        <v>0.0311</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1034,25 +1034,25 @@
         <v>0.0115</v>
       </c>
       <c r="C20" s="1">
-        <v>7.5496</v>
+        <v>4.8233</v>
       </c>
       <c r="D20" s="1">
-        <v>0.1196</v>
+        <v>-0.6267</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0055</v>
+        <v>-0.0286</v>
       </c>
       <c r="F20" s="1">
-        <v>3.5933</v>
+        <v>-12.0271</v>
       </c>
       <c r="G20" s="1">
-        <v>11.1429</v>
+        <v>-7.2038</v>
       </c>
       <c r="H20" s="1">
-        <v>669.6787</v>
+        <v>413.5252</v>
       </c>
       <c r="I20" s="1">
-        <v>0.0169</v>
+        <v>-0.0171</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1063,25 +1063,25 @@
         <v>0.0115</v>
       </c>
       <c r="C21" s="1">
-        <v>7.6773</v>
+        <v>4.7407</v>
       </c>
       <c r="D21" s="1">
-        <v>0.5467</v>
+        <v>0.2128</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0249</v>
+        <v>0.0097</v>
       </c>
       <c r="F21" s="1">
-        <v>16.6981</v>
+        <v>4.0138</v>
       </c>
       <c r="G21" s="1">
-        <v>24.3754</v>
+        <v>8.7545</v>
       </c>
       <c r="H21" s="1">
-        <v>694.0540999999999</v>
+        <v>422.2797</v>
       </c>
       <c r="I21" s="1">
-        <v>0.0364</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1092,25 +1092,25 @@
         <v>0.0115</v>
       </c>
       <c r="C22" s="1">
-        <v>7.9568</v>
+        <v>4.8411</v>
       </c>
       <c r="D22" s="1">
-        <v>-0.517</v>
+        <v>-1.2475</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.0236</v>
+        <v>-0.0569</v>
       </c>
       <c r="F22" s="1">
-        <v>-16.3669</v>
+        <v>-24.0294</v>
       </c>
       <c r="G22" s="1">
-        <v>-8.4102</v>
+        <v>-19.1883</v>
       </c>
       <c r="H22" s="1">
-        <v>685.6439</v>
+        <v>403.0914</v>
       </c>
       <c r="I22" s="1">
-        <v>-0.0121</v>
+        <v>-0.0454</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1121,25 +1121,25 @@
         <v>0.0115</v>
       </c>
       <c r="C23" s="1">
-        <v>7.8603</v>
+        <v>4.6211</v>
       </c>
       <c r="D23" s="1">
-        <v>-0.8975</v>
+        <v>0.0453</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0409</v>
+        <v>0.0021</v>
       </c>
       <c r="F23" s="1">
-        <v>-28.0677</v>
+        <v>0.8335</v>
       </c>
       <c r="G23" s="1">
-        <v>-20.2073</v>
+        <v>5.4546</v>
       </c>
       <c r="H23" s="1">
-        <v>665.4366</v>
+        <v>408.5461</v>
       </c>
       <c r="I23" s="1">
-        <v>-0.0295</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1150,25 +1150,25 @@
         <v>0.0115</v>
       </c>
       <c r="C24" s="1">
-        <v>7.6287</v>
+        <v>4.6836</v>
       </c>
       <c r="D24" s="1">
-        <v>-0.4142</v>
+        <v>-0.1701</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.0189</v>
+        <v>-0.0078</v>
       </c>
       <c r="F24" s="1">
-        <v>-12.5715</v>
+        <v>-3.1701</v>
       </c>
       <c r="G24" s="1">
-        <v>-4.9429</v>
+        <v>1.5135</v>
       </c>
       <c r="H24" s="1">
-        <v>660.4938</v>
+        <v>410.0596</v>
       </c>
       <c r="I24" s="1">
-        <v>-0.0074</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1179,25 +1179,25 @@
         <v>0.0115</v>
       </c>
       <c r="C25" s="1">
-        <v>7.572</v>
+        <v>4.701</v>
       </c>
       <c r="D25" s="1">
-        <v>-1.2305</v>
+        <v>-0.7673</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0561</v>
+        <v>-0.035</v>
       </c>
       <c r="F25" s="1">
-        <v>-37.0716</v>
+        <v>-14.3517</v>
       </c>
       <c r="G25" s="1">
-        <v>-29.4996</v>
+        <v>-9.650700000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>630.9942</v>
+        <v>400.4088</v>
       </c>
       <c r="I25" s="1">
-        <v>-0.0447</v>
+        <v>-0.0235</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1208,25 +1208,25 @@
         <v>0.0115</v>
       </c>
       <c r="C26" s="1">
-        <v>7.2338</v>
+        <v>4.5904</v>
       </c>
       <c r="D26" s="1">
-        <v>-0.2099</v>
+        <v>0.1053</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.009599999999999999</v>
+        <v>0.0048</v>
       </c>
       <c r="F26" s="1">
-        <v>-6.0402</v>
+        <v>1.9229</v>
       </c>
       <c r="G26" s="1">
-        <v>1.1936</v>
+        <v>6.5132</v>
       </c>
       <c r="H26" s="1">
-        <v>632.1878</v>
+        <v>406.922</v>
       </c>
       <c r="I26" s="1">
-        <v>0.0019</v>
+        <v>0.0163</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1237,25 +1237,25 @@
         <v>0.0115</v>
       </c>
       <c r="C27" s="1">
-        <v>7.2475</v>
+        <v>4.665</v>
       </c>
       <c r="D27" s="1">
-        <v>-0.5213</v>
+        <v>-0.7674</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0238</v>
+        <v>-0.035</v>
       </c>
       <c r="F27" s="1">
-        <v>-15.0329</v>
+        <v>-14.2436</v>
       </c>
       <c r="G27" s="1">
-        <v>-7.7854</v>
+        <v>-9.5786</v>
       </c>
       <c r="H27" s="1">
-        <v>624.4023999999999</v>
+        <v>397.3434</v>
       </c>
       <c r="I27" s="1">
-        <v>-0.0123</v>
+        <v>-0.0235</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1266,25 +1266,25 @@
         <v>0.0115</v>
       </c>
       <c r="C28" s="1">
-        <v>7.1583</v>
+        <v>4.5552</v>
       </c>
       <c r="D28" s="1">
-        <v>0.2293</v>
+        <v>-1.1652</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0105</v>
+        <v>-0.0531</v>
       </c>
       <c r="F28" s="1">
-        <v>6.5302</v>
+        <v>-21.1174</v>
       </c>
       <c r="G28" s="1">
-        <v>13.6885</v>
+        <v>-16.5622</v>
       </c>
       <c r="H28" s="1">
-        <v>638.0907999999999</v>
+        <v>380.7812</v>
       </c>
       <c r="I28" s="1">
-        <v>0.0219</v>
+        <v>-0.0417</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>0.0115</v>
       </c>
       <c r="C29" s="1">
-        <v>7.3152</v>
+        <v>4.3653</v>
       </c>
       <c r="D29" s="1">
-        <v>-0.5729</v>
+        <v>0.4901</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0261</v>
+        <v>0.0224</v>
       </c>
       <c r="F29" s="1">
-        <v>-16.6744</v>
+        <v>8.5121</v>
       </c>
       <c r="G29" s="1">
-        <v>-9.359299999999999</v>
+        <v>12.8774</v>
       </c>
       <c r="H29" s="1">
-        <v>628.7316</v>
+        <v>393.6587</v>
       </c>
       <c r="I29" s="1">
-        <v>-0.0147</v>
+        <v>0.0338</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1324,25 +1324,25 @@
         <v>0.0115</v>
       </c>
       <c r="C30" s="1">
-        <v>7.2079</v>
+        <v>4.513</v>
       </c>
       <c r="D30" s="1">
-        <v>-1.7383</v>
+        <v>-1.5059</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.0793</v>
+        <v>-0.0687</v>
       </c>
       <c r="F30" s="1">
-        <v>-49.852</v>
+        <v>-27.0404</v>
       </c>
       <c r="G30" s="1">
-        <v>-42.6441</v>
+        <v>-22.5274</v>
       </c>
       <c r="H30" s="1">
-        <v>586.0875</v>
+        <v>371.1313</v>
       </c>
       <c r="I30" s="1">
-        <v>-0.0678</v>
+        <v>-0.0572</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1353,25 +1353,25 @@
         <v>0.0115</v>
       </c>
       <c r="C31" s="1">
-        <v>6.719</v>
+        <v>4.2547</v>
       </c>
       <c r="D31" s="1">
-        <v>-0.7096</v>
+        <v>-0.4795</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0324</v>
+        <v>-0.0219</v>
       </c>
       <c r="F31" s="1">
-        <v>-18.9689</v>
+        <v>-8.117100000000001</v>
       </c>
       <c r="G31" s="1">
-        <v>-12.2499</v>
+        <v>-3.8624</v>
       </c>
       <c r="H31" s="1">
-        <v>573.8376</v>
+        <v>367.2689</v>
       </c>
       <c r="I31" s="1">
-        <v>-0.0209</v>
+        <v>-0.0104</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1382,25 +1382,25 @@
         <v>0.0115</v>
       </c>
       <c r="C32" s="1">
-        <v>6.5786</v>
+        <v>4.2104</v>
       </c>
       <c r="D32" s="1">
-        <v>0.1816</v>
+        <v>1.4154</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0083</v>
+        <v>0.0646</v>
       </c>
       <c r="F32" s="1">
-        <v>4.752</v>
+        <v>23.7119</v>
       </c>
       <c r="G32" s="1">
-        <v>11.3306</v>
+        <v>27.9224</v>
       </c>
       <c r="H32" s="1">
-        <v>585.1681</v>
+        <v>395.1912</v>
       </c>
       <c r="I32" s="1">
-        <v>0.0197</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>0.0115</v>
       </c>
       <c r="C33" s="1">
-        <v>6.7085</v>
+        <v>4.5305</v>
       </c>
       <c r="D33" s="1">
-        <v>0.3853</v>
+        <v>-0.7435</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0176</v>
+        <v>-0.0339</v>
       </c>
       <c r="F33" s="1">
-        <v>10.2845</v>
+        <v>-13.4015</v>
       </c>
       <c r="G33" s="1">
-        <v>16.9929</v>
+        <v>-8.871</v>
       </c>
       <c r="H33" s="1">
-        <v>602.1611</v>
+        <v>386.3203</v>
       </c>
       <c r="I33" s="1">
-        <v>0.029</v>
+        <v>-0.0224</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1440,25 +1440,25 @@
         <v>0.0115</v>
       </c>
       <c r="C34" s="1">
-        <v>6.9033</v>
+        <v>4.4288</v>
       </c>
       <c r="D34" s="1">
-        <v>0.1793</v>
+        <v>0.3698</v>
       </c>
       <c r="E34" s="1">
-        <v>0.008200000000000001</v>
+        <v>0.0169</v>
       </c>
       <c r="F34" s="1">
-        <v>4.9234</v>
+        <v>6.5159</v>
       </c>
       <c r="G34" s="1">
-        <v>11.8267</v>
+        <v>10.9448</v>
       </c>
       <c r="H34" s="1">
-        <v>613.9878</v>
+        <v>397.265</v>
       </c>
       <c r="I34" s="1">
-        <v>0.0196</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1469,25 +1469,25 @@
         <v>0.0115</v>
       </c>
       <c r="C35" s="1">
-        <v>7.0389</v>
+        <v>4.5543</v>
       </c>
       <c r="D35" s="1">
-        <v>-0.6506999999999999</v>
+        <v>-1.7428</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0297</v>
+        <v>-0.0795</v>
       </c>
       <c r="F35" s="1">
-        <v>-18.2236</v>
+        <v>-31.5801</v>
       </c>
       <c r="G35" s="1">
-        <v>-11.1847</v>
+        <v>-27.0258</v>
       </c>
       <c r="H35" s="1">
-        <v>602.803</v>
+        <v>370.2392</v>
       </c>
       <c r="I35" s="1">
-        <v>-0.0182</v>
+        <v>-0.068</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1498,25 +1498,25 @@
         <v>0.0115</v>
       </c>
       <c r="C36" s="1">
-        <v>6.9106</v>
+        <v>4.2445</v>
       </c>
       <c r="D36" s="1">
-        <v>2.6407</v>
+        <v>-0.7915</v>
       </c>
       <c r="E36" s="1">
-        <v>0.1205</v>
+        <v>-0.0361</v>
       </c>
       <c r="F36" s="1">
-        <v>72.60890000000001</v>
+        <v>-13.3669</v>
       </c>
       <c r="G36" s="1">
-        <v>79.51949999999999</v>
+        <v>-9.122400000000001</v>
       </c>
       <c r="H36" s="1">
-        <v>682.3226</v>
+        <v>361.1168</v>
       </c>
       <c r="I36" s="1">
-        <v>0.1319</v>
+        <v>-0.0246</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1527,25 +1527,25 @@
         <v>0.0115</v>
       </c>
       <c r="C37" s="1">
-        <v>7.8223</v>
+        <v>4.1399</v>
       </c>
       <c r="D37" s="1">
-        <v>-0.0616</v>
+        <v>0.3736</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0028</v>
+        <v>0.017</v>
       </c>
       <c r="F37" s="1">
-        <v>-1.9166</v>
+        <v>6.1542</v>
       </c>
       <c r="G37" s="1">
-        <v>5.9056</v>
+        <v>10.2941</v>
       </c>
       <c r="H37" s="1">
-        <v>688.2282</v>
+        <v>371.411</v>
       </c>
       <c r="I37" s="1">
-        <v>0.008699999999999999</v>
+        <v>0.0285</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1556,25 +1556,25 @@
         <v>0.0115</v>
       </c>
       <c r="C38" s="1">
-        <v>7.89</v>
+        <v>4.2579</v>
       </c>
       <c r="D38" s="1">
-        <v>0.8967000000000001</v>
+        <v>-1.1159</v>
       </c>
       <c r="E38" s="1">
-        <v>0.0409</v>
+        <v>-0.0509</v>
       </c>
       <c r="F38" s="1">
-        <v>28.1491</v>
+        <v>-18.9045</v>
       </c>
       <c r="G38" s="1">
-        <v>36.039</v>
+        <v>-14.6466</v>
       </c>
       <c r="H38" s="1">
-        <v>724.2672</v>
+        <v>356.7644</v>
       </c>
       <c r="I38" s="1">
-        <v>0.0524</v>
+        <v>-0.0394</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1585,25 +1585,25 @@
         <v>0.0115</v>
       </c>
       <c r="C39" s="1">
-        <v>8.303100000000001</v>
+        <v>4.09</v>
       </c>
       <c r="D39" s="1">
-        <v>-0.4817</v>
+        <v>0.2198</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.022</v>
+        <v>0.01</v>
       </c>
       <c r="F39" s="1">
-        <v>-15.9148</v>
+        <v>3.577</v>
       </c>
       <c r="G39" s="1">
-        <v>-7.6116</v>
+        <v>7.667</v>
       </c>
       <c r="H39" s="1">
-        <v>716.6556</v>
+        <v>364.4314</v>
       </c>
       <c r="I39" s="1">
-        <v>-0.0105</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1614,25 +1614,25 @@
         <v>0.0115</v>
       </c>
       <c r="C40" s="1">
-        <v>8.2159</v>
+        <v>4.1779</v>
       </c>
       <c r="D40" s="1">
-        <v>-0.6871</v>
+        <v>-1.0494</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.0313</v>
+        <v>-0.0479</v>
       </c>
       <c r="F40" s="1">
-        <v>-22.4609</v>
+        <v>-17.4434</v>
       </c>
       <c r="G40" s="1">
-        <v>-14.245</v>
+        <v>-13.2655</v>
       </c>
       <c r="H40" s="1">
-        <v>702.4105</v>
+        <v>351.1659</v>
       </c>
       <c r="I40" s="1">
-        <v>-0.0199</v>
+        <v>-0.0364</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1643,25 +1643,25 @@
         <v>0.0115</v>
       </c>
       <c r="C41" s="1">
-        <v>8.0526</v>
+        <v>4.0258</v>
       </c>
       <c r="D41" s="1">
-        <v>-0.7887999999999999</v>
+        <v>-0.892</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.036</v>
+        <v>-0.0407</v>
       </c>
       <c r="F41" s="1">
-        <v>-25.2732</v>
+        <v>-14.2883</v>
       </c>
       <c r="G41" s="1">
-        <v>-17.2206</v>
+        <v>-10.2625</v>
       </c>
       <c r="H41" s="1">
-        <v>685.1899</v>
+        <v>340.9034</v>
       </c>
       <c r="I41" s="1">
-        <v>-0.0245</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1672,25 +1672,25 @@
         <v>0.0115</v>
       </c>
       <c r="C42" s="1">
-        <v>7.8551</v>
+        <v>3.9082</v>
       </c>
       <c r="D42" s="1">
-        <v>-1.3432</v>
+        <v>-1.0412</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.0613</v>
+        <v>-0.0475</v>
       </c>
       <c r="F42" s="1">
-        <v>-41.981</v>
+        <v>-16.1897</v>
       </c>
       <c r="G42" s="1">
-        <v>-34.1259</v>
+        <v>-12.2815</v>
       </c>
       <c r="H42" s="1">
-        <v>651.064</v>
+        <v>328.6219</v>
       </c>
       <c r="I42" s="1">
-        <v>-0.0498</v>
+        <v>-0.036</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1701,25 +1701,25 @@
         <v>0.0115</v>
       </c>
       <c r="C43" s="1">
-        <v>7.4639</v>
+        <v>3.7674</v>
       </c>
       <c r="D43" s="1">
-        <v>1.8139</v>
+        <v>1.3304</v>
       </c>
       <c r="E43" s="1">
-        <v>0.0827</v>
+        <v>0.0607</v>
       </c>
       <c r="F43" s="1">
-        <v>53.867</v>
+        <v>19.9419</v>
       </c>
       <c r="G43" s="1">
-        <v>61.3309</v>
+        <v>23.7092</v>
       </c>
       <c r="H43" s="1">
-        <v>712.395</v>
+        <v>352.3311</v>
       </c>
       <c r="I43" s="1">
-        <v>0.09420000000000001</v>
+        <v>0.0721</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1730,25 +1730,25 @@
         <v>0.0115</v>
       </c>
       <c r="C44" s="1">
-        <v>8.167</v>
+        <v>4.0392</v>
       </c>
       <c r="D44" s="1">
-        <v>1.1977</v>
+        <v>-0.7016</v>
       </c>
       <c r="E44" s="1">
-        <v>0.0546</v>
+        <v>-0.032</v>
       </c>
       <c r="F44" s="1">
-        <v>38.9183</v>
+        <v>-11.2761</v>
       </c>
       <c r="G44" s="1">
-        <v>47.0853</v>
+        <v>-7.2369</v>
       </c>
       <c r="H44" s="1">
-        <v>759.4803000000001</v>
+        <v>345.0942</v>
       </c>
       <c r="I44" s="1">
-        <v>0.06610000000000001</v>
+        <v>-0.0205</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1759,25 +1759,25 @@
         <v>0.0115</v>
       </c>
       <c r="C45" s="1">
-        <v>8.706799999999999</v>
+        <v>3.9562</v>
       </c>
       <c r="D45" s="1">
-        <v>1.7184</v>
+        <v>0.4614</v>
       </c>
       <c r="E45" s="1">
-        <v>0.0784</v>
+        <v>0.021</v>
       </c>
       <c r="F45" s="1">
-        <v>59.531</v>
+        <v>7.2621</v>
       </c>
       <c r="G45" s="1">
-        <v>68.23779999999999</v>
+        <v>11.2183</v>
       </c>
       <c r="H45" s="1">
-        <v>827.718</v>
+        <v>356.3125</v>
       </c>
       <c r="I45" s="1">
-        <v>0.0898</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1788,25 +1788,25 @@
         <v>0.0115</v>
       </c>
       <c r="C46" s="1">
-        <v>9.489100000000001</v>
+        <v>4.0848</v>
       </c>
       <c r="D46" s="1">
-        <v>-0.0412</v>
+        <v>1.697</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.0019</v>
+        <v>0.0774</v>
       </c>
       <c r="F46" s="1">
-        <v>-1.5566</v>
+        <v>27.5799</v>
       </c>
       <c r="G46" s="1">
-        <v>7.9325</v>
+        <v>31.6648</v>
       </c>
       <c r="H46" s="1">
-        <v>835.6506000000001</v>
+        <v>387.9772</v>
       </c>
       <c r="I46" s="1">
-        <v>0.009599999999999999</v>
+        <v>0.08890000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1817,25 +1817,25 @@
         <v>0.0115</v>
       </c>
       <c r="C47" s="1">
-        <v>9.58</v>
+        <v>4.4478</v>
       </c>
       <c r="D47" s="1">
-        <v>-0.4786</v>
+        <v>-1.1534</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.0218</v>
+        <v>-0.0526</v>
       </c>
       <c r="F47" s="1">
-        <v>-18.2433</v>
+        <v>-20.4121</v>
       </c>
       <c r="G47" s="1">
-        <v>-8.6633</v>
+        <v>-15.9643</v>
       </c>
       <c r="H47" s="1">
-        <v>826.9873</v>
+        <v>372.0129</v>
       </c>
       <c r="I47" s="1">
-        <v>-0.0104</v>
+        <v>-0.0411</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1846,25 +1846,25 @@
         <v>0.0115</v>
       </c>
       <c r="C48" s="1">
-        <v>9.480700000000001</v>
+        <v>4.2648</v>
       </c>
       <c r="D48" s="1">
-        <v>1.1162</v>
+        <v>-1.0849</v>
       </c>
       <c r="E48" s="1">
-        <v>0.0509</v>
+        <v>-0.0495</v>
       </c>
       <c r="F48" s="1">
-        <v>42.1038</v>
+        <v>-18.41</v>
       </c>
       <c r="G48" s="1">
-        <v>51.5845</v>
+        <v>-14.1452</v>
       </c>
       <c r="H48" s="1">
-        <v>878.5718000000001</v>
+        <v>357.8678</v>
       </c>
       <c r="I48" s="1">
-        <v>0.0624</v>
+        <v>-0.038</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1875,25 +1875,25 @@
         <v>0.0115</v>
       </c>
       <c r="C49" s="1">
-        <v>10.0721</v>
+        <v>4.1027</v>
       </c>
       <c r="D49" s="1">
-        <v>-0.0575</v>
+        <v>-0.4005</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.0026</v>
+        <v>-0.0183</v>
       </c>
       <c r="F49" s="1">
-        <v>-2.3041</v>
+        <v>-6.5367</v>
       </c>
       <c r="G49" s="1">
-        <v>7.768</v>
+        <v>-2.4341</v>
       </c>
       <c r="H49" s="1">
-        <v>886.3398999999999</v>
+        <v>355.4337</v>
       </c>
       <c r="I49" s="1">
-        <v>0.008800000000000001</v>
+        <v>-0.0068</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1904,25 +1904,25 @@
         <v>0.0115</v>
       </c>
       <c r="C50" s="1">
-        <v>10.1612</v>
+        <v>4.0748</v>
       </c>
       <c r="D50" s="1">
-        <v>0.6877</v>
+        <v>-0.0215</v>
       </c>
       <c r="E50" s="1">
-        <v>0.0314</v>
+        <v>-0.001</v>
       </c>
       <c r="F50" s="1">
-        <v>27.8044</v>
+        <v>-0.3486</v>
       </c>
       <c r="G50" s="1">
-        <v>37.9655</v>
+        <v>3.7262</v>
       </c>
       <c r="H50" s="1">
-        <v>924.3054</v>
+        <v>359.1599</v>
       </c>
       <c r="I50" s="1">
-        <v>0.0428</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1933,25 +1933,25 @@
         <v>0.0115</v>
       </c>
       <c r="C51" s="1">
-        <v>10.5964</v>
+        <v>4.1175</v>
       </c>
       <c r="D51" s="1">
-        <v>0.7783</v>
+        <v>0.6794</v>
       </c>
       <c r="E51" s="1">
-        <v>0.0355</v>
+        <v>0.031</v>
       </c>
       <c r="F51" s="1">
-        <v>32.8128</v>
+        <v>11.13</v>
       </c>
       <c r="G51" s="1">
-        <v>43.4092</v>
+        <v>15.2475</v>
       </c>
       <c r="H51" s="1">
-        <v>967.7146</v>
+        <v>374.4074</v>
       </c>
       <c r="I51" s="1">
-        <v>0.047</v>
+        <v>0.0425</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1962,25 +1962,25 @@
         <v>0.0115</v>
       </c>
       <c r="C52" s="1">
-        <v>11.094</v>
+        <v>4.2923</v>
       </c>
       <c r="D52" s="1">
-        <v>-0.7403</v>
+        <v>-0.3305</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.0338</v>
+        <v>-0.0151</v>
       </c>
       <c r="F52" s="1">
-        <v>-32.676</v>
+        <v>-5.6441</v>
       </c>
       <c r="G52" s="1">
-        <v>-21.5819</v>
+        <v>-1.3519</v>
       </c>
       <c r="H52" s="1">
-        <v>946.1327</v>
+        <v>373.0555</v>
       </c>
       <c r="I52" s="1">
-        <v>-0.0223</v>
+        <v>-0.0036</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1991,25 +1991,25 @@
         <v>0.0115</v>
       </c>
       <c r="C53" s="1">
-        <v>10.8466</v>
+        <v>4.2768</v>
       </c>
       <c r="D53" s="1">
-        <v>1.6406</v>
+        <v>0.0377</v>
       </c>
       <c r="E53" s="1">
-        <v>0.07480000000000001</v>
+        <v>0.0017</v>
       </c>
       <c r="F53" s="1">
-        <v>70.8009</v>
+        <v>0.6421</v>
       </c>
       <c r="G53" s="1">
-        <v>81.64749999999999</v>
+        <v>4.9189</v>
       </c>
       <c r="H53" s="1">
-        <v>1027.7801</v>
+        <v>377.9744</v>
       </c>
       <c r="I53" s="1">
-        <v>0.0863</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2020,25 +2020,25 @@
         <v>0.0115</v>
       </c>
       <c r="C54" s="1">
-        <v>11.7826</v>
+        <v>4.3332</v>
       </c>
       <c r="D54" s="1">
-        <v>0.4764</v>
+        <v>1.8077</v>
       </c>
       <c r="E54" s="1">
-        <v>0.0217</v>
+        <v>0.0825</v>
       </c>
       <c r="F54" s="1">
-        <v>22.3325</v>
+        <v>31.1657</v>
       </c>
       <c r="G54" s="1">
-        <v>34.1151</v>
+        <v>35.4989</v>
       </c>
       <c r="H54" s="1">
-        <v>1061.8952</v>
+        <v>413.4733</v>
       </c>
       <c r="I54" s="1">
-        <v>0.0332</v>
+        <v>0.0939</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2049,25 +2049,25 @@
         <v>0.0115</v>
       </c>
       <c r="C55" s="1">
-        <v>12.1737</v>
+        <v>4.7401</v>
       </c>
       <c r="D55" s="1">
-        <v>-1.3466</v>
+        <v>-0.1154</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.0614</v>
+        <v>-0.0053</v>
       </c>
       <c r="F55" s="1">
-        <v>-65.226</v>
+        <v>-2.1771</v>
       </c>
       <c r="G55" s="1">
-        <v>-53.0523</v>
+        <v>2.5631</v>
       </c>
       <c r="H55" s="1">
-        <v>1008.843</v>
+        <v>416.0363</v>
       </c>
       <c r="I55" s="1">
-        <v>-0.05</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2078,25 +2078,25 @@
         <v>0.0115</v>
       </c>
       <c r="C56" s="1">
-        <v>11.5655</v>
+        <v>4.7695</v>
       </c>
       <c r="D56" s="1">
-        <v>1.9025</v>
+        <v>-1.9236</v>
       </c>
       <c r="E56" s="1">
-        <v>0.0868</v>
+        <v>-0.0877</v>
       </c>
       <c r="F56" s="1">
-        <v>87.5441</v>
+        <v>-36.5044</v>
       </c>
       <c r="G56" s="1">
-        <v>99.1096</v>
+        <v>-31.7348</v>
       </c>
       <c r="H56" s="1">
-        <v>1107.9526</v>
+        <v>384.3015</v>
       </c>
       <c r="I56" s="1">
-        <v>0.0982</v>
+        <v>-0.07630000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2107,25 +2107,25 @@
         <v>0.0115</v>
       </c>
       <c r="C57" s="1">
-        <v>12.7018</v>
+        <v>4.4057</v>
       </c>
       <c r="D57" s="1">
-        <v>0.5593</v>
+        <v>1.0051</v>
       </c>
       <c r="E57" s="1">
-        <v>0.0255</v>
+        <v>0.0458</v>
       </c>
       <c r="F57" s="1">
-        <v>28.2642</v>
+        <v>17.6181</v>
       </c>
       <c r="G57" s="1">
-        <v>40.9659</v>
+        <v>22.0238</v>
       </c>
       <c r="H57" s="1">
-        <v>1148.9185</v>
+        <v>406.3253</v>
       </c>
       <c r="I57" s="1">
-        <v>0.037</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2136,25 +2136,25 @@
         <v>0.0115</v>
       </c>
       <c r="C58" s="1">
-        <v>13.1714</v>
+        <v>4.6582</v>
       </c>
       <c r="D58" s="1">
-        <v>1.4733</v>
+        <v>1.7802</v>
       </c>
       <c r="E58" s="1">
-        <v>0.0672</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="F58" s="1">
-        <v>77.209</v>
+        <v>32.9936</v>
       </c>
       <c r="G58" s="1">
-        <v>90.38039999999999</v>
+        <v>37.6518</v>
       </c>
       <c r="H58" s="1">
-        <v>1239.2989</v>
+        <v>443.9771</v>
       </c>
       <c r="I58" s="1">
-        <v>0.07870000000000001</v>
+        <v>0.0927</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2165,25 +2165,25 @@
         <v>0.0115</v>
       </c>
       <c r="C59" s="1">
-        <v>14.2075</v>
+        <v>5.0898</v>
       </c>
       <c r="D59" s="1">
-        <v>-0.739</v>
+        <v>-1.3975</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.0337</v>
+        <v>-0.06370000000000001</v>
       </c>
       <c r="F59" s="1">
-        <v>-41.7728</v>
+        <v>-28.3005</v>
       </c>
       <c r="G59" s="1">
-        <v>-27.5652</v>
+        <v>-23.2107</v>
       </c>
       <c r="H59" s="1">
-        <v>1211.7337</v>
+        <v>420.7665</v>
       </c>
       <c r="I59" s="1">
-        <v>-0.0222</v>
+        <v>-0.0523</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2194,25 +2194,25 @@
         <v>0.0115</v>
       </c>
       <c r="C60" s="1">
-        <v>13.8915</v>
+        <v>4.8237</v>
       </c>
       <c r="D60" s="1">
-        <v>0.1546</v>
+        <v>-0.6292</v>
       </c>
       <c r="E60" s="1">
-        <v>0.0071</v>
+        <v>-0.0287</v>
       </c>
       <c r="F60" s="1">
-        <v>8.546099999999999</v>
+        <v>-12.0758</v>
       </c>
       <c r="G60" s="1">
-        <v>22.4377</v>
+        <v>-7.2521</v>
       </c>
       <c r="H60" s="1">
-        <v>1234.1714</v>
+        <v>413.5144</v>
       </c>
       <c r="I60" s="1">
-        <v>0.0185</v>
+        <v>-0.0172</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2223,25 +2223,25 @@
         <v>0.0115</v>
       </c>
       <c r="C61" s="1">
-        <v>14.1487</v>
+        <v>4.7406</v>
       </c>
       <c r="D61" s="1">
-        <v>-0.0353</v>
+        <v>0.6107</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.0016</v>
+        <v>0.0279</v>
       </c>
       <c r="F61" s="1">
-        <v>-1.9881</v>
+        <v>11.5196</v>
       </c>
       <c r="G61" s="1">
-        <v>12.1607</v>
+        <v>16.2601</v>
       </c>
       <c r="H61" s="1">
-        <v>1246.3321</v>
+        <v>429.7745</v>
       </c>
       <c r="I61" s="1">
-        <v>0.009900000000000001</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2252,25 +2252,25 @@
         <v>0.0115</v>
       </c>
       <c r="C62" s="1">
-        <v>14.2882</v>
+        <v>4.927</v>
       </c>
       <c r="D62" s="1">
-        <v>-0.3957</v>
+        <v>-1.3904</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.0181</v>
+        <v>-0.0634</v>
       </c>
       <c r="F62" s="1">
-        <v>-22.4976</v>
+        <v>-27.2573</v>
       </c>
       <c r="G62" s="1">
-        <v>-8.2095</v>
+        <v>-22.3303</v>
       </c>
       <c r="H62" s="1">
-        <v>1238.1226</v>
+        <v>407.4442</v>
       </c>
       <c r="I62" s="1">
-        <v>-0.0066</v>
+        <v>-0.052</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2281,25 +2281,25 @@
         <v>0.0115</v>
       </c>
       <c r="C63" s="1">
-        <v>14.194</v>
+        <v>4.671</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.242</v>
+        <v>0.4214</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.0566</v>
+        <v>0.0192</v>
       </c>
       <c r="F63" s="1">
-        <v>-70.1395</v>
+        <v>7.8313</v>
       </c>
       <c r="G63" s="1">
-        <v>-55.9455</v>
+        <v>12.5023</v>
       </c>
       <c r="H63" s="1">
-        <v>1182.1771</v>
+        <v>419.9464</v>
       </c>
       <c r="I63" s="1">
-        <v>-0.0452</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2310,25 +2310,25 @@
         <v>0.0115</v>
       </c>
       <c r="C64" s="1">
-        <v>13.5527</v>
+        <v>4.8143</v>
       </c>
       <c r="D64" s="1">
-        <v>0.9618</v>
+        <v>0.623</v>
       </c>
       <c r="E64" s="1">
-        <v>0.0439</v>
+        <v>0.0284</v>
       </c>
       <c r="F64" s="1">
-        <v>51.8624</v>
+        <v>11.9334</v>
       </c>
       <c r="G64" s="1">
-        <v>65.4151</v>
+        <v>16.7477</v>
       </c>
       <c r="H64" s="1">
-        <v>1247.5923</v>
+        <v>436.6942</v>
       </c>
       <c r="I64" s="1">
-        <v>0.0553</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2339,25 +2339,25 @@
         <v>0.0115</v>
       </c>
       <c r="C65" s="1">
-        <v>14.3026</v>
+        <v>5.0063</v>
       </c>
       <c r="D65" s="1">
-        <v>0.2388</v>
+        <v>1.3085</v>
       </c>
       <c r="E65" s="1">
-        <v>0.0109</v>
+        <v>0.0597</v>
       </c>
       <c r="F65" s="1">
-        <v>13.5871</v>
+        <v>26.064</v>
       </c>
       <c r="G65" s="1">
-        <v>27.8897</v>
+        <v>31.0703</v>
       </c>
       <c r="H65" s="1">
-        <v>1275.482</v>
+        <v>467.7645</v>
       </c>
       <c r="I65" s="1">
-        <v>0.0224</v>
+        <v>0.0711</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2368,25 +2368,25 @@
         <v>0.0115</v>
       </c>
       <c r="C66" s="1">
-        <v>14.6223</v>
+        <v>5.3625</v>
       </c>
       <c r="D66" s="1">
-        <v>1.875</v>
+        <v>1.0453</v>
       </c>
       <c r="E66" s="1">
-        <v>0.08550000000000001</v>
+        <v>0.0477</v>
       </c>
       <c r="F66" s="1">
-        <v>109.0863</v>
+        <v>22.3034</v>
       </c>
       <c r="G66" s="1">
-        <v>123.7087</v>
+        <v>27.666</v>
       </c>
       <c r="H66" s="1">
-        <v>1399.1906</v>
+        <v>495.4304</v>
       </c>
       <c r="I66" s="1">
-        <v>0.097</v>
+        <v>0.0591</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2397,25 +2397,25 @@
         <v>0.0115</v>
       </c>
       <c r="C67" s="1">
-        <v>16.0406</v>
+        <v>5.6797</v>
       </c>
       <c r="D67" s="1">
-        <v>-0.093</v>
+        <v>-0.7574</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.0042</v>
+        <v>-0.0345</v>
       </c>
       <c r="F67" s="1">
-        <v>-5.9385</v>
+        <v>-17.1165</v>
       </c>
       <c r="G67" s="1">
-        <v>10.1021</v>
+        <v>-11.4368</v>
       </c>
       <c r="H67" s="1">
-        <v>1409.2927</v>
+        <v>483.9936</v>
       </c>
       <c r="I67" s="1">
-        <v>0.0072</v>
+        <v>-0.0231</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2426,25 +2426,25 @@
         <v>0.0115</v>
       </c>
       <c r="C68" s="1">
-        <v>16.1564</v>
+        <v>5.5486</v>
       </c>
       <c r="D68" s="1">
-        <v>0.1357</v>
+        <v>1.3571</v>
       </c>
       <c r="E68" s="1">
-        <v>0.0062</v>
+        <v>0.0619</v>
       </c>
       <c r="F68" s="1">
-        <v>8.724399999999999</v>
+        <v>29.9606</v>
       </c>
       <c r="G68" s="1">
-        <v>24.8807</v>
+        <v>35.5092</v>
       </c>
       <c r="H68" s="1">
-        <v>1434.1735</v>
+        <v>519.5028</v>
       </c>
       <c r="I68" s="1">
-        <v>0.0177</v>
+        <v>0.07340000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2455,25 +2455,25 @@
         <v>0.0115</v>
       </c>
       <c r="C69" s="1">
-        <v>16.4416</v>
+        <v>5.9557</v>
       </c>
       <c r="D69" s="1">
-        <v>0.9067</v>
+        <v>0.4323</v>
       </c>
       <c r="E69" s="1">
-        <v>0.0414</v>
+        <v>0.0197</v>
       </c>
       <c r="F69" s="1">
-        <v>59.314</v>
+        <v>10.2427</v>
       </c>
       <c r="G69" s="1">
-        <v>75.7556</v>
+        <v>16.1984</v>
       </c>
       <c r="H69" s="1">
-        <v>1509.9291</v>
+        <v>535.7012</v>
       </c>
       <c r="I69" s="1">
-        <v>0.0528</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2484,25 +2484,25 @@
         <v>0.0115</v>
       </c>
       <c r="C70" s="1">
-        <v>17.3101</v>
+        <v>6.1414</v>
       </c>
       <c r="D70" s="1">
-        <v>0.4318</v>
+        <v>-0.886</v>
       </c>
       <c r="E70" s="1">
-        <v>0.0197</v>
+        <v>-0.0404</v>
       </c>
       <c r="F70" s="1">
-        <v>29.7382</v>
+        <v>-21.6483</v>
       </c>
       <c r="G70" s="1">
-        <v>47.0483</v>
+        <v>-15.5069</v>
       </c>
       <c r="H70" s="1">
-        <v>1556.9773</v>
+        <v>520.1942</v>
       </c>
       <c r="I70" s="1">
-        <v>0.0312</v>
+        <v>-0.0289</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2513,25 +2513,25 @@
         <v>0.0115</v>
       </c>
       <c r="C71" s="1">
-        <v>17.8495</v>
+        <v>5.9636</v>
       </c>
       <c r="D71" s="1">
-        <v>0.3203</v>
+        <v>0.4573</v>
       </c>
       <c r="E71" s="1">
-        <v>0.0146</v>
+        <v>0.0209</v>
       </c>
       <c r="F71" s="1">
-        <v>22.7444</v>
+        <v>10.8515</v>
       </c>
       <c r="G71" s="1">
-        <v>40.5939</v>
+        <v>16.8151</v>
       </c>
       <c r="H71" s="1">
-        <v>1597.5712</v>
+        <v>537.0093000000001</v>
       </c>
       <c r="I71" s="1">
-        <v>0.0261</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2542,25 +2542,25 @@
         <v>0.0115</v>
       </c>
       <c r="C72" s="1">
-        <v>18.3148</v>
+        <v>6.1564</v>
       </c>
       <c r="D72" s="1">
-        <v>0.1255</v>
+        <v>0.4723</v>
       </c>
       <c r="E72" s="1">
-        <v>0.0057</v>
+        <v>0.0215</v>
       </c>
       <c r="F72" s="1">
-        <v>9.1464</v>
+        <v>11.5684</v>
       </c>
       <c r="G72" s="1">
-        <v>27.4613</v>
+        <v>17.7248</v>
       </c>
       <c r="H72" s="1">
-        <v>1625.0324</v>
+        <v>554.7341</v>
       </c>
       <c r="I72" s="1">
-        <v>0.0172</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2571,25 +2571,25 @@
         <v>0.0115</v>
       </c>
       <c r="C73" s="1">
-        <v>18.6296</v>
+        <v>6.3596</v>
       </c>
       <c r="D73" s="1">
-        <v>-1.3266</v>
+        <v>-0.0969</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.0605</v>
+        <v>-0.0044</v>
       </c>
       <c r="F73" s="1">
-        <v>-98.3279</v>
+        <v>-2.4509</v>
       </c>
       <c r="G73" s="1">
-        <v>-79.6983</v>
+        <v>3.9087</v>
       </c>
       <c r="H73" s="1">
-        <v>1545.3341</v>
+        <v>558.6428</v>
       </c>
       <c r="I73" s="1">
-        <v>-0.049</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2600,25 +2600,25 @@
         <v>0.0115</v>
       </c>
       <c r="C74" s="1">
-        <v>17.716</v>
+        <v>6.4044</v>
       </c>
       <c r="D74" s="1">
-        <v>0.3623</v>
+        <v>-0.864</v>
       </c>
       <c r="E74" s="1">
-        <v>0.0165</v>
+        <v>-0.0394</v>
       </c>
       <c r="F74" s="1">
-        <v>25.5363</v>
+        <v>-22.0165</v>
       </c>
       <c r="G74" s="1">
-        <v>43.2522</v>
+        <v>-15.6121</v>
       </c>
       <c r="H74" s="1">
-        <v>1588.5864</v>
+        <v>543.0307</v>
       </c>
       <c r="I74" s="1">
-        <v>0.028</v>
+        <v>-0.0279</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2629,25 +2629,25 @@
         <v>0.0115</v>
       </c>
       <c r="C75" s="1">
-        <v>18.2118</v>
+        <v>6.2254</v>
       </c>
       <c r="D75" s="1">
-        <v>-1.0374</v>
+        <v>1.7794</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.0473</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="F75" s="1">
-        <v>-75.16800000000001</v>
+        <v>44.074</v>
       </c>
       <c r="G75" s="1">
-        <v>-56.9562</v>
+        <v>50.2994</v>
       </c>
       <c r="H75" s="1">
-        <v>1531.6302</v>
+        <v>593.3301</v>
       </c>
       <c r="I75" s="1">
-        <v>-0.0359</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2658,25 +2658,25 @@
         <v>0.0115</v>
       </c>
       <c r="C76" s="1">
-        <v>17.5589</v>
+        <v>6.802</v>
       </c>
       <c r="D76" s="1">
-        <v>1.4493</v>
+        <v>0.2131</v>
       </c>
       <c r="E76" s="1">
-        <v>0.06610000000000001</v>
+        <v>0.0097</v>
       </c>
       <c r="F76" s="1">
-        <v>101.25</v>
+        <v>5.7676</v>
       </c>
       <c r="G76" s="1">
-        <v>118.8089</v>
+        <v>12.5696</v>
       </c>
       <c r="H76" s="1">
-        <v>1650.439</v>
+        <v>605.8997000000001</v>
       </c>
       <c r="I76" s="1">
-        <v>0.0776</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2687,25 +2687,25 @@
         <v>0.0115</v>
       </c>
       <c r="C77" s="1">
-        <v>18.9209</v>
+        <v>6.9461</v>
       </c>
       <c r="D77" s="1">
-        <v>-0.2196</v>
+        <v>-0.3406</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.01</v>
+        <v>-0.0155</v>
       </c>
       <c r="F77" s="1">
-        <v>-16.5319</v>
+        <v>-9.412100000000001</v>
       </c>
       <c r="G77" s="1">
-        <v>2.389</v>
+        <v>-2.466</v>
       </c>
       <c r="H77" s="1">
-        <v>1652.828</v>
+        <v>603.4337</v>
       </c>
       <c r="I77" s="1">
-        <v>0.0014</v>
+        <v>-0.0041</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2716,25 +2716,25 @@
         <v>0.0115</v>
       </c>
       <c r="C78" s="1">
-        <v>18.9483</v>
+        <v>6.9179</v>
       </c>
       <c r="D78" s="1">
-        <v>0.5655</v>
+        <v>-1.4944</v>
       </c>
       <c r="E78" s="1">
-        <v>0.0258</v>
+        <v>-0.0682</v>
       </c>
       <c r="F78" s="1">
-        <v>42.6297</v>
+        <v>-41.1325</v>
       </c>
       <c r="G78" s="1">
-        <v>61.578</v>
+        <v>-34.2147</v>
       </c>
       <c r="H78" s="1">
-        <v>1714.406</v>
+        <v>569.2191</v>
       </c>
       <c r="I78" s="1">
-        <v>0.0373</v>
+        <v>-0.0567</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2745,25 +2745,25 @@
         <v>0.0115</v>
       </c>
       <c r="C79" s="1">
-        <v>19.6542</v>
+        <v>6.5256</v>
       </c>
       <c r="D79" s="1">
-        <v>0.973</v>
+        <v>-0.3678</v>
       </c>
       <c r="E79" s="1">
-        <v>0.0444</v>
+        <v>-0.0168</v>
       </c>
       <c r="F79" s="1">
-        <v>76.0843</v>
+        <v>-9.548299999999999</v>
       </c>
       <c r="G79" s="1">
-        <v>95.7385</v>
+        <v>-3.0227</v>
       </c>
       <c r="H79" s="1">
-        <v>1810.1446</v>
+        <v>566.1964</v>
       </c>
       <c r="I79" s="1">
-        <v>0.0558</v>
+        <v>-0.0053</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2774,25 +2774,25 @@
         <v>0.0115</v>
       </c>
       <c r="C80" s="1">
-        <v>20.7518</v>
+        <v>6.491</v>
       </c>
       <c r="D80" s="1">
-        <v>-0.5445</v>
+        <v>0.3069</v>
       </c>
       <c r="E80" s="1">
-        <v>-0.0248</v>
+        <v>0.014</v>
       </c>
       <c r="F80" s="1">
-        <v>-44.9596</v>
+        <v>7.9253</v>
       </c>
       <c r="G80" s="1">
-        <v>-24.2078</v>
+        <v>14.4163</v>
       </c>
       <c r="H80" s="1">
-        <v>1785.9368</v>
+        <v>580.6127</v>
       </c>
       <c r="I80" s="1">
-        <v>-0.0134</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2803,25 +2803,25 @@
         <v>0.0115</v>
       </c>
       <c r="C81" s="1">
-        <v>20.4743</v>
+        <v>6.6562</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.1378</v>
+        <v>1.0692</v>
       </c>
       <c r="E81" s="1">
-        <v>-0.0519</v>
+        <v>0.0488</v>
       </c>
       <c r="F81" s="1">
-        <v>-92.6862</v>
+        <v>28.3166</v>
       </c>
       <c r="G81" s="1">
-        <v>-72.212</v>
+        <v>34.9729</v>
       </c>
       <c r="H81" s="1">
-        <v>1713.7248</v>
+        <v>615.5856</v>
       </c>
       <c r="I81" s="1">
-        <v>-0.0404</v>
+        <v>0.0602</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2832,25 +2832,25 @@
         <v>0.0115</v>
       </c>
       <c r="C82" s="1">
-        <v>19.6464</v>
+        <v>7.0572</v>
       </c>
       <c r="D82" s="1">
-        <v>-0.8286</v>
+        <v>-0.4383</v>
       </c>
       <c r="E82" s="1">
-        <v>-0.0378</v>
+        <v>-0.02</v>
       </c>
       <c r="F82" s="1">
-        <v>-64.76909999999999</v>
+        <v>-12.3081</v>
       </c>
       <c r="G82" s="1">
-        <v>-45.1227</v>
+        <v>-5.2509</v>
       </c>
       <c r="H82" s="1">
-        <v>1668.6021</v>
+        <v>610.3347</v>
       </c>
       <c r="I82" s="1">
-        <v>-0.0263</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2861,25 +2861,25 @@
         <v>0.0115</v>
       </c>
       <c r="C83" s="1">
-        <v>19.1291</v>
+        <v>6.997</v>
       </c>
       <c r="D83" s="1">
-        <v>0.2616</v>
+        <v>0.0621</v>
       </c>
       <c r="E83" s="1">
-        <v>0.0119</v>
+        <v>0.0028</v>
       </c>
       <c r="F83" s="1">
-        <v>19.9112</v>
+        <v>1.7277</v>
       </c>
       <c r="G83" s="1">
-        <v>39.0403</v>
+        <v>8.724600000000001</v>
       </c>
       <c r="H83" s="1">
-        <v>1707.6425</v>
+        <v>619.0593</v>
       </c>
       <c r="I83" s="1">
-        <v>0.0234</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2890,25 +2890,25 @@
         <v>0.0115</v>
       </c>
       <c r="C84" s="1">
-        <v>19.5767</v>
+        <v>7.097</v>
       </c>
       <c r="D84" s="1">
-        <v>-1.4987</v>
+        <v>2.2952</v>
       </c>
       <c r="E84" s="1">
-        <v>-0.0684</v>
+        <v>0.1047</v>
       </c>
       <c r="F84" s="1">
-        <v>-116.7371</v>
+        <v>64.81059999999999</v>
       </c>
       <c r="G84" s="1">
-        <v>-97.1604</v>
+        <v>71.9076</v>
       </c>
       <c r="H84" s="1">
-        <v>1610.4821</v>
+        <v>690.9669</v>
       </c>
       <c r="I84" s="1">
-        <v>-0.0569</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2919,25 +2919,25 @@
         <v>0.0115</v>
       </c>
       <c r="C85" s="1">
-        <v>18.4628</v>
+        <v>7.9214</v>
       </c>
       <c r="D85" s="1">
-        <v>1.4127</v>
+        <v>-0.0117</v>
       </c>
       <c r="E85" s="1">
-        <v>0.0644</v>
+        <v>-0.0005</v>
       </c>
       <c r="F85" s="1">
-        <v>103.7768</v>
+        <v>-0.3683</v>
       </c>
       <c r="G85" s="1">
-        <v>122.2396</v>
+        <v>7.5531</v>
       </c>
       <c r="H85" s="1">
-        <v>1732.7217</v>
+        <v>698.52</v>
       </c>
       <c r="I85" s="1">
-        <v>0.0759</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2948,25 +2948,25 @@
         <v>0.0115</v>
       </c>
       <c r="C86" s="1">
-        <v>19.8642</v>
+        <v>8.007999999999999</v>
       </c>
       <c r="D86" s="1">
-        <v>1.7968</v>
+        <v>1.6733</v>
       </c>
       <c r="E86" s="1">
-        <v>0.082</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="F86" s="1">
-        <v>142.0078</v>
+        <v>53.3133</v>
       </c>
       <c r="G86" s="1">
-        <v>161.8721</v>
+        <v>61.3213</v>
       </c>
       <c r="H86" s="1">
-        <v>1894.5938</v>
+        <v>759.8412</v>
       </c>
       <c r="I86" s="1">
-        <v>0.0934</v>
+        <v>0.0878</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2977,25 +2977,25 @@
         <v>0.0115</v>
       </c>
       <c r="C87" s="1">
-        <v>21.7199</v>
+        <v>8.710900000000001</v>
       </c>
       <c r="D87" s="1">
-        <v>1.6148</v>
+        <v>-0.2372</v>
       </c>
       <c r="E87" s="1">
-        <v>0.0737</v>
+        <v>-0.0108</v>
       </c>
       <c r="F87" s="1">
-        <v>139.5496</v>
+        <v>-8.219900000000001</v>
       </c>
       <c r="G87" s="1">
-        <v>161.2696</v>
+        <v>0.491</v>
       </c>
       <c r="H87" s="1">
-        <v>2055.8634</v>
+        <v>760.3323</v>
       </c>
       <c r="I87" s="1">
-        <v>0.0851</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3006,25 +3006,25 @@
         <v>0.0115</v>
       </c>
       <c r="C88" s="1">
-        <v>23.5688</v>
+        <v>8.7166</v>
       </c>
       <c r="D88" s="1">
-        <v>-0.9018</v>
+        <v>1.0391</v>
       </c>
       <c r="E88" s="1">
-        <v>-0.0411</v>
+        <v>0.0474</v>
       </c>
       <c r="F88" s="1">
-        <v>-84.5688</v>
+        <v>36.0373</v>
       </c>
       <c r="G88" s="1">
-        <v>-61</v>
+        <v>44.7539</v>
       </c>
       <c r="H88" s="1">
-        <v>1994.8633</v>
+        <v>805.0862</v>
       </c>
       <c r="I88" s="1">
-        <v>-0.0297</v>
+        <v>0.0589</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3035,25 +3035,25 @@
         <v>0.0115</v>
       </c>
       <c r="C89" s="1">
-        <v>22.8695</v>
+        <v>9.2296</v>
       </c>
       <c r="D89" s="1">
-        <v>0.4288</v>
+        <v>1.2359</v>
       </c>
       <c r="E89" s="1">
-        <v>0.0196</v>
+        <v>0.0564</v>
       </c>
       <c r="F89" s="1">
-        <v>39.0156</v>
+        <v>45.3857</v>
       </c>
       <c r="G89" s="1">
-        <v>61.885</v>
+        <v>54.6154</v>
       </c>
       <c r="H89" s="1">
-        <v>2056.7484</v>
+        <v>859.7015</v>
       </c>
       <c r="I89" s="1">
-        <v>0.031</v>
+        <v>0.0678</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3064,25 +3064,25 @@
         <v>0.0115</v>
       </c>
       <c r="C90" s="1">
-        <v>23.5789</v>
+        <v>9.8558</v>
       </c>
       <c r="D90" s="1">
-        <v>2.4655</v>
+        <v>0.1528</v>
       </c>
       <c r="E90" s="1">
-        <v>0.1125</v>
+        <v>0.007</v>
       </c>
       <c r="F90" s="1">
-        <v>231.2955</v>
+        <v>5.9916</v>
       </c>
       <c r="G90" s="1">
-        <v>254.8744</v>
+        <v>15.8474</v>
       </c>
       <c r="H90" s="1">
-        <v>2311.6228</v>
+        <v>875.5489</v>
       </c>
       <c r="I90" s="1">
-        <v>0.1239</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3093,25 +3093,25 @@
         <v>0.0115</v>
       </c>
       <c r="C91" s="1">
-        <v>26.5008</v>
+        <v>10.0374</v>
       </c>
       <c r="D91" s="1">
-        <v>-1.4613</v>
+        <v>1.5751</v>
       </c>
       <c r="E91" s="1">
-        <v>-0.0667</v>
+        <v>0.0718</v>
       </c>
       <c r="F91" s="1">
-        <v>-154.0754</v>
+        <v>62.9055</v>
       </c>
       <c r="G91" s="1">
-        <v>-127.5745</v>
+        <v>72.943</v>
       </c>
       <c r="H91" s="1">
-        <v>2184.0482</v>
+        <v>948.4919</v>
       </c>
       <c r="I91" s="1">
-        <v>-0.0552</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3122,25 +3122,25 @@
         <v>0.0115</v>
       </c>
       <c r="C92" s="1">
-        <v>25.0383</v>
+        <v>10.8737</v>
       </c>
       <c r="D92" s="1">
-        <v>0.3065</v>
+        <v>-0.2226</v>
       </c>
       <c r="E92" s="1">
-        <v>0.014</v>
+        <v>-0.0102</v>
       </c>
       <c r="F92" s="1">
-        <v>30.5301</v>
+        <v>-9.6287</v>
       </c>
       <c r="G92" s="1">
-        <v>55.5684</v>
+        <v>1.2449</v>
       </c>
       <c r="H92" s="1">
-        <v>2239.6166</v>
+        <v>949.7368</v>
       </c>
       <c r="I92" s="1">
-        <v>0.0254</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3151,25 +3151,25 @@
         <v>0.0115</v>
       </c>
       <c r="C93" s="1">
-        <v>25.6753</v>
+        <v>10.8879</v>
       </c>
       <c r="D93" s="1">
-        <v>-2.5409</v>
+        <v>0.5373</v>
       </c>
       <c r="E93" s="1">
-        <v>-0.1159</v>
+        <v>0.0245</v>
       </c>
       <c r="F93" s="1">
-        <v>-259.5662</v>
+        <v>23.2756</v>
       </c>
       <c r="G93" s="1">
-        <v>-233.8909</v>
+        <v>34.1635</v>
       </c>
       <c r="H93" s="1">
-        <v>2005.7257</v>
+        <v>983.9004</v>
       </c>
       <c r="I93" s="1">
-        <v>-0.1044</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3180,25 +3180,25 @@
         <v>0.0115</v>
       </c>
       <c r="C94" s="1">
-        <v>22.994</v>
+        <v>11.2796</v>
       </c>
       <c r="D94" s="1">
-        <v>-0.1805</v>
+        <v>0.1139</v>
       </c>
       <c r="E94" s="1">
-        <v>-0.008200000000000001</v>
+        <v>0.0052</v>
       </c>
       <c r="F94" s="1">
-        <v>-16.5157</v>
+        <v>5.1096</v>
       </c>
       <c r="G94" s="1">
-        <v>6.4783</v>
+        <v>16.3892</v>
       </c>
       <c r="H94" s="1">
-        <v>2012.204</v>
+        <v>1000.2895</v>
       </c>
       <c r="I94" s="1">
-        <v>0.0032</v>
+        <v>0.0167</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3209,25 +3209,25 @@
         <v>0.0115</v>
       </c>
       <c r="C95" s="1">
-        <v>23.0682</v>
+        <v>11.4675</v>
       </c>
       <c r="D95" s="1">
-        <v>0.7435</v>
+        <v>-0.089</v>
       </c>
       <c r="E95" s="1">
-        <v>0.0339</v>
+        <v>-0.0041</v>
       </c>
       <c r="F95" s="1">
-        <v>68.2445</v>
+        <v>-4.0588</v>
       </c>
       <c r="G95" s="1">
-        <v>91.3128</v>
+        <v>7.4087</v>
       </c>
       <c r="H95" s="1">
-        <v>2103.5168</v>
+        <v>1007.6982</v>
       </c>
       <c r="I95" s="1">
-        <v>0.0454</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3238,25 +3238,25 @@
         <v>0.0115</v>
       </c>
       <c r="C96" s="1">
-        <v>24.1151</v>
+        <v>11.5524</v>
       </c>
       <c r="D96" s="1">
-        <v>-0.4757</v>
+        <v>-0.0531</v>
       </c>
       <c r="E96" s="1">
-        <v>-0.0217</v>
+        <v>-0.0024</v>
       </c>
       <c r="F96" s="1">
-        <v>-45.6397</v>
+        <v>-2.4416</v>
       </c>
       <c r="G96" s="1">
-        <v>-21.5246</v>
+        <v>9.110799999999999</v>
       </c>
       <c r="H96" s="1">
-        <v>2081.9922</v>
+        <v>1016.809</v>
       </c>
       <c r="I96" s="1">
-        <v>-0.0102</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3267,25 +3267,25 @@
         <v>0.0115</v>
       </c>
       <c r="C97" s="1">
-        <v>23.8683</v>
+        <v>11.6569</v>
       </c>
       <c r="D97" s="1">
-        <v>0.0985</v>
+        <v>-0.9664</v>
       </c>
       <c r="E97" s="1">
-        <v>0.0045</v>
+        <v>-0.0441</v>
       </c>
       <c r="F97" s="1">
-        <v>9.3521</v>
+        <v>-44.8217</v>
       </c>
       <c r="G97" s="1">
-        <v>33.2204</v>
+        <v>-33.1649</v>
       </c>
       <c r="H97" s="1">
-        <v>2115.2126</v>
+        <v>983.6442</v>
       </c>
       <c r="I97" s="1">
-        <v>0.016</v>
+        <v>-0.0326</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3296,25 +3296,25 @@
         <v>0.0115</v>
       </c>
       <c r="C98" s="1">
-        <v>24.2492</v>
+        <v>11.2767</v>
       </c>
       <c r="D98" s="1">
-        <v>0.323</v>
+        <v>0.3757</v>
       </c>
       <c r="E98" s="1">
-        <v>0.0147</v>
+        <v>0.0171</v>
       </c>
       <c r="F98" s="1">
-        <v>31.1634</v>
+        <v>16.8584</v>
       </c>
       <c r="G98" s="1">
-        <v>55.4126</v>
+        <v>28.135</v>
       </c>
       <c r="H98" s="1">
-        <v>2170.6252</v>
+        <v>1011.7792</v>
       </c>
       <c r="I98" s="1">
-        <v>0.0262</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3325,25 +3325,25 @@
         <v>0.0115</v>
       </c>
       <c r="C99" s="1">
-        <v>24.8844</v>
+        <v>11.5992</v>
       </c>
       <c r="D99" s="1">
-        <v>0.6667</v>
+        <v>-0.4827</v>
       </c>
       <c r="E99" s="1">
-        <v>0.0304</v>
+        <v>-0.022</v>
       </c>
       <c r="F99" s="1">
-        <v>66.00920000000001</v>
+        <v>-22.2758</v>
       </c>
       <c r="G99" s="1">
-        <v>90.89360000000001</v>
+        <v>-10.6765</v>
       </c>
       <c r="H99" s="1">
-        <v>2261.5188</v>
+        <v>1001.1027</v>
       </c>
       <c r="I99" s="1">
-        <v>0.0419</v>
+        <v>-0.0106</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3354,25 +3354,25 @@
         <v>0.0115</v>
       </c>
       <c r="C100" s="1">
-        <v>25.9264</v>
+        <v>11.4768</v>
       </c>
       <c r="D100" s="1">
-        <v>-1.0953</v>
+        <v>0.7002</v>
       </c>
       <c r="E100" s="1">
-        <v>-0.05</v>
+        <v>0.0319</v>
       </c>
       <c r="F100" s="1">
-        <v>-112.9837</v>
+        <v>31.9714</v>
       </c>
       <c r="G100" s="1">
-        <v>-87.0573</v>
+        <v>43.4482</v>
       </c>
       <c r="H100" s="1">
-        <v>2174.4616</v>
+        <v>1044.5509</v>
       </c>
       <c r="I100" s="1">
-        <v>-0.0385</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3383,25 +3383,25 @@
         <v>0.0115</v>
       </c>
       <c r="C101" s="1">
-        <v>24.9284</v>
+        <v>11.9749</v>
       </c>
       <c r="D101" s="1">
-        <v>1.4631</v>
+        <v>1.0037</v>
       </c>
       <c r="E101" s="1">
-        <v>0.0667</v>
+        <v>0.0458</v>
       </c>
       <c r="F101" s="1">
-        <v>145.1157</v>
+        <v>47.8222</v>
       </c>
       <c r="G101" s="1">
-        <v>170.0441</v>
+        <v>59.7971</v>
       </c>
       <c r="H101" s="1">
-        <v>2344.5057</v>
+        <v>1104.348</v>
       </c>
       <c r="I101" s="1">
-        <v>0.07820000000000001</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3412,25 +3412,25 @@
         <v>0.0115</v>
       </c>
       <c r="C102" s="1">
-        <v>26.8778</v>
+        <v>12.6604</v>
       </c>
       <c r="D102" s="1">
-        <v>-1.0616</v>
+        <v>1.4414</v>
       </c>
       <c r="E102" s="1">
-        <v>-0.0484</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="F102" s="1">
-        <v>-113.5314</v>
+        <v>72.6058</v>
       </c>
       <c r="G102" s="1">
-        <v>-86.6536</v>
+        <v>85.2662</v>
       </c>
       <c r="H102" s="1">
-        <v>2257.8521</v>
+        <v>1189.6142</v>
       </c>
       <c r="I102" s="1">
-        <v>-0.037</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3441,25 +3441,25 @@
         <v>0.0115</v>
       </c>
       <c r="C103" s="1">
-        <v>25.8844</v>
+        <v>13.6379</v>
       </c>
       <c r="D103" s="1">
-        <v>0.3415</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="E103" s="1">
-        <v>0.0156</v>
+        <v>0.0036</v>
       </c>
       <c r="F103" s="1">
-        <v>35.1746</v>
+        <v>4.2693</v>
       </c>
       <c r="G103" s="1">
-        <v>61.059</v>
+        <v>17.9073</v>
       </c>
       <c r="H103" s="1">
-        <v>2318.9111</v>
+        <v>1207.5214</v>
       </c>
       <c r="I103" s="1">
-        <v>0.027</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3470,25 +3470,25 @@
         <v>0.0115</v>
       </c>
       <c r="C104" s="1">
-        <v>26.5844</v>
+        <v>13.8432</v>
       </c>
       <c r="D104" s="1">
-        <v>-0.7907999999999999</v>
+        <v>0.5891999999999999</v>
       </c>
       <c r="E104" s="1">
-        <v>-0.0361</v>
+        <v>0.0269</v>
       </c>
       <c r="F104" s="1">
-        <v>-83.6421</v>
+        <v>32.4535</v>
       </c>
       <c r="G104" s="1">
-        <v>-57.0577</v>
+        <v>46.2967</v>
       </c>
       <c r="H104" s="1">
-        <v>2261.8534</v>
+        <v>1253.8181</v>
       </c>
       <c r="I104" s="1">
-        <v>-0.0246</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3499,25 +3499,25 @@
         <v>0.0115</v>
       </c>
       <c r="C105" s="1">
-        <v>25.9303</v>
+        <v>14.374</v>
       </c>
       <c r="D105" s="1">
-        <v>-0.2598</v>
+        <v>1.4174</v>
       </c>
       <c r="E105" s="1">
-        <v>-0.0119</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="F105" s="1">
-        <v>-26.8045</v>
+        <v>81.06059999999999</v>
       </c>
       <c r="G105" s="1">
-        <v>-0.8742</v>
+        <v>95.4346</v>
       </c>
       <c r="H105" s="1">
-        <v>2260.9792</v>
+        <v>1349.2527</v>
       </c>
       <c r="I105" s="1">
-        <v>-0.0004</v>
+        <v>0.0761</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3528,25 +3528,25 @@
         <v>0.0115</v>
       </c>
       <c r="C106" s="1">
-        <v>25.9202</v>
+        <v>15.4681</v>
       </c>
       <c r="D106" s="1">
-        <v>-0.888</v>
+        <v>0.0464</v>
       </c>
       <c r="E106" s="1">
-        <v>-0.0405</v>
+        <v>0.0021</v>
       </c>
       <c r="F106" s="1">
-        <v>-91.57899999999999</v>
+        <v>2.8526</v>
       </c>
       <c r="G106" s="1">
-        <v>-65.6588</v>
+        <v>18.3206</v>
       </c>
       <c r="H106" s="1">
-        <v>2195.3204</v>
+        <v>1367.5733</v>
       </c>
       <c r="I106" s="1">
-        <v>-0.029</v>
+        <v>0.0136</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3557,25 +3557,25 @@
         <v>0.0115</v>
       </c>
       <c r="C107" s="1">
-        <v>25.1675</v>
+        <v>15.6781</v>
       </c>
       <c r="D107" s="1">
-        <v>-0.1776</v>
+        <v>-0.0853</v>
       </c>
       <c r="E107" s="1">
-        <v>-0.0081</v>
+        <v>-0.0039</v>
       </c>
       <c r="F107" s="1">
-        <v>-17.78</v>
+        <v>-5.3219</v>
       </c>
       <c r="G107" s="1">
-        <v>7.3875</v>
+        <v>10.3562</v>
       </c>
       <c r="H107" s="1">
-        <v>2202.7079</v>
+        <v>1377.9295</v>
       </c>
       <c r="I107" s="1">
-        <v>0.0034</v>
+        <v>0.0076</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3586,25 +3586,25 @@
         <v>0.0115</v>
       </c>
       <c r="C108" s="1">
-        <v>25.2522</v>
+        <v>15.7968</v>
       </c>
       <c r="D108" s="1">
-        <v>2.2736</v>
+        <v>-0.09710000000000001</v>
       </c>
       <c r="E108" s="1">
-        <v>0.1037</v>
+        <v>-0.0044</v>
       </c>
       <c r="F108" s="1">
-        <v>228.4302</v>
+        <v>-6.1032</v>
       </c>
       <c r="G108" s="1">
-        <v>253.6824</v>
+        <v>9.6936</v>
       </c>
       <c r="H108" s="1">
-        <v>2456.3903</v>
+        <v>1387.6231</v>
       </c>
       <c r="I108" s="1">
-        <v>0.1152</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3615,25 +3615,25 @@
         <v>0.0115</v>
       </c>
       <c r="C109" s="1">
-        <v>28.1605</v>
+        <v>15.9079</v>
       </c>
       <c r="D109" s="1">
-        <v>-1.269</v>
+        <v>0.6539</v>
       </c>
       <c r="E109" s="1">
-        <v>-0.0579</v>
+        <v>0.0298</v>
       </c>
       <c r="F109" s="1">
-        <v>-142.182</v>
+        <v>41.3875</v>
       </c>
       <c r="G109" s="1">
-        <v>-114.0215</v>
+        <v>57.2954</v>
       </c>
       <c r="H109" s="1">
-        <v>2342.3688</v>
+        <v>1444.9185</v>
       </c>
       <c r="I109" s="1">
-        <v>-0.0464</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3644,25 +3644,25 @@
         <v>0.0115</v>
       </c>
       <c r="C110" s="1">
-        <v>26.8533</v>
+        <v>16.5648</v>
       </c>
       <c r="D110" s="1">
-        <v>-1.1935</v>
+        <v>-0.485</v>
       </c>
       <c r="E110" s="1">
-        <v>-0.0544</v>
+        <v>-0.0221</v>
       </c>
       <c r="F110" s="1">
-        <v>-127.5124</v>
+        <v>-31.9638</v>
       </c>
       <c r="G110" s="1">
-        <v>-100.6591</v>
+        <v>-15.399</v>
       </c>
       <c r="H110" s="1">
-        <v>2241.7097</v>
+        <v>1429.5195</v>
       </c>
       <c r="I110" s="1">
-        <v>-0.043</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3673,25 +3673,25 @@
         <v>0.0115</v>
       </c>
       <c r="C111" s="1">
-        <v>25.6993</v>
+        <v>16.3883</v>
       </c>
       <c r="D111" s="1">
-        <v>1.1875</v>
+        <v>-0.72</v>
       </c>
       <c r="E111" s="1">
-        <v>0.0542</v>
+        <v>-0.0328</v>
       </c>
       <c r="F111" s="1">
-        <v>121.4232</v>
+        <v>-46.9447</v>
       </c>
       <c r="G111" s="1">
-        <v>147.1225</v>
+        <v>-30.5565</v>
       </c>
       <c r="H111" s="1">
-        <v>2388.8323</v>
+        <v>1398.963</v>
       </c>
       <c r="I111" s="1">
-        <v>0.06560000000000001</v>
+        <v>-0.0214</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3702,25 +3702,25 @@
         <v>0.0115</v>
       </c>
       <c r="C112" s="1">
-        <v>27.386</v>
+        <v>16.0379</v>
       </c>
       <c r="D112" s="1">
-        <v>0.4868</v>
+        <v>-0.601</v>
       </c>
       <c r="E112" s="1">
-        <v>0.0222</v>
+        <v>-0.0274</v>
       </c>
       <c r="F112" s="1">
-        <v>53.0465</v>
+        <v>-38.3489</v>
       </c>
       <c r="G112" s="1">
-        <v>80.4324</v>
+        <v>-22.3109</v>
       </c>
       <c r="H112" s="1">
-        <v>2469.2647</v>
+        <v>1376.6521</v>
       </c>
       <c r="I112" s="1">
-        <v>0.0337</v>
+        <v>-0.0159</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3731,25 +3731,25 @@
         <v>0.0115</v>
       </c>
       <c r="C113" s="1">
-        <v>28.3081</v>
+        <v>15.7822</v>
       </c>
       <c r="D113" s="1">
-        <v>-1.3051</v>
+        <v>-0.0039</v>
       </c>
       <c r="E113" s="1">
-        <v>-0.0595</v>
+        <v>-0.0002</v>
       </c>
       <c r="F113" s="1">
-        <v>-146.999</v>
+        <v>-0.2424</v>
       </c>
       <c r="G113" s="1">
-        <v>-118.691</v>
+        <v>15.5397</v>
       </c>
       <c r="H113" s="1">
-        <v>2350.5737</v>
+        <v>1392.1919</v>
       </c>
       <c r="I113" s="1">
-        <v>-0.0481</v>
+        <v>0.0113</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3760,25 +3760,25 @@
         <v>0.0115</v>
       </c>
       <c r="C114" s="1">
-        <v>26.9474</v>
+        <v>15.9603</v>
       </c>
       <c r="D114" s="1">
-        <v>0.4169</v>
+        <v>0.326</v>
       </c>
       <c r="E114" s="1">
-        <v>0.019</v>
+        <v>0.0149</v>
       </c>
       <c r="F114" s="1">
-        <v>44.6958</v>
+        <v>20.7036</v>
       </c>
       <c r="G114" s="1">
-        <v>71.64319999999999</v>
+        <v>36.664</v>
       </c>
       <c r="H114" s="1">
-        <v>2422.2169</v>
+        <v>1428.8558</v>
       </c>
       <c r="I114" s="1">
-        <v>0.0305</v>
+        <v>0.0263</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3789,25 +3789,25 @@
         <v>0.0115</v>
       </c>
       <c r="C115" s="1">
-        <v>27.7687</v>
+        <v>16.3806</v>
       </c>
       <c r="D115" s="1">
-        <v>1.2589</v>
+        <v>0.8213</v>
       </c>
       <c r="E115" s="1">
-        <v>0.0574</v>
+        <v>0.0375</v>
       </c>
       <c r="F115" s="1">
-        <v>139.0931</v>
+        <v>53.5296</v>
       </c>
       <c r="G115" s="1">
-        <v>166.8618</v>
+        <v>69.91030000000001</v>
       </c>
       <c r="H115" s="1">
-        <v>2589.0788</v>
+        <v>1498.7661</v>
       </c>
       <c r="I115" s="1">
-        <v>0.0689</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3818,25 +3818,25 @@
         <v>0.0115</v>
       </c>
       <c r="C116" s="1">
-        <v>29.6816</v>
+        <v>17.1821</v>
       </c>
       <c r="D116" s="1">
-        <v>0.7685999999999999</v>
+        <v>-0.6864</v>
       </c>
       <c r="E116" s="1">
-        <v>0.0351</v>
+        <v>-0.0313</v>
       </c>
       <c r="F116" s="1">
-        <v>90.7711</v>
+        <v>-46.9252</v>
       </c>
       <c r="G116" s="1">
-        <v>120.4528</v>
+        <v>-29.7431</v>
       </c>
       <c r="H116" s="1">
-        <v>2709.5315</v>
+        <v>1469.023</v>
       </c>
       <c r="I116" s="1">
-        <v>0.0465</v>
+        <v>-0.0198</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3847,25 +3847,25 @@
         <v>0.0115</v>
       </c>
       <c r="C117" s="1">
-        <v>31.0625</v>
+        <v>16.8411</v>
       </c>
       <c r="D117" s="1">
-        <v>-0.7239</v>
+        <v>0.3987</v>
       </c>
       <c r="E117" s="1">
-        <v>-0.033</v>
+        <v>0.0182</v>
       </c>
       <c r="F117" s="1">
-        <v>-89.4627</v>
+        <v>26.7188</v>
       </c>
       <c r="G117" s="1">
-        <v>-58.4002</v>
+        <v>43.5599</v>
       </c>
       <c r="H117" s="1">
-        <v>2651.1313</v>
+        <v>1512.5829</v>
       </c>
       <c r="I117" s="1">
-        <v>-0.0216</v>
+        <v>0.0297</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3876,25 +3876,25 @@
         <v>0.0115</v>
       </c>
       <c r="C118" s="1">
-        <v>30.393</v>
+        <v>17.3405</v>
       </c>
       <c r="D118" s="1">
-        <v>1.8696</v>
+        <v>0.2991</v>
       </c>
       <c r="E118" s="1">
-        <v>0.0853</v>
+        <v>0.0136</v>
       </c>
       <c r="F118" s="1">
-        <v>226.0798</v>
+        <v>20.6376</v>
       </c>
       <c r="G118" s="1">
-        <v>256.4728</v>
+        <v>37.9781</v>
       </c>
       <c r="H118" s="1">
-        <v>2907.6041</v>
+        <v>1550.561</v>
       </c>
       <c r="I118" s="1">
-        <v>0.09669999999999999</v>
+        <v>0.0251</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3905,25 +3905,25 @@
         <v>0.0115</v>
       </c>
       <c r="C119" s="1">
-        <v>33.3333</v>
+        <v>17.7759</v>
       </c>
       <c r="D119" s="1">
-        <v>-0.7933</v>
+        <v>-0.7776</v>
       </c>
       <c r="E119" s="1">
-        <v>-0.0362</v>
+        <v>-0.0355</v>
       </c>
       <c r="F119" s="1">
-        <v>-105.2136</v>
+        <v>-54.9988</v>
       </c>
       <c r="G119" s="1">
-        <v>-71.88030000000001</v>
+        <v>-37.2229</v>
       </c>
       <c r="H119" s="1">
-        <v>2835.7238</v>
+        <v>1513.3381</v>
       </c>
       <c r="I119" s="1">
-        <v>-0.0247</v>
+        <v>-0.024</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3934,25 +3934,25 @@
         <v>0.0115</v>
       </c>
       <c r="C120" s="1">
-        <v>32.5092</v>
+        <v>17.3492</v>
       </c>
       <c r="D120" s="1">
-        <v>-0.6394</v>
+        <v>-0.5447</v>
       </c>
       <c r="E120" s="1">
-        <v>-0.0292</v>
+        <v>-0.0248</v>
       </c>
       <c r="F120" s="1">
-        <v>-82.7016</v>
+        <v>-37.6017</v>
       </c>
       <c r="G120" s="1">
-        <v>-50.1924</v>
+        <v>-20.2526</v>
       </c>
       <c r="H120" s="1">
-        <v>2785.5314</v>
+        <v>1493.0856</v>
       </c>
       <c r="I120" s="1">
-        <v>-0.0177</v>
+        <v>-0.0134</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3963,25 +3963,25 @@
         <v>0.0115</v>
       </c>
       <c r="C121" s="1">
-        <v>31.9338</v>
+        <v>17.117</v>
       </c>
       <c r="D121" s="1">
-        <v>0.0232</v>
+        <v>0.7071</v>
       </c>
       <c r="E121" s="1">
-        <v>0.0011</v>
+        <v>0.0323</v>
       </c>
       <c r="F121" s="1">
-        <v>2.9467</v>
+        <v>48.1546</v>
       </c>
       <c r="G121" s="1">
-        <v>34.8805</v>
+        <v>65.27160000000001</v>
       </c>
       <c r="H121" s="1">
-        <v>2820.4119</v>
+        <v>1558.3572</v>
       </c>
       <c r="I121" s="1">
-        <v>0.0125</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3992,25 +3992,25 @@
         <v>0.0115</v>
       </c>
       <c r="C122" s="1">
-        <v>32.3337</v>
+        <v>17.8653</v>
       </c>
       <c r="D122" s="1">
-        <v>-0.8072</v>
+        <v>-0.4138</v>
       </c>
       <c r="E122" s="1">
-        <v>-0.0368</v>
+        <v>-0.0189</v>
       </c>
       <c r="F122" s="1">
-        <v>-103.8442</v>
+        <v>-29.4162</v>
       </c>
       <c r="G122" s="1">
-        <v>-71.51049999999999</v>
+        <v>-11.551</v>
       </c>
       <c r="H122" s="1">
-        <v>2748.9013</v>
+        <v>1546.8062</v>
       </c>
       <c r="I122" s="1">
-        <v>-0.0254</v>
+        <v>-0.0074</v>
       </c>
     </row>
   </sheetData>
@@ -4039,7 +4039,7 @@
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4147,19 +4147,19 @@
         <v>266.6904</v>
       </c>
       <c r="E3" s="1">
-        <v>483.6801</v>
+        <v>439.0741</v>
       </c>
       <c r="F3" s="1">
-        <v>8992.813200000001</v>
+        <v>-2903.1713</v>
       </c>
       <c r="G3" s="1">
-        <v>128992.8132</v>
+        <v>117096.8287</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>128992.8132</v>
+        <v>117096.8287</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -4171,10 +4171,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>128992.8132</v>
+        <v>117096.8287</v>
       </c>
       <c r="N3" s="1">
-        <v>8992.813200000001</v>
+        <v>-2903.1713</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4191,19 +4191,19 @@
         <v>266.6904</v>
       </c>
       <c r="E4" s="1">
-        <v>462.1159</v>
+        <v>422.7631</v>
       </c>
       <c r="F4" s="1">
-        <v>-5750.9459</v>
+        <v>-4349.9815</v>
       </c>
       <c r="G4" s="1">
-        <v>123241.8672</v>
+        <v>112746.8472</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>123241.8672</v>
+        <v>112746.8472</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -4215,10 +4215,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>123241.8672</v>
+        <v>112746.8472</v>
       </c>
       <c r="N4" s="1">
-        <v>3241.8672</v>
+        <v>-7253.1528</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4235,19 +4235,19 @@
         <v>266.6904</v>
       </c>
       <c r="E5" s="1">
-        <v>466.2516</v>
+        <v>385.9677</v>
       </c>
       <c r="F5" s="1">
-        <v>1102.9406</v>
+        <v>-9812.977500000001</v>
       </c>
       <c r="G5" s="1">
-        <v>124344.8078</v>
+        <v>102933.8697</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>124344.8078</v>
+        <v>102933.8697</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -4259,10 +4259,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>124344.8078</v>
+        <v>102933.8697</v>
       </c>
       <c r="N5" s="1">
-        <v>4344.8078</v>
+        <v>-17066.1303</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4279,19 +4279,19 @@
         <v>266.6904</v>
       </c>
       <c r="E6" s="1">
-        <v>442.1859</v>
+        <v>395.4914</v>
       </c>
       <c r="F6" s="1">
-        <v>-6418.087</v>
+        <v>2539.8838</v>
       </c>
       <c r="G6" s="1">
-        <v>117926.7208</v>
+        <v>105473.7535</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>117926.7208</v>
+        <v>105473.7535</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -4303,10 +4303,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>117926.7208</v>
+        <v>105473.7535</v>
       </c>
       <c r="N6" s="1">
-        <v>-2073.2792</v>
+        <v>-14526.2465</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4323,19 +4323,19 @@
         <v>266.6904</v>
       </c>
       <c r="E7" s="1">
-        <v>455.1342</v>
+        <v>390.8078</v>
       </c>
       <c r="F7" s="1">
-        <v>3453.183</v>
+        <v>-1249.0641</v>
       </c>
       <c r="G7" s="1">
-        <v>121379.9038</v>
+        <v>104224.6894</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>121379.9038</v>
+        <v>104224.6894</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -4347,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>121379.9038</v>
+        <v>104224.6894</v>
       </c>
       <c r="N7" s="1">
-        <v>1379.9038</v>
+        <v>-15775.3106</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -4367,19 +4367,19 @@
         <v>266.6904</v>
       </c>
       <c r="E8" s="1">
-        <v>441.7548</v>
+        <v>381.3398</v>
       </c>
       <c r="F8" s="1">
-        <v>-3568.1559</v>
+        <v>-2525.0239</v>
       </c>
       <c r="G8" s="1">
-        <v>117811.7479</v>
+        <v>101699.6655</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>117811.7479</v>
+        <v>101699.6655</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -4391,10 +4391,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>117811.7479</v>
+        <v>101699.6655</v>
       </c>
       <c r="N8" s="1">
-        <v>-2188.2521</v>
+        <v>-18300.3345</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4411,19 +4411,19 @@
         <v>266.6904</v>
       </c>
       <c r="E9" s="1">
-        <v>477.9476</v>
+        <v>380.7829</v>
       </c>
       <c r="F9" s="1">
-        <v>9652.2688</v>
+        <v>-148.545</v>
       </c>
       <c r="G9" s="1">
-        <v>127464.0166</v>
+        <v>101551.1205</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>127464.0166</v>
+        <v>101551.1205</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>127464.0166</v>
+        <v>101551.1205</v>
       </c>
       <c r="N9" s="1">
-        <v>7464.0166</v>
+        <v>-18448.8795</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -4455,19 +4455,19 @@
         <v>266.6904</v>
       </c>
       <c r="E10" s="1">
-        <v>471.2142</v>
+        <v>388.1073</v>
       </c>
       <c r="F10" s="1">
-        <v>-1795.7312</v>
+        <v>1953.3679</v>
       </c>
       <c r="G10" s="1">
-        <v>125668.2854</v>
+        <v>103504.4884</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>125668.2854</v>
+        <v>103504.4884</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -4479,10 +4479,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>125668.2854</v>
+        <v>103504.4884</v>
       </c>
       <c r="N10" s="1">
-        <v>5668.2854</v>
+        <v>-16495.5116</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -4499,19 +4499,19 @@
         <v>266.6904</v>
       </c>
       <c r="E11" s="1">
-        <v>501.785</v>
+        <v>399.404</v>
       </c>
       <c r="F11" s="1">
-        <v>8152.9371</v>
+        <v>3012.7049</v>
       </c>
       <c r="G11" s="1">
-        <v>133821.2225</v>
+        <v>106517.1933</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>133821.2225</v>
+        <v>106517.1933</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -4523,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>133821.2225</v>
+        <v>106517.1933</v>
       </c>
       <c r="N11" s="1">
-        <v>13821.2225</v>
+        <v>-13482.8067</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4543,19 +4543,19 @@
         <v>266.6904</v>
       </c>
       <c r="E12" s="1">
-        <v>521.1548</v>
+        <v>412.3506</v>
       </c>
       <c r="F12" s="1">
-        <v>5165.7379</v>
+        <v>3452.7371</v>
       </c>
       <c r="G12" s="1">
-        <v>138986.9605</v>
+        <v>109969.9304</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>138986.9605</v>
+        <v>109969.9304</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -4567,10 +4567,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>138986.9605</v>
+        <v>109969.9304</v>
       </c>
       <c r="N12" s="1">
-        <v>18986.9605</v>
+        <v>-10030.0696</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -4587,19 +4587,19 @@
         <v>266.6904</v>
       </c>
       <c r="E13" s="1">
-        <v>525.5635</v>
+        <v>404.8458</v>
       </c>
       <c r="F13" s="1">
-        <v>1175.7598</v>
+        <v>-2001.4563</v>
       </c>
       <c r="G13" s="1">
-        <v>140162.7202</v>
+        <v>107968.4741</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>140162.7202</v>
+        <v>107968.4741</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -4611,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>140162.7202</v>
+        <v>107968.4741</v>
       </c>
       <c r="N13" s="1">
-        <v>20162.7202</v>
+        <v>-12031.5259</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -4631,16 +4631,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>545.3557</v>
+        <v>402.1984</v>
       </c>
       <c r="F14" s="1">
-        <v>5278.4062</v>
+        <v>-706.0399</v>
       </c>
       <c r="G14" s="1">
-        <v>145441.1265</v>
+        <v>107262.4342</v>
       </c>
       <c r="H14" s="1">
-        <v>-145441.1265</v>
+        <v>-107262.4342</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -4649,19 +4649,19 @@
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>145441.1265</v>
+        <v>107262.4342</v>
       </c>
       <c r="L14" s="1">
-        <v>145441.1265</v>
+        <v>107262.4342</v>
       </c>
       <c r="M14" s="1">
-        <v>145441.1265</v>
+        <v>107262.4342</v>
       </c>
       <c r="N14" s="1">
-        <v>25441.1265</v>
+        <v>-12737.5658</v>
       </c>
       <c r="O14" s="3">
-        <v>0.212</v>
+        <v>-0.1061</v>
       </c>
     </row>
   </sheetData>
@@ -4690,7 +4690,7 @@
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4792,25 +4792,25 @@
         <v>22.2242</v>
       </c>
       <c r="C3" s="1">
-        <v>20.6748</v>
+        <v>22.7752</v>
       </c>
       <c r="D3" s="1">
-        <v>42.899</v>
+        <v>44.9994</v>
       </c>
       <c r="E3" s="1">
-        <v>483.6801</v>
+        <v>439.0741</v>
       </c>
       <c r="F3" s="1">
-        <v>749.4011</v>
+        <v>-241.9309</v>
       </c>
       <c r="G3" s="1">
-        <v>10749.4011</v>
+        <v>9758.069100000001</v>
       </c>
       <c r="H3" s="1">
         <v>10000</v>
       </c>
       <c r="I3" s="1">
-        <v>20749.4011</v>
+        <v>19758.0691</v>
       </c>
       <c r="J3" s="1">
         <v>110000</v>
@@ -4822,10 +4822,10 @@
         <v>100000</v>
       </c>
       <c r="M3" s="1">
-        <v>120749.4011</v>
+        <v>119758.0691</v>
       </c>
       <c r="N3" s="1">
-        <v>749.4011</v>
+        <v>-241.9309</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4833,28 +4833,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>42.899</v>
+        <v>44.9994</v>
       </c>
       <c r="C4" s="1">
-        <v>21.6396</v>
+        <v>23.6539</v>
       </c>
       <c r="D4" s="1">
-        <v>64.5386</v>
+        <v>68.6533</v>
       </c>
       <c r="E4" s="1">
-        <v>462.1159</v>
+        <v>422.7631</v>
       </c>
       <c r="F4" s="1">
-        <v>-925.0801</v>
+        <v>-733.9843</v>
       </c>
       <c r="G4" s="1">
-        <v>19824.321</v>
+        <v>19024.0848</v>
       </c>
       <c r="H4" s="1">
         <v>10000</v>
       </c>
       <c r="I4" s="1">
-        <v>29824.321</v>
+        <v>29024.0848</v>
       </c>
       <c r="J4" s="1">
         <v>100000</v>
@@ -4866,10 +4866,10 @@
         <v>90000</v>
       </c>
       <c r="M4" s="1">
-        <v>119824.321</v>
+        <v>119024.0848</v>
       </c>
       <c r="N4" s="1">
-        <v>-175.679</v>
+        <v>-975.9152</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4877,28 +4877,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>64.5386</v>
+        <v>68.6533</v>
       </c>
       <c r="C5" s="1">
-        <v>21.4476</v>
+        <v>25.9089</v>
       </c>
       <c r="D5" s="1">
-        <v>85.9863</v>
+        <v>94.5622</v>
       </c>
       <c r="E5" s="1">
-        <v>466.2516</v>
+        <v>385.9677</v>
       </c>
       <c r="F5" s="1">
-        <v>266.9097</v>
+        <v>-2526.1255</v>
       </c>
       <c r="G5" s="1">
-        <v>30091.2307</v>
+        <v>26497.9592</v>
       </c>
       <c r="H5" s="1">
         <v>10000</v>
       </c>
       <c r="I5" s="1">
-        <v>40091.2307</v>
+        <v>36497.9592</v>
       </c>
       <c r="J5" s="1">
         <v>90000</v>
@@ -4910,10 +4910,10 @@
         <v>80000</v>
       </c>
       <c r="M5" s="1">
-        <v>120091.2307</v>
+        <v>116497.9592</v>
       </c>
       <c r="N5" s="1">
-        <v>91.2307</v>
+        <v>-3502.0408</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4921,28 +4921,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>85.9863</v>
+        <v>94.5622</v>
       </c>
       <c r="C6" s="1">
-        <v>22.6149</v>
+        <v>25.285</v>
       </c>
       <c r="D6" s="1">
-        <v>108.6012</v>
+        <v>119.8472</v>
       </c>
       <c r="E6" s="1">
-        <v>442.1859</v>
+        <v>395.4914</v>
       </c>
       <c r="F6" s="1">
-        <v>-2069.3185</v>
+        <v>900.5838</v>
       </c>
       <c r="G6" s="1">
-        <v>38021.9123</v>
+        <v>37398.543</v>
       </c>
       <c r="H6" s="1">
         <v>10000</v>
       </c>
       <c r="I6" s="1">
-        <v>48021.9123</v>
+        <v>47398.543</v>
       </c>
       <c r="J6" s="1">
         <v>80000</v>
@@ -4954,10 +4954,10 @@
         <v>70000</v>
       </c>
       <c r="M6" s="1">
-        <v>118021.9123</v>
+        <v>117398.543</v>
       </c>
       <c r="N6" s="1">
-        <v>-1978.0877</v>
+        <v>-2601.457</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4965,28 +4965,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>108.6012</v>
+        <v>119.8472</v>
       </c>
       <c r="C7" s="1">
-        <v>21.9715</v>
+        <v>25.588</v>
       </c>
       <c r="D7" s="1">
-        <v>130.5727</v>
+        <v>145.4352</v>
       </c>
       <c r="E7" s="1">
-        <v>455.1342</v>
+        <v>390.8078</v>
       </c>
       <c r="F7" s="1">
-        <v>1406.1991</v>
+        <v>-561.3133</v>
       </c>
       <c r="G7" s="1">
-        <v>49428.1114</v>
+        <v>46837.2297</v>
       </c>
       <c r="H7" s="1">
         <v>10000</v>
       </c>
       <c r="I7" s="1">
-        <v>59428.1114</v>
+        <v>56837.2297</v>
       </c>
       <c r="J7" s="1">
         <v>70000</v>
@@ -4998,10 +4998,10 @@
         <v>60000</v>
       </c>
       <c r="M7" s="1">
-        <v>119428.1114</v>
+        <v>116837.2297</v>
       </c>
       <c r="N7" s="1">
-        <v>-571.8886</v>
+        <v>-3162.7703</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -5009,28 +5009,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>130.5727</v>
+        <v>145.4352</v>
       </c>
       <c r="C8" s="1">
-        <v>22.637</v>
+        <v>26.2233</v>
       </c>
       <c r="D8" s="1">
-        <v>153.2097</v>
+        <v>171.6586</v>
       </c>
       <c r="E8" s="1">
-        <v>441.7548</v>
+        <v>381.3398</v>
       </c>
       <c r="F8" s="1">
-        <v>-1746.9841</v>
+        <v>-1376.9805</v>
       </c>
       <c r="G8" s="1">
-        <v>57681.1272</v>
+        <v>55460.2492</v>
       </c>
       <c r="H8" s="1">
         <v>10000</v>
       </c>
       <c r="I8" s="1">
-        <v>67681.1272</v>
+        <v>65460.2492</v>
       </c>
       <c r="J8" s="1">
         <v>60000</v>
@@ -5042,10 +5042,10 @@
         <v>50000</v>
       </c>
       <c r="M8" s="1">
-        <v>117681.1272</v>
+        <v>115460.2492</v>
       </c>
       <c r="N8" s="1">
-        <v>-2318.8728</v>
+        <v>-4539.7508</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -5053,28 +5053,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>153.2097</v>
+        <v>171.6586</v>
       </c>
       <c r="C9" s="1">
-        <v>20.9228</v>
+        <v>26.2617</v>
       </c>
       <c r="D9" s="1">
-        <v>174.1325</v>
+        <v>197.9202</v>
       </c>
       <c r="E9" s="1">
-        <v>477.9476</v>
+        <v>380.7829</v>
       </c>
       <c r="F9" s="1">
-        <v>5545.0873</v>
+        <v>-95.61279999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>73226.21460000001</v>
+        <v>65364.6364</v>
       </c>
       <c r="H9" s="1">
         <v>10000</v>
       </c>
       <c r="I9" s="1">
-        <v>83226.21460000001</v>
+        <v>75364.6364</v>
       </c>
       <c r="J9" s="1">
         <v>50000</v>
@@ -5086,10 +5086,10 @@
         <v>40000</v>
       </c>
       <c r="M9" s="1">
-        <v>123226.2146</v>
+        <v>115364.6364</v>
       </c>
       <c r="N9" s="1">
-        <v>3226.2146</v>
+        <v>-4635.3636</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5097,28 +5097,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>174.1325</v>
+        <v>197.9202</v>
       </c>
       <c r="C10" s="1">
-        <v>21.2218</v>
+        <v>25.7661</v>
       </c>
       <c r="D10" s="1">
-        <v>195.3543</v>
+        <v>223.6863</v>
       </c>
       <c r="E10" s="1">
-        <v>471.2142</v>
+        <v>388.1073</v>
       </c>
       <c r="F10" s="1">
-        <v>-1172.5027</v>
+        <v>1449.6626</v>
       </c>
       <c r="G10" s="1">
-        <v>82053.7118</v>
+        <v>76814.299</v>
       </c>
       <c r="H10" s="1">
         <v>10000</v>
       </c>
       <c r="I10" s="1">
-        <v>92053.7118</v>
+        <v>86814.299</v>
       </c>
       <c r="J10" s="1">
         <v>40000</v>
@@ -5130,10 +5130,10 @@
         <v>30000</v>
       </c>
       <c r="M10" s="1">
-        <v>122053.7118</v>
+        <v>116814.299</v>
       </c>
       <c r="N10" s="1">
-        <v>2053.7118</v>
+        <v>-3185.701</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -5141,28 +5141,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>195.3543</v>
+        <v>223.6863</v>
       </c>
       <c r="C11" s="1">
-        <v>19.9289</v>
+        <v>25.0373</v>
       </c>
       <c r="D11" s="1">
-        <v>215.2831</v>
+        <v>248.7236</v>
       </c>
       <c r="E11" s="1">
-        <v>501.785</v>
+        <v>399.404</v>
       </c>
       <c r="F11" s="1">
-        <v>5972.1363</v>
+        <v>2526.9036</v>
       </c>
       <c r="G11" s="1">
-        <v>98025.8481</v>
+        <v>89341.2026</v>
       </c>
       <c r="H11" s="1">
         <v>10000</v>
       </c>
       <c r="I11" s="1">
-        <v>108025.8481</v>
+        <v>99341.2026</v>
       </c>
       <c r="J11" s="1">
         <v>30000</v>
@@ -5174,10 +5174,10 @@
         <v>20000</v>
       </c>
       <c r="M11" s="1">
-        <v>128025.8481</v>
+        <v>119341.2026</v>
       </c>
       <c r="N11" s="1">
-        <v>8025.8481</v>
+        <v>-658.7974</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -5185,28 +5185,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>215.2831</v>
+        <v>248.7236</v>
       </c>
       <c r="C12" s="1">
-        <v>19.1882</v>
+        <v>24.2512</v>
       </c>
       <c r="D12" s="1">
-        <v>234.4713</v>
+        <v>272.9748</v>
       </c>
       <c r="E12" s="1">
-        <v>521.1548</v>
+        <v>412.3506</v>
       </c>
       <c r="F12" s="1">
-        <v>4169.9904</v>
+        <v>3220.1286</v>
       </c>
       <c r="G12" s="1">
-        <v>112195.8385</v>
+        <v>102561.3312</v>
       </c>
       <c r="H12" s="1">
         <v>10000</v>
       </c>
       <c r="I12" s="1">
-        <v>122195.8385</v>
+        <v>112561.3312</v>
       </c>
       <c r="J12" s="1">
         <v>20000</v>
@@ -5218,10 +5218,10 @@
         <v>10000</v>
       </c>
       <c r="M12" s="1">
-        <v>132195.8385</v>
+        <v>122561.3312</v>
       </c>
       <c r="N12" s="1">
-        <v>12195.8385</v>
+        <v>2561.3312</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -5229,28 +5229,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>234.4713</v>
+        <v>272.9748</v>
       </c>
       <c r="C13" s="1">
-        <v>19.0272</v>
+        <v>24.7008</v>
       </c>
       <c r="D13" s="1">
-        <v>253.4985</v>
+        <v>297.6756</v>
       </c>
       <c r="E13" s="1">
-        <v>525.5635</v>
+        <v>404.8458</v>
       </c>
       <c r="F13" s="1">
-        <v>1033.7153</v>
+        <v>-2048.6199</v>
       </c>
       <c r="G13" s="1">
-        <v>123229.5538</v>
+        <v>110512.7113</v>
       </c>
       <c r="H13" s="1">
         <v>10000</v>
       </c>
       <c r="I13" s="1">
-        <v>133229.5538</v>
+        <v>120512.7113</v>
       </c>
       <c r="J13" s="1">
         <v>10000</v>
@@ -5262,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>133229.5538</v>
+        <v>120512.7113</v>
       </c>
       <c r="N13" s="1">
-        <v>13229.5538</v>
+        <v>512.7113000000001</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -5273,25 +5273,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>253.4985</v>
+        <v>297.6756</v>
       </c>
       <c r="C14" s="1">
-        <v>-253.4985</v>
+        <v>-297.6756</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>545.3557</v>
+        <v>402.1984</v>
       </c>
       <c r="F14" s="1">
-        <v>5017.3092</v>
+        <v>-788.0707</v>
       </c>
       <c r="G14" s="1">
-        <v>138246.8631</v>
+        <v>119724.6406</v>
       </c>
       <c r="H14" s="1">
-        <v>-138246.8631</v>
+        <v>-119724.6406</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -5300,19 +5300,19 @@
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>138246.8631</v>
+        <v>119724.6406</v>
       </c>
       <c r="L14" s="1">
-        <v>138246.8631</v>
+        <v>119724.6406</v>
       </c>
       <c r="M14" s="1">
-        <v>138246.8631</v>
+        <v>119724.6406</v>
       </c>
       <c r="N14" s="1">
-        <v>18246.8631</v>
+        <v>-275.3594</v>
       </c>
       <c r="O14" s="3">
-        <v>0.2921</v>
+        <v>-0.0042</v>
       </c>
     </row>
   </sheetData>
@@ -5336,12 +5336,12 @@
     <col min="7" max="7" width="23.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -5443,22 +5443,22 @@
         <v>22.2242</v>
       </c>
       <c r="C3" s="1">
-        <v>19.1255</v>
+        <v>23.3262</v>
       </c>
       <c r="D3" s="1">
-        <v>41.3496</v>
+        <v>45.5504</v>
       </c>
       <c r="E3" s="1">
-        <v>483.6801</v>
+        <v>439.0741</v>
       </c>
       <c r="F3" s="1">
-        <v>749.4011</v>
+        <v>-241.9309</v>
       </c>
       <c r="G3" s="1">
-        <v>10749.4011</v>
+        <v>9758.069100000001</v>
       </c>
       <c r="H3" s="1">
-        <v>9250.598900000001</v>
+        <v>10241.9309</v>
       </c>
       <c r="I3" s="1">
         <v>20000</v>
@@ -5467,16 +5467,16 @@
         <v>110000</v>
       </c>
       <c r="K3" s="1">
-        <v>-9250.598900000001</v>
+        <v>-10241.9309</v>
       </c>
       <c r="L3" s="1">
-        <v>100749.4011</v>
+        <v>99758.06909999999</v>
       </c>
       <c r="M3" s="1">
-        <v>120749.4011</v>
+        <v>119758.0691</v>
       </c>
       <c r="N3" s="1">
-        <v>749.4011</v>
+        <v>-241.9309</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5484,43 +5484,43 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>41.3496</v>
+        <v>45.5504</v>
       </c>
       <c r="C4" s="1">
-        <v>23.5691</v>
+        <v>25.4113</v>
       </c>
       <c r="D4" s="1">
-        <v>64.9188</v>
+        <v>70.96169999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>462.1159</v>
+        <v>422.7631</v>
       </c>
       <c r="F4" s="1">
-        <v>-891.6692</v>
+        <v>-742.9717000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>19108.3308</v>
+        <v>19257.0283</v>
       </c>
       <c r="H4" s="1">
-        <v>10891.6692</v>
+        <v>10742.9717</v>
       </c>
       <c r="I4" s="1">
         <v>30000</v>
       </c>
       <c r="J4" s="1">
-        <v>100749.4011</v>
+        <v>99758.06909999999</v>
       </c>
       <c r="K4" s="1">
-        <v>-10891.6692</v>
+        <v>-10742.9717</v>
       </c>
       <c r="L4" s="1">
-        <v>89857.7319</v>
+        <v>89015.0974</v>
       </c>
       <c r="M4" s="1">
-        <v>119857.7319</v>
+        <v>119015.0974</v>
       </c>
       <c r="N4" s="1">
-        <v>-142.2681</v>
+        <v>-984.9026</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5528,43 +5528,43 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>64.9188</v>
+        <v>70.96169999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>20.8718</v>
+        <v>32.6739</v>
       </c>
       <c r="D5" s="1">
-        <v>85.7906</v>
+        <v>103.6356</v>
       </c>
       <c r="E5" s="1">
-        <v>466.2516</v>
+        <v>385.9677</v>
       </c>
       <c r="F5" s="1">
-        <v>268.482</v>
+        <v>-2611.0648</v>
       </c>
       <c r="G5" s="1">
-        <v>30268.482</v>
+        <v>27388.9352</v>
       </c>
       <c r="H5" s="1">
-        <v>9731.518</v>
+        <v>12611.0648</v>
       </c>
       <c r="I5" s="1">
         <v>40000</v>
       </c>
       <c r="J5" s="1">
-        <v>89857.7319</v>
+        <v>89015.0974</v>
       </c>
       <c r="K5" s="1">
-        <v>-9731.518</v>
+        <v>-12611.0648</v>
       </c>
       <c r="L5" s="1">
-        <v>80126.2138</v>
+        <v>76404.03260000001</v>
       </c>
       <c r="M5" s="1">
-        <v>120126.2138</v>
+        <v>116404.0326</v>
       </c>
       <c r="N5" s="1">
-        <v>126.2138</v>
+        <v>-3595.9674</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -5572,43 +5572,43 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>85.7906</v>
+        <v>103.6356</v>
       </c>
       <c r="C6" s="1">
-        <v>27.284</v>
+        <v>22.7894</v>
       </c>
       <c r="D6" s="1">
-        <v>113.0746</v>
+        <v>126.425</v>
       </c>
       <c r="E6" s="1">
-        <v>442.1859</v>
+        <v>395.4914</v>
       </c>
       <c r="F6" s="1">
-        <v>-2064.6096</v>
+        <v>986.9963</v>
       </c>
       <c r="G6" s="1">
-        <v>37935.3904</v>
+        <v>40986.9963</v>
       </c>
       <c r="H6" s="1">
-        <v>12064.6096</v>
+        <v>9013.003699999999</v>
       </c>
       <c r="I6" s="1">
         <v>50000</v>
       </c>
       <c r="J6" s="1">
-        <v>80126.2138</v>
+        <v>76404.03260000001</v>
       </c>
       <c r="K6" s="1">
-        <v>-12064.6096</v>
+        <v>-9013.003699999999</v>
       </c>
       <c r="L6" s="1">
-        <v>68061.60430000001</v>
+        <v>67391.0289</v>
       </c>
       <c r="M6" s="1">
-        <v>118061.6043</v>
+        <v>117391.0289</v>
       </c>
       <c r="N6" s="1">
-        <v>-1938.3957</v>
+        <v>-2608.9711</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -5616,43 +5616,43 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>113.0746</v>
+        <v>126.425</v>
       </c>
       <c r="C7" s="1">
-        <v>18.7546</v>
+        <v>27.1031</v>
       </c>
       <c r="D7" s="1">
-        <v>131.8293</v>
+        <v>153.5281</v>
       </c>
       <c r="E7" s="1">
-        <v>455.1342</v>
+        <v>390.8078</v>
       </c>
       <c r="F7" s="1">
-        <v>1464.1224</v>
+        <v>-592.1208</v>
       </c>
       <c r="G7" s="1">
-        <v>51464.1224</v>
+        <v>49407.8792</v>
       </c>
       <c r="H7" s="1">
-        <v>8535.8776</v>
+        <v>10592.1208</v>
       </c>
       <c r="I7" s="1">
         <v>60000</v>
       </c>
       <c r="J7" s="1">
-        <v>68061.60430000001</v>
+        <v>67391.0289</v>
       </c>
       <c r="K7" s="1">
-        <v>-8535.8776</v>
+        <v>-10592.1208</v>
       </c>
       <c r="L7" s="1">
-        <v>59525.7266</v>
+        <v>56798.908</v>
       </c>
       <c r="M7" s="1">
-        <v>119525.7266</v>
+        <v>116798.908</v>
       </c>
       <c r="N7" s="1">
-        <v>-474.2734</v>
+        <v>-3201.092</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -5660,43 +5660,43 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>131.8293</v>
+        <v>153.5281</v>
       </c>
       <c r="C8" s="1">
-        <v>26.6297</v>
+        <v>30.0352</v>
       </c>
       <c r="D8" s="1">
-        <v>158.459</v>
+        <v>183.5633</v>
       </c>
       <c r="E8" s="1">
-        <v>441.7548</v>
+        <v>381.3398</v>
       </c>
       <c r="F8" s="1">
-        <v>-1763.7957</v>
+        <v>-1453.6041</v>
       </c>
       <c r="G8" s="1">
-        <v>58236.2043</v>
+        <v>58546.3959</v>
       </c>
       <c r="H8" s="1">
-        <v>11763.7957</v>
+        <v>11453.6041</v>
       </c>
       <c r="I8" s="1">
         <v>70000</v>
       </c>
       <c r="J8" s="1">
-        <v>59525.7266</v>
+        <v>56798.908</v>
       </c>
       <c r="K8" s="1">
-        <v>-11763.7957</v>
+        <v>-11453.6041</v>
       </c>
       <c r="L8" s="1">
-        <v>47761.9309</v>
+        <v>45345.304</v>
       </c>
       <c r="M8" s="1">
-        <v>117761.9309</v>
+        <v>115345.304</v>
       </c>
       <c r="N8" s="1">
-        <v>-2238.0691</v>
+        <v>-4654.696</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -5704,43 +5704,43 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>158.459</v>
+        <v>183.5633</v>
       </c>
       <c r="C9" s="1">
-        <v>8.923400000000001</v>
+        <v>26.5302</v>
       </c>
       <c r="D9" s="1">
-        <v>167.3824</v>
+        <v>210.0935</v>
       </c>
       <c r="E9" s="1">
-        <v>477.9476</v>
+        <v>380.7829</v>
       </c>
       <c r="F9" s="1">
-        <v>5735.0716</v>
+        <v>-102.2437</v>
       </c>
       <c r="G9" s="1">
-        <v>75735.0716</v>
+        <v>69897.75629999999</v>
       </c>
       <c r="H9" s="1">
-        <v>4264.9284</v>
+        <v>10102.2437</v>
       </c>
       <c r="I9" s="1">
         <v>80000</v>
       </c>
       <c r="J9" s="1">
-        <v>47761.9309</v>
+        <v>45345.304</v>
       </c>
       <c r="K9" s="1">
-        <v>-4264.9284</v>
+        <v>-10102.2437</v>
       </c>
       <c r="L9" s="1">
-        <v>43497.0025</v>
+        <v>35243.0603</v>
       </c>
       <c r="M9" s="1">
-        <v>123497.0025</v>
+        <v>115243.0603</v>
       </c>
       <c r="N9" s="1">
-        <v>3497.0025</v>
+        <v>-4756.9397</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5748,43 +5748,43 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>167.3824</v>
+        <v>210.0935</v>
       </c>
       <c r="C10" s="1">
-        <v>23.6136</v>
+        <v>21.8011</v>
       </c>
       <c r="D10" s="1">
-        <v>190.9959</v>
+        <v>231.8946</v>
       </c>
       <c r="E10" s="1">
-        <v>471.2142</v>
+        <v>388.1073</v>
       </c>
       <c r="F10" s="1">
-        <v>-1127.0514</v>
+        <v>1538.8253</v>
       </c>
       <c r="G10" s="1">
-        <v>78872.9486</v>
+        <v>81538.8253</v>
       </c>
       <c r="H10" s="1">
-        <v>11127.0514</v>
+        <v>8461.1747</v>
       </c>
       <c r="I10" s="1">
         <v>90000</v>
       </c>
       <c r="J10" s="1">
-        <v>43497.0025</v>
+        <v>35243.0603</v>
       </c>
       <c r="K10" s="1">
-        <v>-11127.0514</v>
+        <v>-8461.1747</v>
       </c>
       <c r="L10" s="1">
-        <v>32369.9512</v>
+        <v>26781.8856</v>
       </c>
       <c r="M10" s="1">
-        <v>122369.9512</v>
+        <v>116781.8856</v>
       </c>
       <c r="N10" s="1">
-        <v>2369.9512</v>
+        <v>-3218.1144</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -5792,43 +5792,43 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>190.9959</v>
+        <v>231.8946</v>
       </c>
       <c r="C11" s="1">
-        <v>8.2926</v>
+        <v>18.4785</v>
       </c>
       <c r="D11" s="1">
-        <v>199.2885</v>
+        <v>250.3731</v>
       </c>
       <c r="E11" s="1">
-        <v>501.785</v>
+        <v>399.404</v>
       </c>
       <c r="F11" s="1">
-        <v>5838.8983</v>
+        <v>2619.6298</v>
       </c>
       <c r="G11" s="1">
-        <v>95838.8983</v>
+        <v>92619.6298</v>
       </c>
       <c r="H11" s="1">
-        <v>4161.1017</v>
+        <v>7380.3702</v>
       </c>
       <c r="I11" s="1">
         <v>100000</v>
       </c>
       <c r="J11" s="1">
-        <v>32369.9512</v>
+        <v>26781.8856</v>
       </c>
       <c r="K11" s="1">
-        <v>-4161.1017</v>
+        <v>-7380.3702</v>
       </c>
       <c r="L11" s="1">
-        <v>28208.8495</v>
+        <v>19401.5154</v>
       </c>
       <c r="M11" s="1">
-        <v>128208.8495</v>
+        <v>119401.5154</v>
       </c>
       <c r="N11" s="1">
-        <v>8208.8495</v>
+        <v>-598.4846</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -5836,43 +5836,43 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>199.2885</v>
+        <v>250.3731</v>
       </c>
       <c r="C12" s="1">
-        <v>11.7812</v>
+        <v>16.3902</v>
       </c>
       <c r="D12" s="1">
-        <v>211.0697</v>
+        <v>266.7633</v>
       </c>
       <c r="E12" s="1">
-        <v>521.1548</v>
+        <v>412.3506</v>
       </c>
       <c r="F12" s="1">
-        <v>3860.1784</v>
+        <v>3241.4834</v>
       </c>
       <c r="G12" s="1">
-        <v>103860.1784</v>
+        <v>103241.4834</v>
       </c>
       <c r="H12" s="1">
-        <v>6139.8216</v>
+        <v>6758.5166</v>
       </c>
       <c r="I12" s="1">
         <v>110000</v>
       </c>
       <c r="J12" s="1">
-        <v>28208.8495</v>
+        <v>19401.5154</v>
       </c>
       <c r="K12" s="1">
-        <v>-6139.8216</v>
+        <v>-6758.5166</v>
       </c>
       <c r="L12" s="1">
-        <v>22069.0279</v>
+        <v>12642.9987</v>
       </c>
       <c r="M12" s="1">
-        <v>132069.0279</v>
+        <v>122642.9987</v>
       </c>
       <c r="N12" s="1">
-        <v>12069.0279</v>
+        <v>2642.9987</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -5880,43 +5880,43 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>211.0697</v>
+        <v>266.7633</v>
       </c>
       <c r="C13" s="1">
-        <v>17.2566</v>
+        <v>29.6459</v>
       </c>
       <c r="D13" s="1">
-        <v>228.3264</v>
+        <v>296.4092</v>
       </c>
       <c r="E13" s="1">
-        <v>525.5635</v>
+        <v>404.8458</v>
       </c>
       <c r="F13" s="1">
-        <v>930.5447</v>
+        <v>-2002.0036</v>
       </c>
       <c r="G13" s="1">
-        <v>110930.5447</v>
+        <v>107997.9964</v>
       </c>
       <c r="H13" s="1">
-        <v>9069.4553</v>
+        <v>12002.0036</v>
       </c>
       <c r="I13" s="1">
         <v>120000</v>
       </c>
       <c r="J13" s="1">
-        <v>22069.0279</v>
+        <v>12642.9987</v>
       </c>
       <c r="K13" s="1">
-        <v>-9069.4553</v>
+        <v>-12002.0036</v>
       </c>
       <c r="L13" s="1">
-        <v>12999.5726</v>
+        <v>640.9951</v>
       </c>
       <c r="M13" s="1">
-        <v>132999.5726</v>
+        <v>120640.9951</v>
       </c>
       <c r="N13" s="1">
-        <v>12999.5726</v>
+        <v>640.9951</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -5924,46 +5924,46 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>228.3264</v>
+        <v>296.4092</v>
       </c>
       <c r="C14" s="1">
-        <v>-228.3264</v>
+        <v>-296.4092</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>545.3557</v>
+        <v>402.1984</v>
       </c>
       <c r="F14" s="1">
-        <v>4519.0957</v>
+        <v>-784.7179</v>
       </c>
       <c r="G14" s="1">
-        <v>124519.0957</v>
+        <v>119215.2821</v>
       </c>
       <c r="H14" s="1">
-        <v>-124519.0957</v>
+        <v>-119215.2821</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>12999.5726</v>
+        <v>640.9951</v>
       </c>
       <c r="K14" s="1">
-        <v>124519.0957</v>
+        <v>119215.2821</v>
       </c>
       <c r="L14" s="1">
-        <v>137518.6683</v>
+        <v>119856.2773</v>
       </c>
       <c r="M14" s="1">
-        <v>137518.6683</v>
+        <v>119856.2773</v>
       </c>
       <c r="N14" s="1">
-        <v>17518.6683</v>
+        <v>-143.7227</v>
       </c>
       <c r="O14" s="3">
-        <v>0.2929</v>
+        <v>-0.0022</v>
       </c>
     </row>
   </sheetData>
@@ -5984,7 +5984,7 @@
     <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
   </cols>
@@ -6023,13 +6023,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>0.212</v>
+        <v>-0.1061</v>
       </c>
       <c r="H2" s="3">
-        <v>0.2921</v>
+        <v>-0.0042</v>
       </c>
       <c r="I2" s="3">
-        <v>0.2929</v>
+        <v>-0.0022</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6037,13 +6037,13 @@
         <v>2</v>
       </c>
       <c r="G3" s="3">
-        <v>0.1592</v>
+        <v>0.0117</v>
       </c>
       <c r="H3" s="3">
-        <v>0.0578</v>
+        <v>-0.0101</v>
       </c>
       <c r="I3" s="3">
-        <v>0.0706</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6051,13 +6051,13 @@
         <v>3</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1457</v>
+        <v>-0.1233</v>
       </c>
       <c r="H4" s="3">
-        <v>0.3257</v>
+        <v>-0.1226</v>
       </c>
       <c r="I4" s="3">
-        <v>0.3221</v>
+        <v>-0.1141</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6065,13 +6065,13 @@
         <v>4</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2762</v>
+        <v>0.0067</v>
       </c>
       <c r="H5" s="3">
-        <v>0.4228</v>
+        <v>0.0208</v>
       </c>
       <c r="I5" s="3">
-        <v>0.4273</v>
+        <v>0.0304</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6079,13 +6079,13 @@
         <v>5</v>
       </c>
       <c r="G6" s="3">
-        <v>0.3395</v>
+        <v>0.1344</v>
       </c>
       <c r="H6" s="3">
-        <v>0.2778</v>
+        <v>0.0371</v>
       </c>
       <c r="I6" s="3">
-        <v>0.2951</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6093,13 +6093,13 @@
         <v>6</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2831</v>
+        <v>0.3328</v>
       </c>
       <c r="H7" s="3">
-        <v>0.2531</v>
+        <v>0.2081</v>
       </c>
       <c r="I7" s="3">
-        <v>0.2655</v>
+        <v>0.2198</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6107,13 +6107,13 @@
         <v>7</v>
       </c>
       <c r="G8" s="3">
-        <v>0.1926</v>
+        <v>0.3993</v>
       </c>
       <c r="H8" s="3">
-        <v>0.2479</v>
+        <v>0.5041</v>
       </c>
       <c r="I8" s="3">
-        <v>0.2577</v>
+        <v>0.4942</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6121,13 +6121,13 @@
         <v>8</v>
       </c>
       <c r="G9" s="3">
-        <v>0.1457</v>
+        <v>0.3316</v>
       </c>
       <c r="H9" s="3">
-        <v>0.07920000000000001</v>
+        <v>0.2305</v>
       </c>
       <c r="I9" s="3">
-        <v>0.0929</v>
+        <v>0.2398</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6135,13 +6135,13 @@
         <v>9</v>
       </c>
       <c r="G10" s="3">
-        <v>0.0327</v>
+        <v>0.4129</v>
       </c>
       <c r="H10" s="3">
-        <v>-0.0212</v>
+        <v>0.3534</v>
       </c>
       <c r="I10" s="3">
-        <v>-0.0063</v>
+        <v>0.3665</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6149,13 +6149,13 @@
         <v>10</v>
       </c>
       <c r="G11" s="3">
-        <v>0.2263</v>
+        <v>0.082</v>
       </c>
       <c r="H11" s="3">
-        <v>0.1228</v>
+        <v>0.1032</v>
       </c>
       <c r="I11" s="3">
-        <v>0.1355</v>
+        <v>0.1075</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6163,28 +6163,28 @@
         <v>32</v>
       </c>
       <c r="B12" s="1">
-        <v>2748.9013</v>
+        <v>1546.8062</v>
       </c>
       <c r="C12" s="3">
-        <v>0.196</v>
+        <v>0.1335</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1686</v>
+        <v>0.1389</v>
       </c>
       <c r="E12" s="1">
-        <v>0.5239</v>
+        <v>0.2026</v>
       </c>
       <c r="F12" s="1">
-        <v>0.4589</v>
+        <v>-0.1766</v>
       </c>
       <c r="G12" s="3">
-        <v>0.1953</v>
+        <v>0.1371</v>
       </c>
       <c r="H12" s="3">
-        <v>0.2071</v>
+        <v>0.1199</v>
       </c>
       <c r="I12" s="3">
-        <v>0.2168</v>
+        <v>0.1274</v>
       </c>
     </row>
   </sheetData>
